--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\gitsearch\research\sekkei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DB0B7-E8A6-4CED-B228-B5B8977E841E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EFBA1-C812-4244-A59D-E119C3F66FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="226">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -2176,17 +2176,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  column_name data_type [, ... ]</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">create unique index on member_hist_info (member_id);
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2373,7 +2372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2462,6 +2461,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2751,21 +2753,21 @@
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="71.125" customWidth="1"/>
-    <col min="5" max="5" width="58.875" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="71.09765625" customWidth="1"/>
+    <col min="5" max="5" width="58.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" customWidth="1"/>
     <col min="7" max="7" width="34.5" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="40.375" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="45.125" customWidth="1"/>
-    <col min="13" max="13" width="29.75" customWidth="1"/>
-    <col min="14" max="14" width="54.625" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="29.19921875" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" customWidth="1"/>
+    <col min="10" max="10" width="40.3984375" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" customWidth="1"/>
+    <col min="12" max="12" width="45.09765625" customWidth="1"/>
+    <col min="13" max="13" width="29.69921875" customWidth="1"/>
+    <col min="14" max="14" width="54.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -2871,7 +2873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="168.75">
+    <row r="5" spans="2:15" ht="162">
       <c r="B5" s="16"/>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
@@ -3307,7 +3309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="131.25">
+    <row r="16" spans="2:15" ht="126">
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4" t="s">
@@ -3427,7 +3429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="56.25">
+    <row r="19" spans="2:15" ht="54">
       <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4" t="s">
@@ -3465,7 +3467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="56.25">
+    <row r="20" spans="2:15" ht="54">
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="5" t="s">
@@ -3665,7 +3667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="393.75">
+    <row r="25" spans="2:15" ht="378">
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4" t="s">
@@ -3705,7 +3707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="93.75">
+    <row r="26" spans="2:15" ht="90">
       <c r="B26" s="16"/>
       <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
@@ -3762,16 +3764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
   <dimension ref="A3:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="60.625" customWidth="1"/>
-    <col min="3" max="3" width="86.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="60.59765625" customWidth="1"/>
+    <col min="3" max="3" width="86.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="33.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
@@ -3808,7 +3810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75">
+    <row r="5" spans="1:8" ht="72">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56.25">
+    <row r="6" spans="1:8" ht="54">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="243.75">
+    <row r="8" spans="1:8" ht="234">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25">
+    <row r="9" spans="1:8" ht="54">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="93.75">
+    <row r="11" spans="1:8" ht="90">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3928,10 +3930,10 @@
         <v>126</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="56.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3948,10 +3950,10 @@
         <v>128</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="56.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3969,7 +3971,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="37.5">
+    <row r="14" spans="1:8" ht="36">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="56.25">
+    <row r="15" spans="1:8" ht="54">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56.25">
+    <row r="16" spans="1:8" ht="54">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4038,7 +4040,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="112.5">
+    <row r="18" spans="1:8" ht="108">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4073,7 +4075,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="75">
+    <row r="20" spans="1:8" ht="72">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="93.75">
+    <row r="21" spans="1:8" ht="72">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="93.75">
+    <row r="22" spans="1:8" ht="72">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="93.75">
+    <row r="24" spans="1:8" ht="90">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4167,16 +4169,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="32.09765625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4242,7 +4244,7 @@
         <v>185</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" s="16"/>
       <c r="G8" t="str">
@@ -4274,7 +4276,7 @@
         <v>187</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" s="16"/>
       <c r="G10" t="str">
@@ -4438,18 +4440,19 @@
         <v>position smallint);</v>
       </c>
     </row>
+    <row r="21" spans="2:7" ht="108">
+      <c r="B21" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="22" spans="2:7">
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="28" t="s">
-        <v>223</v>
-      </c>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="28" t="s">
-        <v>224</v>
-      </c>
+      <c r="B24" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4466,10 +4469,10 @@
       <selection activeCell="B4" sqref="B4:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:2">

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EFBA1-C812-4244-A59D-E119C3F66FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CBB5CC-537A-4816-A60E-863B6567DA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="282">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -1800,43 +1801,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">・在籍ID
-・プロジェクトID
-・参画日時
-・作業形態
-(自社、客先、テレワーク)
-・作業場所
-・契約形態
-・脱退日時
-・脱退種別
-(顧客起因、自社起因、個人起因)
-・在籍状態
-(参画社内提案、参画客先提案、参画内定、参画中、脱退社内提案、脱退内定、脱退)
-</t>
-  </si>
-  <si>
     <t>顧客情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト営業運営履歴情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プロジェクト営業運営履歴情報ID
-・プロジェクトID
-・顧客担当者名
-・いつから
-・いつまで
-・作業形態
-(自社、客先、テレワーク)
-・作業場所
-・契約形態
-・言語、スキル
-・工程
-・請負見積金額
-・何人
-・状態(営業中、運営中、運営完了)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1848,12 +1813,6 @@
 ・会社名
 ・顧客担当者
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プロジェクトID
-・プロジェクト名
-・顧客ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2186,6 +2145,356 @@
   <si>
     <t xml:space="preserve">create unique index on member_hist_info (member_id);
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト人数推移情報</t>
+    <rPh sb="6" eb="8">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プロジェクトID
+・プロジェクト名
+・顧客ID
+・いつから
+・いつまで
+・状態(営業中、運営中、運営完了)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・プロジェクトID
+・いつから
+・何人
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・在籍ID
+・プロジェクトID
+・参画日時
+・脱退日時
+・脱退種別
+(顧客起因、自社起因、個人起因)
+・在籍状態
+(参画社内提案、参画客先提案、参画内定、参画中、脱退社内提案、脱退内定、脱退)
+・作業形態
+(自社、客先、テレワーク)
+・作業場所
+・契約形態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日付</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト人数推移情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要員数</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_member_num_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト在籍履歴情報</t>
+    <rPh sb="6" eb="8">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_enrolled_hist_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参画日付</t>
+    <rPh sb="0" eb="2">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱退日付</t>
+    <rPh sb="0" eb="2">
+      <t>ダッタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝番</t>
+    <rPh sb="0" eb="1">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱退種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:顧客起因、1:自社起因、2:個人起因</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在籍状態</t>
+    <rPh sb="0" eb="2">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enrolled_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:参画内定、1:参画中、2:脱退内定、3:脱退</t>
+    <rPh sb="2" eb="4">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価推移情報</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_transition_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト在籍履歴ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enrolled_hist_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト開始経過月</t>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_months</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価開始日付</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社開始経過月</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menber_months</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create unique index on client_info (client_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create unique index on project_info (project_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:運営中、1:運営完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on project_info (client_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on project_member_num_info (project_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create unique index on project_enrolled_hist_info (enrolled_hist_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on project_enrolled_hist_info (project_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on project_enrolled_hist_info (member_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on price_transition_info (member_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on price_transition_info (enrolled_hist_id);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2372,7 +2681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2453,6 +2762,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2462,9 +2774,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2771,19 +3081,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -3764,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
   <dimension ref="A3:H24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3801,7 +4111,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>118</v>
@@ -3815,10 +4125,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>118</v>
@@ -3827,15 +4137,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54">
+    <row r="6" spans="1:8" ht="126.6" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>118</v>
@@ -3849,10 +4159,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>118</v>
@@ -3861,7 +4171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="234">
+    <row r="8" spans="1:8" ht="216">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3869,7 +4179,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>118</v>
@@ -3930,7 +4240,7 @@
         <v>126</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54">
@@ -3950,7 +4260,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54">
@@ -3967,7 +4277,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -4002,7 +4312,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54">
@@ -4019,7 +4329,7 @@
         <v>119</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="92.25" customHeight="1">
@@ -4036,7 +4346,7 @@
         <v>119</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -4054,7 +4364,7 @@
         <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="94.5" customHeight="1">
@@ -4071,7 +4381,7 @@
         <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -4106,7 +4416,7 @@
         <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="72">
@@ -4123,7 +4433,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="148.5" customHeight="1">
@@ -4140,7 +4450,7 @@
         <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="90">
@@ -4148,14 +4458,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4167,53 +4477,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="B3:G24"/>
+  <dimension ref="B4:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" customWidth="1"/>
     <col min="3" max="3" width="21.3984375" customWidth="1"/>
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="32.09765625" customWidth="1"/>
+    <col min="5" max="5" width="42.796875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="D3">
-        <f>20*12</f>
-        <v>240</v>
-      </c>
-    </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="D5">
-        <f>2</f>
-        <v>2</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F6" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C4&amp;" ("</f>
@@ -4222,13 +4520,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E7" s="16"/>
       <c r="G7" t="str">
@@ -4238,13 +4536,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E8" s="16"/>
       <c r="G8" t="str">
@@ -4254,13 +4552,13 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E9" s="16"/>
       <c r="G9" t="str">
@@ -4270,13 +4568,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E10" s="16"/>
       <c r="G10" t="str">
@@ -4286,13 +4584,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E11" s="16"/>
       <c r="G11" t="str">
@@ -4302,13 +4600,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" s="16"/>
       <c r="G12" t="str">
@@ -4318,16 +4616,16 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>200</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -4336,13 +4634,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E14" s="16"/>
       <c r="G14" t="str">
@@ -4352,16 +4650,16 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4370,16 +4668,16 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="E16" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -4388,16 +4686,16 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4406,16 +4704,16 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -4424,35 +4722,710 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" t="str">
         <f>C19 &amp; " " &amp; D19 &amp; ");"</f>
         <v>position smallint);</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="108">
-      <c r="B21" s="33" t="s">
-        <v>225</v>
+    <row r="21" spans="2:7" ht="72">
+      <c r="B21" s="30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="28"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="28"/>
+      <c r="B23" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C23&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  client_info (</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="G26" t="str">
+        <f>C26 &amp; " " &amp; D26 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27" si="1">C27 &amp; " " &amp; D27 &amp; ","</f>
+        <v>client_id text,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="G28" t="str">
+        <f>C28 &amp; " " &amp; D28 &amp; ");"</f>
+        <v>client_name text);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C33&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  project_info (</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="G36" t="str">
+        <f>C36 &amp; " " &amp; D36 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37:G41" si="2">C37 &amp; " " &amp; D37 &amp; ","</f>
+        <v>project_id text,</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>project_name text,</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>client_id text,</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>start_date date,</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>end_date date,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" t="str">
+        <f>C42 &amp; " " &amp; D42 &amp; ");"</f>
+        <v>project_status smallint);</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C50&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  project_member_num_info (</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="G53" t="str">
+        <f>C53 &amp; " " &amp; D53 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="G54" t="str">
+        <f t="shared" ref="G54" si="3">C54 &amp; " " &amp; D54 &amp; ","</f>
+        <v>project_id text,</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="G55" t="str">
+        <f>C55 &amp; " " &amp; D55 &amp; ","</f>
+        <v>project_months smallint,</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="G56" t="str">
+        <f>C56 &amp; " " &amp; D56 &amp; ");"</f>
+        <v>member_num smallint);</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C63&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  project_enrolled_hist_info (</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="G66" t="str">
+        <f>C66 &amp; " " &amp; D66 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G73" si="4">C67 &amp; " " &amp; D67 &amp; ","</f>
+        <v>enrolled_hist_id text,</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>member_id text,</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>project_id text,</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>branch_num smallint,</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v>join_date date,</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v>stop_date date,</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v>stop_type smallint,</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" t="str">
+        <f>C74 &amp; " " &amp; D74 &amp; ");"</f>
+        <v>enrolled_status smallint);</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F85" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C83&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  price_transition_info (</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="G86" t="str">
+        <f>C86 &amp; " " &amp; D86 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="G87" t="str">
+        <f t="shared" ref="G87:G90" si="5">C87 &amp; " " &amp; D87 &amp; ","</f>
+        <v>member_id text,</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="G88" t="str">
+        <f t="shared" si="5"/>
+        <v>menber_months smallint,</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="G89" t="str">
+        <f t="shared" si="5"/>
+        <v>enrolled_hist_id text,</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="G90" t="str">
+        <f t="shared" si="5"/>
+        <v>price_start_date date,</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="G91" t="str">
+        <f>C91 &amp; " " &amp; D91 &amp; ");"</f>
+        <v>price integer);</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CBB5CC-537A-4816-A60E-863B6567DA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C2BB4-A985-422F-AA14-C8FBCA2B1217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="287">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -2495,6 +2494,35 @@
   </si>
   <si>
     <t>create index on price_transition_info (enrolled_hist_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select project_id,max(project_months) as max_project_months from project_member_num_info where project_id = '1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参画時入社開始経過月</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱退時入社開始経過月</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_member_months</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop_member_months</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2765,6 +2793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2774,7 +2803,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3081,19 +3109,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -4075,7 +4103,7 @@
   <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4477,16 +4505,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="B4:G94"/>
+  <dimension ref="B4:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="38.796875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
     <col min="5" max="5" width="42.796875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
@@ -5073,6 +5101,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="59" spans="2:7">
+      <c r="E59" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="63" spans="2:7">
       <c r="B63" s="27" t="s">
         <v>245</v>
@@ -5127,7 +5160,7 @@
       </c>
       <c r="E67" s="16"/>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G73" si="4">C67 &amp; " " &amp; D67 &amp; ","</f>
+        <f t="shared" ref="G67:G75" si="4">C67 &amp; " " &amp; D67 &amp; ","</f>
         <v>enrolled_hist_id text,</v>
       </c>
     </row>
@@ -5197,233 +5230,265 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="16" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E72" s="16"/>
       <c r="G72" t="str">
         <f t="shared" si="4"/>
-        <v>stop_date date,</v>
+        <v>join_member_months smallint,</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>255</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E73" s="16"/>
       <c r="G73" t="str">
         <f t="shared" si="4"/>
-        <v>stop_type smallint,</v>
+        <v>stop_date date,</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="16" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="16"/>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v>stop_member_months smallint,</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>stop_type smallint,</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="G74" t="str">
-        <f>C74 &amp; " " &amp; D74 &amp; ");"</f>
+      <c r="G76" t="str">
+        <f>C76 &amp; " " &amp; D76 &amp; ");"</f>
         <v>enrolled_status smallint);</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-    </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>260</v>
-      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C87" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D87" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E87" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F85" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C83&amp;" ("</f>
+      <c r="F87" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C85&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  price_transition_info (</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="G86" t="str">
-        <f>C86 &amp; " " &amp; D86 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E87" s="16"/>
-      <c r="G87" t="str">
-        <f t="shared" ref="G87:G90" si="5">C87 &amp; " " &amp; D87 &amp; ","</f>
-        <v>member_id text,</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="16" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E88" s="16"/>
       <c r="G88" t="str">
-        <f t="shared" si="5"/>
-        <v>menber_months smallint,</v>
+        <f>C88 &amp; " " &amp; D88 &amp; ","</f>
+        <v>tbl_id serial ,</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="16" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>219</v>
       </c>
       <c r="E89" s="16"/>
       <c r="G89" t="str">
-        <f t="shared" si="5"/>
-        <v>enrolled_hist_id text,</v>
+        <f t="shared" ref="G89:G92" si="5">C89 &amp; " " &amp; D89 &amp; ","</f>
+        <v>member_id text,</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E90" s="16"/>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
-        <v>price_start_date date,</v>
+        <v>menber_months smallint,</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="16" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="E91" s="16"/>
       <c r="G91" t="str">
-        <f>C91 &amp; " " &amp; D91 &amp; ");"</f>
+        <f t="shared" si="5"/>
+        <v>enrolled_hist_id text,</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="G92" t="str">
+        <f t="shared" si="5"/>
+        <v>price_start_date date,</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="G93" t="str">
+        <f>C93 &amp; " " &amp; D93 &amp; ");"</f>
         <v>price integer);</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" t="s">
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" t="s">
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
         <v>281</v>
       </c>
     </row>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C2BB4-A985-422F-AA14-C8FBCA2B1217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324E806-C37A-4631-A2E6-DB45D6912022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
     <sheet name="論理データ一覧" sheetId="2" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="シーケンス一覧" sheetId="4" r:id="rId4"/>
+    <sheet name="計算対象マスタ" sheetId="5" r:id="rId4"/>
+    <sheet name="共変量マスタ" sheetId="6" r:id="rId5"/>
+    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="360">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -1444,21 +1446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・線グラフ+箱ひげ図
-(個人単位)
-プロジェクト開始からの経過年月×退プロ(顧客起因)確率(信頼区間、信用区間)</t>
-    <rPh sb="12" eb="14">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■個人在籍率曲線グラフ
 ・線グラフ+箱ひげ図
 (個人単位)
@@ -1561,10 +1548,6 @@
 入社経過年月×退職確率(信頼区間、信用区間)
 ・線グラフ+箱ひげ図
 ハザード値</t>
-  </si>
-  <si>
-    <t>・線グラフ+箱ひげ図
-(全体単位)入社経過年月×単金(信頼区間、信用区間)</t>
   </si>
   <si>
     <t>・ピラミッドグラフ
@@ -2525,12 +2508,540 @@
     <t>stop_member_months</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・線グラフ+箱ひげ図
+(全体単位)入社経過年月×単金(信頼区間、信用区間)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・線グラフ+箱ひげ図
+(個人単位)
+プロジェクト開始からの経過年月×退プロ(個人起因)確率(信頼区間、信用区間)</t>
+    <rPh sb="12" eb="14">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・線グラフ+箱ひげ図
+(全体)
+プロジェクト開始からの経過年月×退プロ(個人起因)確率(信頼区間、信用区間)</t>
+    <rPh sb="12" eb="14">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ同上</t>
+    <rPh sb="2" eb="4">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量コード</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量名</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量種別</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲開始</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲終了</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量有効情報</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_effective_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range_end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効状態開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効可否</t>
+    <rPh sb="2" eb="4">
+      <t>カヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect_start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_effective_info (covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_effective_info (effect_start_time);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量情報</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベル</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算ID</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culc_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量開始日時</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量値</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベル名</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:boolean,1:カテゴリ,2:順序,3:整数,4:実数</t>
+    <rPh sb="19" eb="21">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean:0,1、カテゴリ:整数、
+順序:整数、整数:0、実数:0</t>
+    <rPh sb="17" eb="19">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象コード</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象名</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culc_target_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culc_target_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_info (covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culc_target_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create unique index  on culc_target_mst (culc_target_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create unique index  on covariates_mst(covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退プロ(客都合)</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退プロ(メンバー都合)</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退プロ(会社都合)</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト終了(客都合)</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト終了(会社都合)</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算対象コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_effective_info (culc_target_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_info (culc_target_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過年</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベルマスタ</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_label_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベルコード</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_label_mst(covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index  on covariates_label_mst(covariates_label_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2576,24 +3087,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2618,8 +3118,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2705,11 +3211,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2777,14 +3292,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2794,6 +3303,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2803,6 +3315,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2818,6 +3332,91 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2504661</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AD8871-562D-42BE-AE5A-0276325C6FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003774" y="735496"/>
+          <a:ext cx="2418522" cy="1199321"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>PRIMARY KEY </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定されていないのでは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3086,7 +3685,7 @@
   <dimension ref="B2:O26"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
@@ -3109,19 +3708,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -3359,7 +3958,7 @@
         <v>38</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>91</v>
@@ -3397,7 +3996,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>41</v>
@@ -3435,7 +4034,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>41</v>
@@ -3475,7 +4074,7 @@
         <v>38</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>41</v>
@@ -3635,7 +4234,7 @@
         <v>37</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>53</v>
@@ -3691,7 +4290,7 @@
       <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -3703,7 +4302,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>37</v>
@@ -3731,7 +4330,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -3743,7 +4342,7 @@
         <v>70</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>37</v>
@@ -4018,10 +4617,10 @@
         <v>54</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -4042,7 +4641,7 @@
         <v>40</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="90">
@@ -4100,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
-  <dimension ref="A3:H24"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4139,7 +4738,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>118</v>
@@ -4153,10 +4752,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>118</v>
@@ -4170,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>118</v>
@@ -4187,10 +4786,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>118</v>
@@ -4207,7 +4806,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>118</v>
@@ -4259,7 +4858,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>119</v>
@@ -4267,8 +4866,8 @@
       <c r="E11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>220</v>
+      <c r="F11" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54">
@@ -4279,7 +4878,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>119</v>
@@ -4287,8 +4886,8 @@
       <c r="E12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>220</v>
+      <c r="F12" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54">
@@ -4299,13 +4898,16 @@
         <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>218</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -4325,175 +4927,204 @@
       <c r="E14" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="F14" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="54">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="92.25" customHeight="1">
+        <v>167</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="54">
       <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="108">
+      <c r="E17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="92.25" customHeight="1">
       <c r="A18" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="94.5" customHeight="1">
+        <v>162</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="108">
       <c r="A19" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>145</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="72">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="94.5" customHeight="1">
       <c r="A20" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="72">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="72">
       <c r="A22" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>152</v>
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="148.5" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72">
       <c r="A23" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="90">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="148.5" customHeight="1">
       <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
-        <v>174</v>
+      <c r="B25" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4505,10 +5136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="B4:G96"/>
+  <dimension ref="B4:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4521,25 +5152,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>217</v>
+      <c r="B6" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F6" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C4&amp;" ("</f>
@@ -4548,13 +5179,13 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="16"/>
       <c r="G7" t="str">
@@ -4564,13 +5195,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E8" s="16"/>
       <c r="G8" t="str">
@@ -4580,13 +5211,13 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" s="16"/>
       <c r="G9" t="str">
@@ -4596,13 +5227,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" s="16"/>
       <c r="G10" t="str">
@@ -4612,13 +5243,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="16"/>
       <c r="G11" t="str">
@@ -4628,13 +5259,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="16"/>
       <c r="G12" t="str">
@@ -4644,16 +5275,16 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -4662,13 +5293,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" s="16"/>
       <c r="G14" t="str">
@@ -4678,16 +5309,16 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4696,16 +5327,16 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -4714,16 +5345,16 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4732,16 +5363,16 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -4750,16 +5381,16 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" t="str">
         <f>C19 &amp; " " &amp; D19 &amp; ");"</f>
@@ -4767,33 +5398,33 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="72">
-      <c r="B21" s="30" t="s">
-        <v>221</v>
+      <c r="B21" s="28" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="28"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="27" t="s">
-        <v>161</v>
+      <c r="B23" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>217</v>
+      <c r="B25" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F25" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C23&amp;" ("</f>
@@ -4802,13 +5433,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E26" s="16"/>
       <c r="G26" t="str">
@@ -4818,13 +5449,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="16"/>
       <c r="G27" t="str">
@@ -4834,13 +5465,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="16"/>
       <c r="G28" t="str">
@@ -4849,33 +5480,33 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="28" t="s">
-        <v>272</v>
+      <c r="B30" s="26" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="28"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="27" t="s">
-        <v>162</v>
+      <c r="B33" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>217</v>
+      <c r="B35" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F35" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C33&amp;" ("</f>
@@ -4884,13 +5515,13 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="16"/>
       <c r="G36" t="str">
@@ -4900,13 +5531,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="16"/>
       <c r="G37" t="str">
@@ -4916,13 +5547,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E38" s="16"/>
       <c r="G38" t="str">
@@ -4932,13 +5563,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="16"/>
       <c r="G39" t="str">
@@ -4948,13 +5579,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E40" s="16"/>
       <c r="G40" t="str">
@@ -4964,13 +5595,13 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E41" s="16"/>
       <c r="G41" t="str">
@@ -4980,16 +5611,16 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G42" t="str">
         <f>C42 &amp; " " &amp; D42 &amp; ");"</f>
@@ -4997,35 +5628,35 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>217</v>
+      <c r="B52" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F52" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C50&amp;" ("</f>
@@ -5034,13 +5665,13 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="16"/>
       <c r="G53" t="str">
@@ -5050,13 +5681,13 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E54" s="16"/>
       <c r="G54" t="str">
@@ -5066,13 +5697,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" s="16"/>
       <c r="G55" t="str">
@@ -5082,13 +5713,13 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>244</v>
-      </c>
       <c r="D56" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" s="16"/>
       <c r="G56" t="str">
@@ -5097,35 +5728,35 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="28" t="s">
-        <v>276</v>
+      <c r="B58" s="26" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="E59" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="27" t="s">
-        <v>245</v>
+      <c r="B63" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>217</v>
+      <c r="B65" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F65" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C63&amp;" ("</f>
@@ -5134,13 +5765,13 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E66" s="16"/>
       <c r="G66" t="str">
@@ -5150,13 +5781,13 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E67" s="16"/>
       <c r="G67" t="str">
@@ -5166,13 +5797,13 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E68" s="16"/>
       <c r="G68" t="str">
@@ -5182,13 +5813,13 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E69" s="16"/>
       <c r="G69" t="str">
@@ -5198,13 +5829,13 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E70" s="16"/>
       <c r="G70" t="str">
@@ -5214,13 +5845,13 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="D71" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71" s="16"/>
       <c r="G71" t="str">
@@ -5230,13 +5861,13 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>285</v>
-      </c>
       <c r="D72" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="16"/>
       <c r="G72" t="str">
@@ -5246,13 +5877,13 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>250</v>
-      </c>
       <c r="D73" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E73" s="16"/>
       <c r="G73" t="str">
@@ -5262,13 +5893,13 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>286</v>
-      </c>
       <c r="D74" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" s="16"/>
       <c r="G74" t="str">
@@ -5278,16 +5909,16 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="4"/>
@@ -5296,16 +5927,16 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="G76" t="str">
         <f>C76 &amp; " " &amp; D76 &amp; ");"</f>
@@ -5313,73 +5944,73 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="B80" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="27" t="s">
-        <v>259</v>
+      <c r="B85" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>217</v>
+      <c r="B87" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="F87" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C85&amp;" ("</f>
@@ -5388,13 +6019,13 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E88" s="16"/>
       <c r="G88" t="str">
@@ -5404,13 +6035,13 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E89" s="16"/>
       <c r="G89" t="str">
@@ -5420,13 +6051,13 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E90" s="16"/>
       <c r="G90" t="str">
@@ -5436,13 +6067,13 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E91" s="16"/>
       <c r="G91" t="str">
@@ -5452,13 +6083,13 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92" s="16"/>
       <c r="G92" t="str">
@@ -5468,13 +6099,13 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>271</v>
-      </c>
       <c r="D93" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E93" s="16"/>
       <c r="G93" t="str">
@@ -5484,52 +6115,934 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F100" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C98&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  culc_target_mst (</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="G101" t="str">
+        <f>C101 &amp; " " &amp; D101 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="G102" t="str">
+        <f t="shared" ref="G102" si="6">C102 &amp; " " &amp; D102 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="G103" t="str">
+        <f>C103 &amp; " " &amp; D103 &amp; ");"</f>
+        <v>culc_target_name text);</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="26"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C110&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_mst (</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="G113" t="str">
+        <f>C113 &amp; " " &amp; D113 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="G114" t="str">
+        <f t="shared" ref="G114:G117" si="7">C114 &amp; " " &amp; D114 &amp; ","</f>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="16"/>
+      <c r="G115" t="str">
+        <f t="shared" si="7"/>
+        <v>covariates_name text,</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="7"/>
+        <v>covariates_type smallint,</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="G117" t="str">
+        <f t="shared" si="7"/>
+        <v>range_start decimal,</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="G118" t="str">
+        <f>C118 &amp; " " &amp; D118 &amp; ");"</f>
+        <v>range_end decimal);</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F124" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C122&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_label_mst (</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="G125" t="str">
+        <f>C125 &amp; " " &amp; D125 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" s="16"/>
+      <c r="G126" t="str">
+        <f t="shared" ref="G126" si="8">C126 &amp; " " &amp; D126 &amp; ","</f>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="G127" t="str">
+        <f>C127 &amp; " " &amp; D127 &amp; ","</f>
+        <v>covariates_label text,</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" s="16"/>
+      <c r="G128" t="str">
+        <f>C128 &amp; " " &amp; D128 &amp; ");"</f>
+        <v>covariates_name text);</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F135" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C133&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_effective_info (</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="G136" t="str">
+        <f>C136 &amp; " " &amp; D136 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="G137" t="str">
+        <f t="shared" ref="G137:G140" si="9">C137 &amp; " " &amp; D137 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E138" s="16"/>
+      <c r="G138" t="str">
+        <f t="shared" si="9"/>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="16"/>
+      <c r="G139" t="str">
+        <f t="shared" si="9"/>
+        <v>effect_start_time timestamp ,</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="G140" t="str">
+        <f t="shared" si="9"/>
+        <v>culc_id text,</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="G141" t="str">
+        <f>C141 &amp; " " &amp; D141 &amp; ");"</f>
+        <v>effect_flg boolean);</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F149" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C147&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E150" s="16"/>
+      <c r="G150" t="str">
+        <f>C150 &amp; " " &amp; D150 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E151" s="16"/>
+      <c r="G151" t="str">
+        <f t="shared" ref="G151:G155" si="10">C151 &amp; " " &amp; D151 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" s="16"/>
+      <c r="G152" t="str">
+        <f t="shared" si="10"/>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="21.6" customHeight="1">
+      <c r="B153" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="10"/>
+        <v>covariates_label smallint,</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E154" s="16"/>
+      <c r="G154" t="str">
+        <f t="shared" si="10"/>
+        <v>effect_start_time timestamp ,</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" s="16"/>
+      <c r="G155" t="str">
+        <f t="shared" si="10"/>
+        <v>culc_id text,</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156" s="16"/>
+      <c r="G156" t="str">
+        <f>C156 &amp; " " &amp; D156 &amp; ");"</f>
+        <v>covariates_value decimal);</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DE2471-9E69-461E-B40F-5F4AED3CC3D8}">
-  <dimension ref="B12:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DC889-717B-421E-BAAF-2E78C55AC4FB}">
+  <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="2:2">
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="26"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="26"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="25"/>
+    <row r="3" spans="3:5">
+      <c r="C3" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="16">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
+  <dimension ref="C5:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="C5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
+  <dimension ref="C4:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324E806-C37A-4631-A2E6-DB45D6912022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9DFEB8-FF9B-4104-979C-33593A9F0EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="404">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -2700,13 +2700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共変量ラベル</t>
-    <rPh sb="0" eb="3">
-      <t>キョウヘンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計算ID</t>
     <rPh sb="0" eb="2">
       <t>ケイサン</t>
@@ -2768,23 +2761,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boolean:0,1、カテゴリ:整数、
-順序:整数、整数:0、実数:0</t>
-    <rPh sb="17" eb="19">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジュンジョ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計算対象コード</t>
     <rPh sb="0" eb="2">
       <t>ケイサン</t>
@@ -2969,16 +2945,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>経過年</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C00001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3005,35 +2971,207 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共変量ラベルコード</t>
+    <t>create index on covariates_label_mst(covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベル番号</t>
     <rPh sb="0" eb="2">
       <t>キョウヘン</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>リョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create index on covariates_label_mst(covariates_code);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>covariates_label</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共変量ラベル</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_label_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_label_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index  on covariates_label_mst(covariates_label_num);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年未満</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年未満</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>経過年数</t>
     <rPh sb="0" eb="2">
-      <t>キョウヘン</t>
+      <t>ケイカ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create index  on covariates_label_mst(covariates_label_code);</t>
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年未満</t>
+  </si>
+  <si>
+    <t>4年未満</t>
+  </si>
+  <si>
+    <t>5年未満</t>
+  </si>
+  <si>
+    <t>6年未満</t>
+  </si>
+  <si>
+    <t>7年未満</t>
+  </si>
+  <si>
+    <t>8年未満</t>
+  </si>
+  <si>
+    <t>9年未満</t>
+  </si>
+  <si>
+    <t>10年未満</t>
+  </si>
+  <si>
+    <t>11年未満</t>
+  </si>
+  <si>
+    <t>12年未満</t>
+  </si>
+  <si>
+    <t>13年未満</t>
+  </si>
+  <si>
+    <t>14年未満</t>
+  </si>
+  <si>
+    <t>15年未満</t>
+  </si>
+  <si>
+    <t>16年未満</t>
+  </si>
+  <si>
+    <t>17年未満</t>
+  </si>
+  <si>
+    <t>18年未満</t>
+  </si>
+  <si>
+    <t>19年未満</t>
+  </si>
+  <si>
+    <t>20年未満</t>
+  </si>
+  <si>
+    <t>21年未満</t>
+  </si>
+  <si>
+    <t>22年未満</t>
+  </si>
+  <si>
+    <t>23年未満</t>
+  </si>
+  <si>
+    <t>24年未満</t>
+  </si>
+  <si>
+    <t>25年未満</t>
+  </si>
+  <si>
+    <t>26年未満</t>
+  </si>
+  <si>
+    <t>27年未満</t>
+  </si>
+  <si>
+    <t>28年未満</t>
+  </si>
+  <si>
+    <t>29年未満</t>
+  </si>
+  <si>
+    <t>30年未満</t>
+  </si>
+  <si>
+    <t>31年未満</t>
+  </si>
+  <si>
+    <t>32年未満</t>
+  </si>
+  <si>
+    <t>33年未満</t>
+  </si>
+  <si>
+    <t>34年未満</t>
+  </si>
+  <si>
+    <t>35年未満</t>
+  </si>
+  <si>
+    <t>36年未満</t>
+  </si>
+  <si>
+    <t>37年未満</t>
+  </si>
+  <si>
+    <t>38年未満</t>
+  </si>
+  <si>
+    <t>39年未満</t>
+  </si>
+  <si>
+    <t>40年未満</t>
+  </si>
+  <si>
+    <t>create index on covariates_info (covariates_label_num);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into  covariates_label_mst (covariates_code,covariates_label_num,covariates_label_name)  values </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3306,6 +3444,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3315,8 +3455,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3708,19 +3846,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -4702,7 +4840,7 @@
   <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5136,10 +5274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="B4:G160"/>
+  <dimension ref="A4:G160"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5147,11 +5285,14 @@
     <col min="2" max="2" width="38.796875" customWidth="1"/>
     <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="42.796875" customWidth="1"/>
+    <col min="5" max="5" width="29.796875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
@@ -5159,7 +5300,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6" s="25" t="s">
         <v>175</v>
       </c>
@@ -5177,7 +5318,7 @@
         <v>CREATE TABLE IF NOT EXISTS  member_hist_info (</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7" s="16" t="s">
         <v>203</v>
       </c>
@@ -5193,7 +5334,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="B8" s="16" t="s">
         <v>204</v>
       </c>
@@ -5209,7 +5350,7 @@
         <v>member_id text,</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
       <c r="B9" s="16" t="s">
         <v>205</v>
       </c>
@@ -5225,7 +5366,7 @@
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
       <c r="B10" s="16" t="s">
         <v>206</v>
       </c>
@@ -5241,7 +5382,7 @@
         <v>name text,</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:7">
       <c r="B11" s="16" t="s">
         <v>207</v>
       </c>
@@ -5257,7 +5398,7 @@
         <v>enter_date date,</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
       <c r="B12" s="16" t="s">
         <v>208</v>
       </c>
@@ -5273,7 +5414,7 @@
         <v>enter_old smallint,</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
@@ -5291,7 +5432,7 @@
         <v>status smallint ,</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:7">
       <c r="B14" s="16" t="s">
         <v>216</v>
       </c>
@@ -5307,7 +5448,7 @@
         <v>retirement_date date,</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:7">
       <c r="B15" s="16" t="s">
         <v>210</v>
       </c>
@@ -5325,7 +5466,7 @@
         <v>retirement_type smallint,</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:7">
       <c r="B16" s="16" t="s">
         <v>211</v>
       </c>
@@ -5343,7 +5484,7 @@
         <v>sex smallint,</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
       <c r="B17" s="16" t="s">
         <v>212</v>
       </c>
@@ -5361,7 +5502,7 @@
         <v>flesh_or_not smallint,</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="1:7">
       <c r="B18" s="16" t="s">
         <v>213</v>
       </c>
@@ -5379,7 +5520,7 @@
         <v>department smallint,</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="1:7">
       <c r="B19" s="16" t="s">
         <v>214</v>
       </c>
@@ -5397,15 +5538,18 @@
         <v>position smallint);</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="72">
+    <row r="21" spans="1:7" ht="72">
       <c r="B21" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="1:7">
       <c r="B22" s="26"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" s="25" t="s">
         <v>159</v>
       </c>
@@ -5413,7 +5557,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="1:7">
       <c r="B25" s="25" t="s">
         <v>175</v>
       </c>
@@ -5431,7 +5575,7 @@
         <v>CREATE TABLE IF NOT EXISTS  client_info (</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="1:7">
       <c r="B26" s="16" t="s">
         <v>203</v>
       </c>
@@ -5447,7 +5591,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="1:7">
       <c r="B27" s="16" t="s">
         <v>222</v>
       </c>
@@ -5463,7 +5607,7 @@
         <v>client_id text,</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="1:7">
       <c r="B28" s="16" t="s">
         <v>223</v>
       </c>
@@ -5479,15 +5623,18 @@
         <v>client_name text);</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="1:7">
       <c r="B30" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="1:7">
       <c r="B31" s="26"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>3</v>
+      </c>
       <c r="B33" s="25" t="s">
         <v>160</v>
       </c>
@@ -5495,7 +5642,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
       <c r="B35" s="25" t="s">
         <v>175</v>
       </c>
@@ -5513,7 +5660,7 @@
         <v>CREATE TABLE IF NOT EXISTS  project_info (</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
       <c r="B36" s="16" t="s">
         <v>203</v>
       </c>
@@ -5529,7 +5676,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="1:7">
       <c r="B37" s="16" t="s">
         <v>226</v>
       </c>
@@ -5545,7 +5692,7 @@
         <v>project_id text,</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
       <c r="B38" s="16" t="s">
         <v>227</v>
       </c>
@@ -5561,7 +5708,7 @@
         <v>project_name text,</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="1:7">
       <c r="B39" s="16" t="s">
         <v>228</v>
       </c>
@@ -5577,7 +5724,7 @@
         <v>client_id text,</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="1:7">
       <c r="B40" s="16" t="s">
         <v>205</v>
       </c>
@@ -5593,7 +5740,7 @@
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="1:7">
       <c r="B41" s="16" t="s">
         <v>236</v>
       </c>
@@ -5609,7 +5756,7 @@
         <v>end_date date,</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="1:7">
       <c r="B42" s="16" t="s">
         <v>235</v>
       </c>
@@ -5627,17 +5774,20 @@
         <v>project_status smallint);</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7">
       <c r="B44" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
       <c r="B45" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>4</v>
+      </c>
       <c r="B50" s="25" t="s">
         <v>239</v>
       </c>
@@ -5645,7 +5795,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
       <c r="B52" s="25" t="s">
         <v>175</v>
       </c>
@@ -5663,7 +5813,7 @@
         <v>CREATE TABLE IF NOT EXISTS  project_member_num_info (</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
       <c r="B53" s="16" t="s">
         <v>203</v>
       </c>
@@ -5679,7 +5829,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
       <c r="B54" s="16" t="s">
         <v>226</v>
       </c>
@@ -5695,7 +5845,7 @@
         <v>project_id text,</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
       <c r="B55" s="16" t="s">
         <v>261</v>
       </c>
@@ -5711,7 +5861,7 @@
         <v>project_months smallint,</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="1:7">
       <c r="B56" s="16" t="s">
         <v>240</v>
       </c>
@@ -5727,17 +5877,20 @@
         <v>member_num smallint);</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
       <c r="B58" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="1:7">
       <c r="E59" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>5</v>
+      </c>
       <c r="B63" s="25" t="s">
         <v>243</v>
       </c>
@@ -5973,25 +6126,28 @@
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="1:7">
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="1:7">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="1:7">
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>6</v>
+      </c>
       <c r="B85" s="25" t="s">
         <v>257</v>
       </c>
@@ -5999,7 +6155,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="1:7">
       <c r="B87" s="25" t="s">
         <v>175</v>
       </c>
@@ -6017,7 +6173,7 @@
         <v>CREATE TABLE IF NOT EXISTS  price_transition_info (</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="1:7">
       <c r="B88" s="16" t="s">
         <v>203</v>
       </c>
@@ -6033,7 +6189,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="1:7">
       <c r="B89" s="16" t="s">
         <v>204</v>
       </c>
@@ -6049,7 +6205,7 @@
         <v>member_id text,</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="1:7">
       <c r="B90" s="16" t="s">
         <v>265</v>
       </c>
@@ -6065,7 +6221,7 @@
         <v>menber_months smallint,</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="1:7">
       <c r="B91" s="16" t="s">
         <v>259</v>
       </c>
@@ -6081,7 +6237,7 @@
         <v>enrolled_hist_id text,</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="1:7">
       <c r="B92" s="16" t="s">
         <v>263</v>
       </c>
@@ -6097,7 +6253,7 @@
         <v>price_start_date date,</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="1:7">
       <c r="B93" s="16" t="s">
         <v>267</v>
       </c>
@@ -6113,25 +6269,28 @@
         <v>price integer);</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="1:7">
       <c r="B95" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="1:7">
       <c r="B96" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>7</v>
+      </c>
       <c r="B98" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="B100" s="25" t="s">
         <v>175</v>
       </c>
@@ -6149,7 +6308,7 @@
         <v>CREATE TABLE IF NOT EXISTS  culc_target_mst (</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="1:7">
       <c r="B101" s="16" t="s">
         <v>203</v>
       </c>
@@ -6165,12 +6324,12 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="1:7">
       <c r="B102" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>323</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>217</v>
@@ -6181,12 +6340,12 @@
         <v>culc_target_code text,</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="1:7">
       <c r="B103" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>217</v>
@@ -6197,53 +6356,56 @@
         <v>culc_target_name text);</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="1:7">
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="1:7">
       <c r="B105" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="1:7">
       <c r="B106" s="26"/>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="1:7">
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="1:7">
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="1:7">
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>8</v>
+      </c>
       <c r="B110" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="B112" s="25" t="s">
         <v>175</v>
       </c>
@@ -6261,7 +6423,7 @@
         <v>CREATE TABLE IF NOT EXISTS  covariates_mst (</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="1:7">
       <c r="B113" s="16" t="s">
         <v>203</v>
       </c>
@@ -6277,7 +6439,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="1:7">
       <c r="B114" s="16" t="s">
         <v>290</v>
       </c>
@@ -6293,7 +6455,7 @@
         <v>covariates_code text,</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="1:7">
       <c r="B115" s="16" t="s">
         <v>291</v>
       </c>
@@ -6309,7 +6471,7 @@
         <v>covariates_name text,</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="1:7">
       <c r="B116" s="16" t="s">
         <v>293</v>
       </c>
@@ -6320,14 +6482,14 @@
         <v>188</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="7"/>
         <v>covariates_type smallint,</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="1:7">
       <c r="B117" s="16" t="s">
         <v>295</v>
       </c>
@@ -6343,7 +6505,7 @@
         <v>range_start decimal,</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="1:7">
       <c r="B118" s="16" t="s">
         <v>297</v>
       </c>
@@ -6359,20 +6521,23 @@
         <v>range_end decimal);</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="1:7">
       <c r="B120" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>9</v>
+      </c>
       <c r="B122" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="B124" s="25" t="s">
         <v>175</v>
       </c>
@@ -6390,7 +6555,7 @@
         <v>CREATE TABLE IF NOT EXISTS  covariates_label_mst (</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="1:7">
       <c r="B125" s="16" t="s">
         <v>203</v>
       </c>
@@ -6406,7 +6571,7 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="1:7">
       <c r="B126" s="16" t="s">
         <v>290</v>
       </c>
@@ -6422,28 +6587,28 @@
         <v>covariates_code text,</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="1:7">
       <c r="B127" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="E127" s="16"/>
       <c r="G127" t="str">
         <f>C127 &amp; " " &amp; D127 &amp; ","</f>
-        <v>covariates_label text,</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="B128" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>217</v>
@@ -6451,20 +6616,23 @@
       <c r="E128" s="16"/>
       <c r="G128" t="str">
         <f>C128 &amp; " " &amp; D128 &amp; ");"</f>
-        <v>covariates_name text);</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
+        <v>covariates_label_name text);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="B130" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="B131" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
-      <c r="B131" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>10</v>
+      </c>
       <c r="B133" s="25" t="s">
         <v>298</v>
       </c>
@@ -6472,7 +6640,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="1:7">
       <c r="B135" s="25" t="s">
         <v>175</v>
       </c>
@@ -6490,7 +6658,7 @@
         <v>CREATE TABLE IF NOT EXISTS  covariates_effective_info (</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="1:7">
       <c r="B136" s="16" t="s">
         <v>203</v>
       </c>
@@ -6506,12 +6674,12 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="1:7">
       <c r="B137" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>217</v>
@@ -6522,7 +6690,7 @@
         <v>culc_target_code text,</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="1:7">
       <c r="B138" s="16" t="s">
         <v>290</v>
       </c>
@@ -6538,7 +6706,7 @@
         <v>covariates_code text,</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="1:7">
       <c r="B139" s="16" t="s">
         <v>302</v>
       </c>
@@ -6554,12 +6722,12 @@
         <v>effect_start_time timestamp ,</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="1:7">
       <c r="B140" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>217</v>
@@ -6570,7 +6738,7 @@
         <v>culc_id text,</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="1:7">
       <c r="B141" s="16" t="s">
         <v>303</v>
       </c>
@@ -6586,22 +6754,25 @@
         <v>effect_flg boolean);</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="1:7">
       <c r="B143" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="B144" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="1:7">
       <c r="B145" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>11</v>
+      </c>
       <c r="B147" s="25" t="s">
         <v>310</v>
       </c>
@@ -6609,7 +6780,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="1:7">
       <c r="B149" s="25" t="s">
         <v>175</v>
       </c>
@@ -6627,7 +6798,7 @@
         <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
       </c>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="1:7">
       <c r="B150" s="16" t="s">
         <v>203</v>
       </c>
@@ -6643,12 +6814,12 @@
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="1:7">
       <c r="B151" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>217</v>
@@ -6659,7 +6830,7 @@
         <v>culc_target_code text,</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="1:7">
       <c r="B152" s="16" t="s">
         <v>290</v>
       </c>
@@ -6675,27 +6846,25 @@
         <v>covariates_code text,</v>
       </c>
     </row>
-    <row r="153" spans="2:7" ht="21.6" customHeight="1">
+    <row r="153" spans="1:7" ht="21.6" customHeight="1">
       <c r="B153" s="16" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E153" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="E153" s="17"/>
       <c r="G153" t="str">
         <f t="shared" si="10"/>
-        <v>covariates_label smallint,</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7">
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="B154" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>305</v>
@@ -6709,12 +6878,12 @@
         <v>effect_start_time timestamp ,</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="1:7">
       <c r="B155" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>217</v>
@@ -6725,12 +6894,12 @@
         <v>culc_id text,</v>
       </c>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="1:7">
       <c r="B156" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>301</v>
@@ -6741,19 +6910,19 @@
         <v>covariates_value decimal);</v>
       </c>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="1:7">
       <c r="B158" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="B159" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="B160" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6769,24 +6938,24 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="24.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>331</v>
+      <c r="C3" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="3:5">
@@ -6794,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -6805,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="3:5">
@@ -6816,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>339</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -6827,10 +6996,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="3:5">
@@ -6838,10 +7007,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="3:5">
@@ -6849,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6865,15 +7034,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
   <dimension ref="C5:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="16.09765625" customWidth="1"/>
     <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6896,10 +7065,10 @@
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
@@ -6907,14 +7076,16 @@
       <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -6976,73 +7147,664 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
-  <dimension ref="C4:E12"/>
+  <dimension ref="C4:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="21.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
-      <c r="C4" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="35" t="s">
+    <row r="4" spans="3:9">
+      <c r="C4" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D4" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <v>('C00001','0','1年未満'),</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G46" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <v>('C00001','1','2年未満'),</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','2','3年未満'),</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','3','4年未満'),</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','4','5年未満'),</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','5','6年未満'),</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','6','7年未満'),</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','7','8年未満'),</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="16">
+        <v>8</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','8','9年未満'),</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','9','10年未満'),</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','10','11年未満'),</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','11','12年未満'),</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="16">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','12','13年未満'),</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="16">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','13','14年未満'),</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="16">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','14','15年未満'),</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="16">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','15','16年未満'),</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="16">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','16','17年未満'),</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="16">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','17','18年未満'),</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="16">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','18','19年未満'),</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="16">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','19','20年未満'),</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="16">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','20','21年未満'),</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" s="16">
+        <v>21</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','21','22年未満'),</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="16">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','22','23年未満'),</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="16">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','23','24年未満'),</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="16">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','24','25年未満'),</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="16">
+        <v>25</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','25','26年未満'),</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="16">
+        <v>26</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','26','27年未満'),</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="16">
+        <v>27</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','27','28年未満'),</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','28','29年未満'),</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="16">
+        <v>29</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','29','30年未満'),</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="16">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','30','31年未満'),</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" s="16">
+        <v>31</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','31','32年未満'),</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="16">
+        <v>32</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','32','33年未満'),</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="16">
+        <v>33</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','33','34年未満'),</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="16">
+        <v>34</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','34','35年未満'),</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="16">
+        <v>35</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','35','36年未満'),</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="16">
+        <v>36</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','36','37年未満'),</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="16">
+        <v>37</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','37','38年未満'),</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="16">
+        <v>38</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','38','39年未満'),</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="16">
+        <v>39</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00001','39','40年未満'),</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00002','0','男性'),</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>('C00002','1','女性'),</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9DFEB8-FF9B-4104-979C-33593A9F0EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF37B5-0861-45CB-B145-140A40D4B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="論理データ一覧" sheetId="2" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="3" r:id="rId3"/>
     <sheet name="計算対象マスタ" sheetId="5" r:id="rId4"/>
-    <sheet name="共変量マスタ" sheetId="6" r:id="rId5"/>
-    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId6"/>
+    <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId5"/>
+    <sheet name="共変量マスタ" sheetId="6" r:id="rId6"/>
+    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="414">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3171,7 +3172,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">insert into  covariates_label_mst (covariates_code,covariates_label_num,covariates_label_name)  values </t>
+    <t>計算対象共変量マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>culc_target_covariates_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create  index  on culc_target_covariates_mst (culc_target_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create  index  on culc_target_covariates_mst (covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過月数</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP table </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C20001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C20003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3472,91 +3531,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>86139</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2504661</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AD8871-562D-42BE-AE5A-0276325C6FB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7003774" y="735496"/>
-          <a:ext cx="2418522" cy="1199321"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>PRIMARY KEY </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>が</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設定されていないのでは？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4839,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
   <dimension ref="A3:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5274,10 +5248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="A4:G160"/>
+  <dimension ref="A4:I168"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView topLeftCell="A126" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5285,11 +5259,12 @@
     <col min="2" max="2" width="38.796875" customWidth="1"/>
     <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="29.796875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="29.796875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5300,7 +5275,19 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="5" spans="1:9">
+      <c r="G5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" t="str">
+        <f>C4</f>
+        <v>member_hist_info</v>
+      </c>
+      <c r="I5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="25" t="s">
         <v>175</v>
       </c>
@@ -5311,14 +5298,17 @@
         <v>202</v>
       </c>
       <c r="E6" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C4&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  member_hist_info (</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="B7" s="16" t="s">
         <v>203</v>
       </c>
@@ -5328,13 +5318,16 @@
       <c r="D7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="G7" t="str">
-        <f>C7 &amp; " " &amp; D7 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="H7" t="str">
+        <f>C7&amp;" "&amp;D7&amp;IF(E7="○","PRIMARY KEY","")&amp;","</f>
+        <v>tbl_id serial PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="16" t="s">
         <v>204</v>
       </c>
@@ -5345,12 +5338,13 @@
         <v>217</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="G8" t="str">
-        <f t="shared" ref="G8:G18" si="0">C8 &amp; " " &amp; D8 &amp; ","</f>
+      <c r="F8" s="16"/>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:H18" si="0">C8 &amp; " " &amp; D8 &amp; ","</f>
         <v>member_id text,</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="B9" s="16" t="s">
         <v>205</v>
       </c>
@@ -5361,12 +5355,13 @@
         <v>187</v>
       </c>
       <c r="E9" s="16"/>
-      <c r="G9" t="str">
+      <c r="F9" s="16"/>
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="B10" s="16" t="s">
         <v>206</v>
       </c>
@@ -5377,12 +5372,13 @@
         <v>217</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="G10" t="str">
+      <c r="F10" s="16"/>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>name text,</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="B11" s="16" t="s">
         <v>207</v>
       </c>
@@ -5393,12 +5389,13 @@
         <v>187</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="G11" t="str">
+      <c r="F11" s="16"/>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>enter_date date,</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="B12" s="16" t="s">
         <v>208</v>
       </c>
@@ -5409,12 +5406,13 @@
         <v>188</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="G12" t="str">
+      <c r="F12" s="16"/>
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>enter_old smallint,</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
@@ -5424,15 +5422,16 @@
       <c r="D13" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>status smallint ,</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="B14" s="16" t="s">
         <v>216</v>
       </c>
@@ -5443,12 +5442,13 @@
         <v>187</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="G14" t="str">
+      <c r="F14" s="16"/>
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>retirement_date date,</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="16" t="s">
         <v>210</v>
       </c>
@@ -5458,15 +5458,16 @@
       <c r="D15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>retirement_type smallint,</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="16" t="s">
         <v>211</v>
       </c>
@@ -5476,15 +5477,16 @@
       <c r="D16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>sex smallint,</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="B17" s="16" t="s">
         <v>212</v>
       </c>
@@ -5494,15 +5496,16 @@
       <c r="D17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>flesh_or_not smallint,</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="B18" s="16" t="s">
         <v>213</v>
       </c>
@@ -5512,15 +5515,16 @@
       <c r="D18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>department smallint,</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="B19" s="16" t="s">
         <v>214</v>
       </c>
@@ -5530,23 +5534,24 @@
       <c r="D19" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f>C19 &amp; " " &amp; D19 &amp; ");"</f>
         <v>position smallint);</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="72">
+    <row r="21" spans="1:9" ht="72">
       <c r="B21" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="B22" s="26"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5557,7 +5562,19 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="24" spans="1:9">
+      <c r="G24" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" t="str">
+        <f>C23</f>
+        <v>client_info</v>
+      </c>
+      <c r="I24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="25" t="s">
         <v>175</v>
       </c>
@@ -5568,14 +5585,17 @@
         <v>202</v>
       </c>
       <c r="E25" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C23&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  client_info (</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="B26" s="16" t="s">
         <v>203</v>
       </c>
@@ -5585,13 +5605,16 @@
       <c r="D26" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="G26" t="str">
-        <f>C26 &amp; " " &amp; D26 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="H26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;IF(E26="○","PRIMARY KEY","")&amp;","</f>
+        <v>tbl_id serial PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" s="16" t="s">
         <v>222</v>
       </c>
@@ -5602,12 +5625,13 @@
         <v>217</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="G27" t="str">
-        <f t="shared" ref="G27" si="1">C27 &amp; " " &amp; D27 &amp; ","</f>
+      <c r="F27" s="16"/>
+      <c r="H27" t="str">
+        <f t="shared" ref="H27" si="1">C27 &amp; " " &amp; D27 &amp; ","</f>
         <v>client_id text,</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="B28" s="16" t="s">
         <v>223</v>
       </c>
@@ -5618,20 +5642,21 @@
         <v>217</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="G28" t="str">
+      <c r="F28" s="16"/>
+      <c r="H28" t="str">
         <f>C28 &amp; " " &amp; D28 &amp; ");"</f>
         <v>client_name text);</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="B30" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="B31" s="26"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>3</v>
       </c>
@@ -5642,7 +5667,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="B35" s="25" t="s">
         <v>175</v>
       </c>
@@ -5653,14 +5678,17 @@
         <v>202</v>
       </c>
       <c r="E35" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F35" t="str">
+      <c r="G35" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C33&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  project_info (</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="B36" s="16" t="s">
         <v>203</v>
       </c>
@@ -5670,13 +5698,16 @@
       <c r="D36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="G36" t="str">
+      <c r="E36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="H36" t="str">
         <f>C36 &amp; " " &amp; D36 &amp; ","</f>
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="B37" s="16" t="s">
         <v>226</v>
       </c>
@@ -5687,12 +5718,13 @@
         <v>217</v>
       </c>
       <c r="E37" s="16"/>
-      <c r="G37" t="str">
-        <f t="shared" ref="G37:G41" si="2">C37 &amp; " " &amp; D37 &amp; ","</f>
+      <c r="F37" s="16"/>
+      <c r="H37" t="str">
+        <f t="shared" ref="H37:H41" si="2">C37 &amp; " " &amp; D37 &amp; ","</f>
         <v>project_id text,</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="B38" s="16" t="s">
         <v>227</v>
       </c>
@@ -5703,12 +5735,13 @@
         <v>217</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="G38" t="str">
+      <c r="F38" s="16"/>
+      <c r="H38" t="str">
         <f t="shared" si="2"/>
         <v>project_name text,</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="B39" s="16" t="s">
         <v>228</v>
       </c>
@@ -5719,12 +5752,13 @@
         <v>217</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="G39" t="str">
+      <c r="F39" s="16"/>
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
         <v>client_id text,</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="B40" s="16" t="s">
         <v>205</v>
       </c>
@@ -5735,12 +5769,13 @@
         <v>187</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="G40" t="str">
+      <c r="F40" s="16"/>
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="B41" s="16" t="s">
         <v>236</v>
       </c>
@@ -5751,12 +5786,13 @@
         <v>187</v>
       </c>
       <c r="E41" s="16"/>
-      <c r="G41" t="str">
+      <c r="F41" s="16"/>
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
         <v>end_date date,</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="B42" s="16" t="s">
         <v>235</v>
       </c>
@@ -5766,25 +5802,26 @@
       <c r="D42" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f>C42 &amp; " " &amp; D42 &amp; ");"</f>
         <v>project_status smallint);</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="B44" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="B45" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>4</v>
       </c>
@@ -5795,7 +5832,19 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="51" spans="1:9">
+      <c r="G51" t="s">
+        <v>410</v>
+      </c>
+      <c r="H51" t="str">
+        <f>C50</f>
+        <v>project_member_num_info</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" s="25" t="s">
         <v>175</v>
       </c>
@@ -5806,14 +5855,17 @@
         <v>202</v>
       </c>
       <c r="E52" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C50&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  project_member_num_info (</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="B53" s="16" t="s">
         <v>203</v>
       </c>
@@ -5823,13 +5875,16 @@
       <c r="D53" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="G53" t="str">
+      <c r="E53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="H53" t="str">
         <f>C53 &amp; " " &amp; D53 &amp; ","</f>
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="B54" s="16" t="s">
         <v>226</v>
       </c>
@@ -5840,12 +5895,13 @@
         <v>217</v>
       </c>
       <c r="E54" s="16"/>
-      <c r="G54" t="str">
-        <f t="shared" ref="G54" si="3">C54 &amp; " " &amp; D54 &amp; ","</f>
+      <c r="F54" s="16"/>
+      <c r="H54" t="str">
+        <f t="shared" ref="H54" si="3">C54 &amp; " " &amp; D54 &amp; ","</f>
         <v>project_id text,</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="B55" s="16" t="s">
         <v>261</v>
       </c>
@@ -5856,12 +5912,13 @@
         <v>188</v>
       </c>
       <c r="E55" s="16"/>
-      <c r="G55" t="str">
+      <c r="F55" s="16"/>
+      <c r="H55" t="str">
         <f>C55 &amp; " " &amp; D55 &amp; ","</f>
         <v>project_months smallint,</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="B56" s="16" t="s">
         <v>240</v>
       </c>
@@ -5872,22 +5929,23 @@
         <v>188</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="G56" t="str">
+      <c r="F56" s="16"/>
+      <c r="H56" t="str">
         <f>C56 &amp; " " &amp; D56 &amp; ");"</f>
         <v>member_num smallint);</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="B58" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="E59" t="s">
+    <row r="59" spans="1:9">
+      <c r="F59" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>5</v>
       </c>
@@ -5898,7 +5956,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="64" spans="1:9">
+      <c r="G64" t="s">
+        <v>410</v>
+      </c>
+      <c r="H64" t="str">
+        <f>C63</f>
+        <v>project_enrolled_hist_info</v>
+      </c>
+      <c r="I64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="25" t="s">
         <v>175</v>
       </c>
@@ -5909,14 +5979,17 @@
         <v>202</v>
       </c>
       <c r="E65" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F65" t="str">
+      <c r="G65" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C63&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  project_enrolled_hist_info (</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:8">
       <c r="B66" s="16" t="s">
         <v>203</v>
       </c>
@@ -5926,13 +5999,16 @@
       <c r="D66" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="G66" t="str">
+      <c r="E66" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="H66" t="str">
         <f>C66 &amp; " " &amp; D66 &amp; ","</f>
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:8">
       <c r="B67" s="16" t="s">
         <v>259</v>
       </c>
@@ -5943,12 +6019,13 @@
         <v>217</v>
       </c>
       <c r="E67" s="16"/>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G75" si="4">C67 &amp; " " &amp; D67 &amp; ","</f>
+      <c r="F67" s="16"/>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H75" si="4">C67 &amp; " " &amp; D67 &amp; ","</f>
         <v>enrolled_hist_id text,</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:8">
       <c r="B68" s="16" t="s">
         <v>204</v>
       </c>
@@ -5959,12 +6036,13 @@
         <v>217</v>
       </c>
       <c r="E68" s="16"/>
-      <c r="G68" t="str">
+      <c r="F68" s="16"/>
+      <c r="H68" t="str">
         <f t="shared" si="4"/>
         <v>member_id text,</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:8">
       <c r="B69" s="16" t="s">
         <v>226</v>
       </c>
@@ -5975,12 +6053,13 @@
         <v>217</v>
       </c>
       <c r="E69" s="16"/>
-      <c r="G69" t="str">
+      <c r="F69" s="16"/>
+      <c r="H69" t="str">
         <f t="shared" si="4"/>
         <v>project_id text,</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:8">
       <c r="B70" s="16" t="s">
         <v>249</v>
       </c>
@@ -5991,12 +6070,13 @@
         <v>188</v>
       </c>
       <c r="E70" s="16"/>
-      <c r="G70" t="str">
+      <c r="F70" s="16"/>
+      <c r="H70" t="str">
         <f t="shared" si="4"/>
         <v>branch_num smallint,</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:8">
       <c r="B71" s="16" t="s">
         <v>245</v>
       </c>
@@ -6007,12 +6087,13 @@
         <v>187</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="G71" t="str">
+      <c r="F71" s="16"/>
+      <c r="H71" t="str">
         <f t="shared" si="4"/>
         <v>join_date date,</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:8">
       <c r="B72" s="16" t="s">
         <v>281</v>
       </c>
@@ -6023,12 +6104,13 @@
         <v>188</v>
       </c>
       <c r="E72" s="16"/>
-      <c r="G72" t="str">
+      <c r="F72" s="16"/>
+      <c r="H72" t="str">
         <f t="shared" si="4"/>
         <v>join_member_months smallint,</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:8">
       <c r="B73" s="16" t="s">
         <v>246</v>
       </c>
@@ -6039,12 +6121,13 @@
         <v>187</v>
       </c>
       <c r="E73" s="16"/>
-      <c r="G73" t="str">
+      <c r="F73" s="16"/>
+      <c r="H73" t="str">
         <f t="shared" si="4"/>
         <v>stop_date date,</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:8">
       <c r="B74" s="16" t="s">
         <v>282</v>
       </c>
@@ -6055,12 +6138,13 @@
         <v>188</v>
       </c>
       <c r="E74" s="16"/>
-      <c r="G74" t="str">
+      <c r="F74" s="16"/>
+      <c r="H74" t="str">
         <f t="shared" si="4"/>
         <v>stop_member_months smallint,</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:8">
       <c r="B75" s="16" t="s">
         <v>251</v>
       </c>
@@ -6070,15 +6154,16 @@
       <c r="D75" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G75" t="str">
+      <c r="H75" t="str">
         <f t="shared" si="4"/>
         <v>stop_type smallint,</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:8">
       <c r="B76" s="16" t="s">
         <v>254</v>
       </c>
@@ -6088,63 +6173,71 @@
       <c r="D76" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G76" t="str">
+      <c r="H76" t="str">
         <f>C76 &amp; " " &amp; D76 &amp; ");"</f>
         <v>enrolled_status smallint);</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:8">
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="26" t="s">
         <v>275</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="26" t="s">
         <v>277</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="26" t="s">
         <v>276</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="F83" s="29"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>6</v>
       </c>
@@ -6155,7 +6248,19 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="86" spans="1:9">
+      <c r="G86" t="s">
+        <v>410</v>
+      </c>
+      <c r="H86" t="str">
+        <f>C85</f>
+        <v>price_transition_info</v>
+      </c>
+      <c r="I86" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" s="25" t="s">
         <v>175</v>
       </c>
@@ -6166,14 +6271,17 @@
         <v>202</v>
       </c>
       <c r="E87" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F87" t="str">
+      <c r="G87" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C85&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  price_transition_info (</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9">
       <c r="B88" s="16" t="s">
         <v>203</v>
       </c>
@@ -6183,13 +6291,16 @@
       <c r="D88" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="G88" t="str">
+      <c r="E88" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="H88" t="str">
         <f>C88 &amp; " " &amp; D88 &amp; ","</f>
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9">
       <c r="B89" s="16" t="s">
         <v>204</v>
       </c>
@@ -6200,12 +6311,13 @@
         <v>217</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="G89" t="str">
-        <f t="shared" ref="G89:G92" si="5">C89 &amp; " " &amp; D89 &amp; ","</f>
+      <c r="F89" s="16"/>
+      <c r="H89" t="str">
+        <f t="shared" ref="H89:H92" si="5">C89 &amp; " " &amp; D89 &amp; ","</f>
         <v>member_id text,</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9">
       <c r="B90" s="16" t="s">
         <v>265</v>
       </c>
@@ -6216,12 +6328,13 @@
         <v>188</v>
       </c>
       <c r="E90" s="16"/>
-      <c r="G90" t="str">
+      <c r="F90" s="16"/>
+      <c r="H90" t="str">
         <f t="shared" si="5"/>
         <v>menber_months smallint,</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="B91" s="16" t="s">
         <v>259</v>
       </c>
@@ -6232,12 +6345,13 @@
         <v>217</v>
       </c>
       <c r="E91" s="16"/>
-      <c r="G91" t="str">
+      <c r="F91" s="16"/>
+      <c r="H91" t="str">
         <f t="shared" si="5"/>
         <v>enrolled_hist_id text,</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="B92" s="16" t="s">
         <v>263</v>
       </c>
@@ -6248,12 +6362,13 @@
         <v>187</v>
       </c>
       <c r="E92" s="16"/>
-      <c r="G92" t="str">
+      <c r="F92" s="16"/>
+      <c r="H92" t="str">
         <f t="shared" si="5"/>
         <v>price_start_date date,</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="B93" s="16" t="s">
         <v>267</v>
       </c>
@@ -6264,22 +6379,23 @@
         <v>268</v>
       </c>
       <c r="E93" s="16"/>
-      <c r="G93" t="str">
+      <c r="F93" s="16"/>
+      <c r="H93" t="str">
         <f>C93 &amp; " " &amp; D93 &amp; ");"</f>
         <v>price integer);</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>7</v>
       </c>
@@ -6290,7 +6406,19 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="99" spans="1:9">
+      <c r="G99" t="s">
+        <v>410</v>
+      </c>
+      <c r="H99" t="str">
+        <f>C98</f>
+        <v>culc_target_mst</v>
+      </c>
+      <c r="I99" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" s="25" t="s">
         <v>175</v>
       </c>
@@ -6301,14 +6429,17 @@
         <v>202</v>
       </c>
       <c r="E100" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F100" t="str">
+      <c r="G100" t="str">
         <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C98&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  culc_target_mst (</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9">
       <c r="B101" s="16" t="s">
         <v>203</v>
       </c>
@@ -6316,15 +6447,18 @@
         <v>178</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="G101" t="str">
+        <v>359</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="H101" t="str">
         <f>C101 &amp; " " &amp; D101 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>tbl_id smallint,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" s="16" t="s">
         <v>319</v>
       </c>
@@ -6335,12 +6469,13 @@
         <v>217</v>
       </c>
       <c r="E102" s="16"/>
-      <c r="G102" t="str">
-        <f t="shared" ref="G102" si="6">C102 &amp; " " &amp; D102 &amp; ","</f>
+      <c r="F102" s="16"/>
+      <c r="H102" t="str">
+        <f t="shared" ref="H102" si="6">C102 &amp; " " &amp; D102 &amp; ","</f>
         <v>culc_target_code text,</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9">
       <c r="B103" s="16" t="s">
         <v>320</v>
       </c>
@@ -6351,577 +6486,790 @@
         <v>217</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="G103" t="str">
+      <c r="F103" s="16"/>
+      <c r="H103" t="str">
         <f>C103 &amp; " " &amp; D103 &amp; ");"</f>
         <v>culc_target_name text);</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:9">
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="F104" s="29"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
         <v>326</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="F105" s="29"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" s="26"/>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="F106" s="29"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
         <v>8</v>
       </c>
+      <c r="B108" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="G109" t="s">
+        <v>410</v>
+      </c>
+      <c r="H109" t="str">
+        <f>C108</f>
+        <v>culc_target_covariates_mst</v>
+      </c>
+      <c r="I109" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G110" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C108&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  culc_target_covariates_mst (</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="H111" t="str">
+        <f>C111 &amp; " " &amp; D111 &amp; ","</f>
+        <v>tbl_id smallint,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="H112" t="str">
+        <f t="shared" ref="H112" si="7">C112 &amp; " " &amp; D112 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="B113" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="H113" t="str">
+        <f>C113 &amp; " " &amp; D113 &amp; ");"</f>
+        <v>covariates_code text);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="B115" t="s">
+        <v>405</v>
+      </c>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="B116" t="s">
+        <v>406</v>
+      </c>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>9</v>
+      </c>
+      <c r="B118" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C118" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="B112" s="25" t="s">
+    <row r="119" spans="1:9">
+      <c r="G119" t="s">
+        <v>410</v>
+      </c>
+      <c r="H119" t="str">
+        <f>C118</f>
+        <v>covariates_mst</v>
+      </c>
+      <c r="I119" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="B120" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C120" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D120" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E112" s="25" t="s">
+      <c r="E120" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F112" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C110&amp;" ("</f>
+      <c r="G120" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C118&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  covariates_mst (</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="16" t="s">
+    <row r="121" spans="1:9">
+      <c r="B121" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C121" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D121" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="16"/>
+      <c r="H121" t="str">
+        <f>C121 &amp; " " &amp; D121 &amp; ","</f>
+        <v>tbl_id smallint,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="B122" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="H122" t="str">
+        <f t="shared" ref="H122:H125" si="8">C122 &amp; " " &amp; D122 &amp; ","</f>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="B123" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="H123" t="str">
+        <f t="shared" si="8"/>
+        <v>covariates_name text,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="B124" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="8"/>
+        <v>covariates_type smallint,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="B125" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="H125" t="str">
+        <f t="shared" si="8"/>
+        <v>range_start decimal,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="B126" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="H126" t="str">
+        <f>C126 &amp; " " &amp; D126 &amp; ");"</f>
+        <v>range_end decimal);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="B128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>10</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="G131" t="s">
+        <v>410</v>
+      </c>
+      <c r="H131" t="str">
+        <f>C130</f>
+        <v>covariates_label_mst</v>
+      </c>
+      <c r="I131" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="B132" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G132" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C130&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_label_mst (</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="B133" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="H133" t="str">
+        <f>C133 &amp; " " &amp; D133 &amp; ","</f>
+        <v>tbl_id smallint,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="B134" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="H134" t="str">
+        <f t="shared" ref="H134" si="9">C134 &amp; " " &amp; D134 &amp; ","</f>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="B135" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="H135" t="str">
+        <f>C135 &amp; " " &amp; D135 &amp; ","</f>
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="B136" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="H136" t="str">
+        <f>C136 &amp; " " &amp; D136 &amp; ");"</f>
+        <v>covariates_label_name text);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="B138" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="B139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="G142" t="s">
+        <v>410</v>
+      </c>
+      <c r="H142" t="str">
+        <f>C141</f>
+        <v>covariates_effective_info</v>
+      </c>
+      <c r="I142" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="B143" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G143" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C141&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_effective_info (</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="B144" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="G113" t="str">
-        <f>C113 &amp; " " &amp; D113 &amp; ","</f>
+      <c r="E144" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="16"/>
+      <c r="H144" t="str">
+        <f>C144 &amp; " " &amp; D144 &amp; ","</f>
         <v>tbl_id serial ,</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="16" t="s">
+    <row r="145" spans="1:9">
+      <c r="B145" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="H145" t="str">
+        <f t="shared" ref="H145:H148" si="10">C145 &amp; " " &amp; D145 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="B146" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C146" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D146" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E114" s="16"/>
-      <c r="G114" t="str">
-        <f t="shared" ref="G114:G117" si="7">C114 &amp; " " &amp; D114 &amp; ","</f>
-        <v>covariates_code text,</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="G115" t="str">
-        <f t="shared" si="7"/>
-        <v>covariates_name text,</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="B116" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="7"/>
-        <v>covariates_type smallint,</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E117" s="16"/>
-      <c r="G117" t="str">
-        <f t="shared" si="7"/>
-        <v>range_start decimal,</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="B118" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="G118" t="str">
-        <f>C118 &amp; " " &amp; D118 &amp; ");"</f>
-        <v>range_end decimal);</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="B120" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>9</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F124" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C122&amp;" ("</f>
-        <v>CREATE TABLE IF NOT EXISTS  covariates_label_mst (</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="G125" t="str">
-        <f>C125 &amp; " " &amp; D125 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="B126" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="G126" t="str">
-        <f t="shared" ref="G126" si="8">C126 &amp; " " &amp; D126 &amp; ","</f>
-        <v>covariates_code text,</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="B127" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E127" s="16"/>
-      <c r="G127" t="str">
-        <f>C127 &amp; " " &amp; D127 &amp; ","</f>
-        <v>covariates_label_num smallint,</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="B128" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E128" s="16"/>
-      <c r="G128" t="str">
-        <f>C128 &amp; " " &amp; D128 &amp; ");"</f>
-        <v>covariates_label_name text);</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="B130" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="B131" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>10</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="B135" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C135" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F135" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C133&amp;" ("</f>
-        <v>CREATE TABLE IF NOT EXISTS  covariates_effective_info (</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="B136" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E136" s="16"/>
-      <c r="G136" t="str">
-        <f>C136 &amp; " " &amp; D136 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E137" s="16"/>
-      <c r="G137" t="str">
-        <f t="shared" ref="G137:G140" si="9">C137 &amp; " " &amp; D137 &amp; ","</f>
-        <v>culc_target_code text,</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="B138" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E138" s="16"/>
-      <c r="G138" t="str">
-        <f t="shared" si="9"/>
-        <v>covariates_code text,</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="B139" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E139" s="16"/>
-      <c r="G139" t="str">
-        <f t="shared" si="9"/>
-        <v>effect_start_time timestamp ,</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="B140" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E140" s="16"/>
-      <c r="G140" t="str">
-        <f t="shared" si="9"/>
-        <v>culc_id text,</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="B141" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E141" s="16"/>
-      <c r="G141" t="str">
-        <f>C141 &amp; " " &amp; D141 &amp; ");"</f>
-        <v>effect_flg boolean);</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="B145" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
-        <v>11</v>
-      </c>
-      <c r="B147" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="B149" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E149" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F149" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C147&amp;" ("</f>
-        <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="B150" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E150" s="16"/>
-      <c r="G150" t="str">
-        <f>C150 &amp; " " &amp; D150 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="B151" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E151" s="16"/>
-      <c r="G151" t="str">
-        <f t="shared" ref="G151:G155" si="10">C151 &amp; " " &amp; D151 &amp; ","</f>
-        <v>culc_target_code text,</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="B152" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E152" s="16"/>
-      <c r="G152" t="str">
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="H146" t="str">
         <f t="shared" si="10"/>
         <v>covariates_code text,</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="21.6" customHeight="1">
-      <c r="B153" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E153" s="17"/>
-      <c r="G153" t="str">
-        <f t="shared" si="10"/>
-        <v>covariates_label_num smallint,</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="B154" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C154" s="16" t="s">
+    <row r="147" spans="1:9">
+      <c r="B147" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="D147" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E154" s="16"/>
-      <c r="G154" t="str">
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="H147" t="str">
         <f t="shared" si="10"/>
         <v>effect_start_time timestamp ,</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="B155" s="16" t="s">
+    <row r="148" spans="1:9">
+      <c r="B148" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C148" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D148" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E155" s="16"/>
-      <c r="G155" t="str">
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="H148" t="str">
         <f t="shared" si="10"/>
         <v>culc_id text,</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="B156" s="16" t="s">
+    <row r="149" spans="1:9">
+      <c r="B149" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="H149" t="str">
+        <f>C149 &amp; " " &amp; D149 &amp; ");"</f>
+        <v>effect_flg boolean);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="B151" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="B152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="B153" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>12</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="G156" t="s">
+        <v>410</v>
+      </c>
+      <c r="H156" t="str">
+        <f>C155</f>
+        <v>covariates_info</v>
+      </c>
+      <c r="I156" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="B157" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G157" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C155&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="B158" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="16"/>
+      <c r="H158" t="str">
+        <f>C158 &amp; " " &amp; D158 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="B159" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="H159" t="str">
+        <f t="shared" ref="H159:H163" si="11">C159 &amp; " " &amp; D159 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="B160" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="H160" t="str">
+        <f t="shared" si="11"/>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="21.6" customHeight="1">
+      <c r="B161" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E161" s="16"/>
+      <c r="F161" s="17"/>
+      <c r="H161" t="str">
+        <f t="shared" si="11"/>
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="H162" t="str">
+        <f t="shared" si="11"/>
+        <v>effect_start_time timestamp ,</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="H163" t="str">
+        <f t="shared" si="11"/>
+        <v>culc_id text,</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C164" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D164" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="E156" s="16"/>
-      <c r="G156" t="str">
-        <f>C156 &amp; " " &amp; D156 &amp; ");"</f>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="H164" t="str">
+        <f>C164 &amp; " " &amp; D164 &amp; ");"</f>
         <v>covariates_value decimal);</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="B158" t="s">
+    <row r="166" spans="2:8">
+      <c r="B166" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="B159" t="s">
+    <row r="167" spans="2:8">
+      <c r="B167" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="B160" t="s">
+    <row r="168" spans="2:8">
+      <c r="B168" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6929,16 +7277,15 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DC889-717B-421E-BAAF-2E78C55AC4FB}">
-  <dimension ref="C3:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6947,7 +7294,27 @@
     <col min="5" max="5" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="1" spans="1:7" ht="36">
+      <c r="A1" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"insert into  "&amp;A1&amp;" (tbl_id,culc_target_code,culc_target_name)  values "</f>
+        <v xml:space="preserve">insert into  culc_target_mst (tbl_id,culc_target_code,culc_target_name)  values </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" s="31" t="s">
         <v>330</v>
       </c>
@@ -6958,7 +7325,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="1:7">
       <c r="C4" s="16">
         <v>1</v>
       </c>
@@ -6968,8 +7335,12 @@
       <c r="E4" s="16" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
+      <c r="G4" t="str">
+        <f>"('"&amp;C4&amp;"','"&amp;D4 &amp;"','"&amp;E4 &amp;"'),"</f>
+        <v>('1','CT0001','退職'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="16">
         <v>2</v>
       </c>
@@ -6979,8 +7350,12 @@
       <c r="E5" s="16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G9" si="0">"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <v>('2','CT0101','プロジェクト終了(客都合)'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="16">
         <v>3</v>
       </c>
@@ -6990,8 +7365,12 @@
       <c r="E6" s="16" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>('3','CT0102','プロジェクト終了(会社都合)'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="16">
         <v>4</v>
       </c>
@@ -7001,8 +7380,12 @@
       <c r="E7" s="16" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>('4','CT0201','退プロ(客都合)'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" s="16">
         <v>5</v>
       </c>
@@ -7012,8 +7395,12 @@
       <c r="E8" s="16" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>('5','CT0202','退プロ(メンバー都合)'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" s="16">
         <v>6</v>
       </c>
@@ -7022,6 +7409,10 @@
       </c>
       <c r="E9" s="16" t="s">
         <v>334</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>('6','CT0203','退プロ(会社都合)'),</v>
       </c>
     </row>
   </sheetData>
@@ -7031,113 +7422,292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
-  <dimension ref="C5:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA61F8-64F4-46E2-A988-903E2EDF090B}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="21.796875" customWidth="1"/>
+    <col min="6" max="6" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7">
-      <c r="C5" s="25" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"insert into  "&amp;A1&amp;" (tbl_id,culc_target_code,covariates_code)  values "</f>
+        <v xml:space="preserve">insert into  culc_target_covariates_mst (tbl_id,culc_target_code,covariates_code)  values </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="16" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>347</v>
       </c>
+      <c r="F5" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" t="str">
+        <f>"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <v>('1','CT0001','C00001'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
       <c r="D6" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>348</v>
       </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H16" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <v>('2','CT0001','C00002'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
       <c r="D7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>('3','CT0101','C00003'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>('4','CT0101','C00002'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>('5','CT0102','C00003'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="16">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>('6','CT0102','C00002'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="16">
+        <v>7</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>('7','CT0201','C00003'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="16">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>('8','CT0201','C00002'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="16">
+        <v>9</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>('9','CT0202','C00003'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="16">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>('10','CT0202','C00002'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="16">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>('11','CT0203','C00003'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>('12','CT0203','C00002'),</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7146,11 +7716,195 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36">
+      <c r="A1" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"insert into  "&amp;A1&amp;" (tbl_id,covariates_code,covariates_name,covariates_type,range_start,range_end)  values "</f>
+        <v xml:space="preserve">insert into  covariates_mst (tbl_id,covariates_code,covariates_name,covariates_type,range_start,range_end)  values </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>39</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"('"&amp;B6&amp;"','"&amp;C6 &amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"','"&amp;F6 &amp;"','"&amp;G6 &amp;"'),"</f>
+        <v>('1','C20001','経過年数','2','0','39'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I8" si="0">"('"&amp;B7&amp;"','"&amp;C7 &amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"','"&amp;F7 &amp;"','"&amp;G7 &amp;"'),"</f>
+        <v>('2','C00002','性別','0','0','1'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>479</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>('3','C20003','経過月数','2','0','479'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
-  <dimension ref="C4:I46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7160,7 +7914,29 @@
     <col min="5" max="5" width="20.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9">
+    <row r="1" spans="1:9" ht="54">
+      <c r="A1" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="31" t="s">
+        <v>330</v>
+      </c>
       <c r="C4" s="32" t="s">
         <v>290</v>
       </c>
@@ -7170,11 +7946,15 @@
       <c r="E4" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="G4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9">
+      <c r="G4" t="str">
+        <f>"insert into  "&amp;A1 &amp;" (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values "</f>
+        <v xml:space="preserve">insert into  covariates_label_mst (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
       <c r="C5" s="16" t="s">
         <v>347</v>
       </c>
@@ -7185,11 +7965,14 @@
         <v>357</v>
       </c>
       <c r="G5" t="str">
-        <f>"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
-        <v>('C00001','0','1年未満'),</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
+        <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <v>('1','C00001','0','1年未満'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
       <c r="C6" s="16" t="s">
         <v>347</v>
       </c>
@@ -7200,11 +7983,14 @@
         <v>358</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G46" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
-        <v>('C00001','1','2年未満'),</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
+        <f t="shared" ref="G6:G45" si="0">"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <v>('2','C00001','1','2年未満'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
       <c r="C7" s="16" t="s">
         <v>361</v>
       </c>
@@ -7216,10 +8002,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','2','3年未満'),</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
+        <v>('3','C00001','2','3年未満'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
       <c r="C8" s="16" t="s">
         <v>361</v>
       </c>
@@ -7231,10 +8020,13 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','3','4年未満'),</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+        <v>('4','C00001','3','4年未満'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
       <c r="C9" s="16" t="s">
         <v>361</v>
       </c>
@@ -7246,12 +8038,15 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','4','5年未満'),</v>
+        <v>('5','C00001','4','5年未満'),</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="1:9">
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
       <c r="C10" s="16" t="s">
         <v>361</v>
       </c>
@@ -7263,10 +8058,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','5','6年未満'),</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+        <v>('6','C00001','5','6年未満'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
       <c r="C11" s="16" t="s">
         <v>361</v>
       </c>
@@ -7278,10 +8076,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','6','7年未満'),</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
+        <v>('7','C00001','6','7年未満'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
       <c r="C12" s="16" t="s">
         <v>361</v>
       </c>
@@ -7293,10 +8094,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','7','8年未満'),</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+        <v>('8','C00001','7','8年未満'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
       <c r="C13" s="16" t="s">
         <v>361</v>
       </c>
@@ -7308,10 +8112,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','8','9年未満'),</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
+        <v>('9','C00001','8','9年未満'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
       <c r="C14" s="16" t="s">
         <v>361</v>
       </c>
@@ -7323,10 +8130,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','9','10年未満'),</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
+        <v>('10','C00001','9','10年未満'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="16">
+        <v>11</v>
+      </c>
       <c r="C15" s="16" t="s">
         <v>361</v>
       </c>
@@ -7338,10 +8148,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','10','11年未満'),</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9">
+        <v>('11','C00001','10','11年未満'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="16">
+        <v>12</v>
+      </c>
       <c r="C16" s="16" t="s">
         <v>361</v>
       </c>
@@ -7353,10 +8166,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','11','12年未満'),</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
+        <v>('12','C00001','11','12年未満'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="16">
+        <v>13</v>
+      </c>
       <c r="C17" s="16" t="s">
         <v>361</v>
       </c>
@@ -7368,10 +8184,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','12','13年未満'),</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>('13','C00001','12','13年未満'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="16">
+        <v>14</v>
+      </c>
       <c r="C18" s="16" t="s">
         <v>361</v>
       </c>
@@ -7383,10 +8202,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','13','14年未満'),</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
+        <v>('14','C00001','13','14年未満'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
       <c r="C19" s="16" t="s">
         <v>361</v>
       </c>
@@ -7398,10 +8220,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','14','15年未満'),</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
+        <v>('15','C00001','14','15年未満'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="16">
+        <v>16</v>
+      </c>
       <c r="C20" s="16" t="s">
         <v>361</v>
       </c>
@@ -7413,10 +8238,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','15','16年未満'),</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
+        <v>('16','C00001','15','16年未満'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
       <c r="C21" s="16" t="s">
         <v>361</v>
       </c>
@@ -7428,10 +8256,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','16','17年未満'),</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
+        <v>('17','C00001','16','17年未満'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16">
+        <v>18</v>
+      </c>
       <c r="C22" s="16" t="s">
         <v>361</v>
       </c>
@@ -7443,10 +8274,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','17','18年未満'),</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
+        <v>('18','C00001','17','18年未満'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
       <c r="C23" s="16" t="s">
         <v>361</v>
       </c>
@@ -7458,10 +8292,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','18','19年未満'),</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
+        <v>('19','C00001','18','19年未満'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="16">
+        <v>20</v>
+      </c>
       <c r="C24" s="16" t="s">
         <v>361</v>
       </c>
@@ -7473,10 +8310,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','19','20年未満'),</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
+        <v>('20','C00001','19','20年未満'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="16">
+        <v>21</v>
+      </c>
       <c r="C25" s="16" t="s">
         <v>361</v>
       </c>
@@ -7488,10 +8328,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','20','21年未満'),</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
+        <v>('21','C00001','20','21年未満'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="16">
+        <v>22</v>
+      </c>
       <c r="C26" s="16" t="s">
         <v>361</v>
       </c>
@@ -7503,10 +8346,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','21','22年未満'),</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
+        <v>('22','C00001','21','22年未満'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="16">
+        <v>23</v>
+      </c>
       <c r="C27" s="16" t="s">
         <v>361</v>
       </c>
@@ -7518,10 +8364,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','22','23年未満'),</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
+        <v>('23','C00001','22','23年未満'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="16">
+        <v>24</v>
+      </c>
       <c r="C28" s="16" t="s">
         <v>361</v>
       </c>
@@ -7533,10 +8382,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','23','24年未満'),</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
+        <v>('24','C00001','23','24年未満'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="16">
+        <v>25</v>
+      </c>
       <c r="C29" s="16" t="s">
         <v>361</v>
       </c>
@@ -7548,10 +8400,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','24','25年未満'),</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
+        <v>('25','C00001','24','25年未満'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="16">
+        <v>26</v>
+      </c>
       <c r="C30" s="16" t="s">
         <v>361</v>
       </c>
@@ -7563,10 +8418,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','25','26年未満'),</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
+        <v>('26','C00001','25','26年未満'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="16">
+        <v>27</v>
+      </c>
       <c r="C31" s="16" t="s">
         <v>361</v>
       </c>
@@ -7578,10 +8436,13 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','26','27年未満'),</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
+        <v>('27','C00001','26','27年未満'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="16">
+        <v>28</v>
+      </c>
       <c r="C32" s="16" t="s">
         <v>361</v>
       </c>
@@ -7593,10 +8454,13 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','27','28年未満'),</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
+        <v>('28','C00001','27','28年未満'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="16">
+        <v>29</v>
+      </c>
       <c r="C33" s="16" t="s">
         <v>361</v>
       </c>
@@ -7608,10 +8472,13 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','28','29年未満'),</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
+        <v>('29','C00001','28','29年未満'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="16">
+        <v>30</v>
+      </c>
       <c r="C34" s="16" t="s">
         <v>361</v>
       </c>
@@ -7623,10 +8490,13 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','29','30年未満'),</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
+        <v>('30','C00001','29','30年未満'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="16">
+        <v>31</v>
+      </c>
       <c r="C35" s="16" t="s">
         <v>361</v>
       </c>
@@ -7638,10 +8508,13 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','30','31年未満'),</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
+        <v>('31','C00001','30','31年未満'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="16">
+        <v>32</v>
+      </c>
       <c r="C36" s="16" t="s">
         <v>361</v>
       </c>
@@ -7653,10 +8526,13 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','31','32年未満'),</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
+        <v>('32','C00001','31','32年未満'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="16">
+        <v>33</v>
+      </c>
       <c r="C37" s="16" t="s">
         <v>361</v>
       </c>
@@ -7668,10 +8544,13 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','32','33年未満'),</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
+        <v>('33','C00001','32','33年未満'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="16">
+        <v>34</v>
+      </c>
       <c r="C38" s="16" t="s">
         <v>361</v>
       </c>
@@ -7683,10 +8562,13 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','33','34年未満'),</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
+        <v>('34','C00001','33','34年未満'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="16">
+        <v>35</v>
+      </c>
       <c r="C39" s="16" t="s">
         <v>361</v>
       </c>
@@ -7698,10 +8580,13 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','34','35年未満'),</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
+        <v>('35','C00001','34','35年未満'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="16">
+        <v>36</v>
+      </c>
       <c r="C40" s="16" t="s">
         <v>361</v>
       </c>
@@ -7713,10 +8598,13 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','35','36年未満'),</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
+        <v>('36','C00001','35','36年未満'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="16">
+        <v>37</v>
+      </c>
       <c r="C41" s="16" t="s">
         <v>361</v>
       </c>
@@ -7728,10 +8616,13 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','36','37年未満'),</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
+        <v>('37','C00001','36','37年未満'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="16">
+        <v>38</v>
+      </c>
       <c r="C42" s="16" t="s">
         <v>361</v>
       </c>
@@ -7743,10 +8634,13 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','37','38年未満'),</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
+        <v>('38','C00001','37','38年未満'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="16">
+        <v>39</v>
+      </c>
       <c r="C43" s="16" t="s">
         <v>361</v>
       </c>
@@ -7758,10 +8652,13 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','38','39年未満'),</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
+        <v>('39','C00001','38','39年未満'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="16">
+        <v>40</v>
+      </c>
       <c r="C44" s="16" t="s">
         <v>361</v>
       </c>
@@ -7773,10 +8670,13 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>('C00001','39','40年未満'),</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
+        <v>('40','C00001','39','40年未満'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="16">
+        <v>41</v>
+      </c>
       <c r="C45" s="16" t="s">
         <v>348</v>
       </c>
@@ -7788,10 +8688,13 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>('C00002','0','男性'),</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
+        <v>('41','C00002','0','男性'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="16">
+        <v>42</v>
+      </c>
       <c r="C46" s="16" t="s">
         <v>348</v>
       </c>
@@ -7802,8 +8705,8 @@
         <v>363</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>('C00002','1','女性'),</v>
+        <f>"('"&amp;B46&amp;"','"&amp;C46&amp;"','"&amp;D46 &amp;"','"&amp;E46 &amp;"'),"</f>
+        <v>('42','C00002','1','女性'),</v>
       </c>
     </row>
   </sheetData>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF37B5-0861-45CB-B145-140A40D4B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F556F9-215E-491C-B9D2-BF496E5B8378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="417">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3233,12 +3233,24 @@
     <t>C20003</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY ( culc_target_code,covariates_code )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY ( culc_target_code,covariates_code,covariates_label_num )</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3286,6 +3298,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -3421,7 +3439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3513,6 +3531,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5248,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="A4:I168"/>
+  <dimension ref="A4:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6976,300 +6997,288 @@
     </row>
     <row r="144" spans="1:9">
       <c r="B144" s="16" t="s">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="16"/>
       <c r="H144" t="str">
-        <f>C144 &amp; " " &amp; D144 &amp; ","</f>
-        <v>tbl_id serial ,</v>
+        <f t="shared" ref="H144:H147" si="10">C144 &amp; " " &amp; D144 &amp; ","</f>
+        <v>culc_target_code text,</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="B145" s="16" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E145" s="16"/>
+      <c r="E145" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F145" s="16"/>
       <c r="H145" t="str">
-        <f t="shared" ref="H145:H148" si="10">C145 &amp; " " &amp; D145 &amp; ","</f>
-        <v>culc_target_code text,</v>
+        <f t="shared" si="10"/>
+        <v>covariates_code text,</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="B146" s="16" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="H146" t="str">
         <f t="shared" si="10"/>
-        <v>covariates_code text,</v>
+        <v>effect_start_time timestamp ,</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="B147" s="16" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="H147" t="str">
         <f t="shared" si="10"/>
-        <v>effect_start_time timestamp ,</v>
+        <v>culc_id text,</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="B148" s="16" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
       <c r="H148" t="str">
-        <f t="shared" si="10"/>
-        <v>culc_id text,</v>
+        <f>C148 &amp; " " &amp; D148 &amp; ","</f>
+        <v>effect_flg boolean,</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="B149" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="H149" t="str">
-        <f>C149 &amp; " " &amp; D149 &amp; ");"</f>
-        <v>effect_flg boolean);</v>
+      <c r="G149" s="36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="B150" t="s">
+        <v>345</v>
+      </c>
+      <c r="G150" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="B153" t="s">
         <v>309</v>
       </c>
     </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="155" spans="1:9">
-      <c r="A155">
-        <v>12</v>
-      </c>
-      <c r="B155" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>311</v>
+      <c r="G155" t="s">
+        <v>410</v>
+      </c>
+      <c r="H155" t="str">
+        <f>C154</f>
+        <v>covariates_info</v>
+      </c>
+      <c r="I155" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="G156" t="s">
-        <v>410</v>
-      </c>
-      <c r="H156" t="str">
-        <f>C155</f>
-        <v>covariates_info</v>
-      </c>
-      <c r="I156" t="s">
-        <v>411</v>
+      <c r="B156" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G156" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C154&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="B157" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F157" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G157" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C155&amp;" ("</f>
-        <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
+      <c r="B157" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" s="16"/>
+      <c r="H157" t="str">
+        <f t="shared" ref="H157:H161" si="11">C157 &amp; " " &amp; D157 &amp; ","</f>
+        <v>culc_target_code text,</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="B158" s="16" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="16"/>
       <c r="H158" t="str">
-        <f>C158 &amp; " " &amp; D158 &amp; ","</f>
-        <v>tbl_id serial ,</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <f t="shared" si="11"/>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="21.6" customHeight="1">
       <c r="B159" s="16" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
+        <v>188</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="17"/>
       <c r="H159" t="str">
-        <f t="shared" ref="H159:H163" si="11">C159 &amp; " " &amp; D159 &amp; ","</f>
-        <v>culc_target_code text,</v>
+        <f t="shared" si="11"/>
+        <v>covariates_label_num smallint,</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="B160" s="16" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
       <c r="H160" t="str">
         <f t="shared" si="11"/>
-        <v>covariates_code text,</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" ht="21.6" customHeight="1">
+        <v>effect_start_time timestamp ,</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
       <c r="B161" s="16" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E161" s="16"/>
-      <c r="F161" s="17"/>
+      <c r="F161" s="16"/>
       <c r="H161" t="str">
         <f t="shared" si="11"/>
-        <v>covariates_label_num smallint,</v>
+        <v>culc_id text,</v>
       </c>
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="H162" t="str">
-        <f t="shared" si="11"/>
-        <v>effect_start_time timestamp ,</v>
+        <f>C162 &amp; " " &amp; D162 &amp; ","</f>
+        <v>covariates_value decimal,</v>
       </c>
     </row>
     <row r="163" spans="2:8">
-      <c r="B163" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="H163" t="str">
-        <f t="shared" si="11"/>
-        <v>culc_id text,</v>
+      <c r="G163" s="36" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="H164" t="str">
-        <f>C164 &amp; " " &amp; D164 &amp; ");"</f>
-        <v>covariates_value decimal);</v>
+      <c r="B164" t="s">
+        <v>346</v>
+      </c>
+      <c r="G164" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="2:8">
       <c r="B166" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="B167" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7285,7 +7294,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7418,6 +7427,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7719,7 +7729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F556F9-215E-491C-B9D2-BF496E5B8378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F7A6F-AD22-4F96-93AF-39C1C6B687D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="415">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3223,14 +3223,6 @@
   </si>
   <si>
     <t>;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C20001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C20003</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3523,6 +3515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3531,9 +3526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3841,19 +3833,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -5271,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="A4:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7085,8 +7077,8 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="G149" s="36" t="s">
-        <v>415</v>
+      <c r="G149" s="33" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7094,7 +7086,7 @@
         <v>345</v>
       </c>
       <c r="G150" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7260,8 +7252,8 @@
       </c>
     </row>
     <row r="163" spans="2:8">
-      <c r="G163" s="36" t="s">
-        <v>416</v>
+      <c r="G163" s="33" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="2:8">
@@ -7269,7 +7261,7 @@
         <v>346</v>
       </c>
       <c r="G164" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -7436,7 +7428,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7722,6 +7714,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7729,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7795,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>360</v>
@@ -7811,7 +7804,7 @@
       </c>
       <c r="I6" t="str">
         <f>"('"&amp;B6&amp;"','"&amp;C6 &amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"','"&amp;F6 &amp;"','"&amp;G6 &amp;"'),"</f>
-        <v>('1','C20001','経過年数','2','0','39'),</v>
+        <v>('1','C00001','経過年数','2','0','39'),</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7843,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>408</v>
@@ -7859,7 +7852,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>('3','C20003','経過月数','2','0','479'),</v>
+        <v>('3','C00003','経過月数','2','0','479'),</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F7A6F-AD22-4F96-93AF-39C1C6B687D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D20D1F-E925-4CA1-9CD8-661D66621E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
     <sheet name="論理データ一覧" sheetId="2" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="計算対象マスタ" sheetId="5" r:id="rId4"/>
-    <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId5"/>
-    <sheet name="共変量マスタ" sheetId="6" r:id="rId6"/>
-    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId7"/>
+    <sheet name="期間売上ビュー" sheetId="9" r:id="rId4"/>
+    <sheet name="計算対象マスタ" sheetId="5" r:id="rId5"/>
+    <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId6"/>
+    <sheet name="共変量マスタ" sheetId="6" r:id="rId7"/>
+    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="445">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3235,6 +3236,228 @@
   </si>
   <si>
     <t>PRIMARY KEY ( culc_target_code,covariates_code,covariates_label_num )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;&lt;顧客売上比率&gt;&gt;</t>
+    <rPh sb="2" eb="4">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客売上順・売上比率</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;&lt;顧客稼働時間比率&gt;&gt;</t>
+    <rPh sb="2" eb="4">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客稼働時間順・稼働時間比率</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;&lt;顧客稼働時間単位売上比率&gt;&gt;</t>
+    <rPh sb="2" eb="4">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客稼働時間単位売上順・顧客稼働時間単位売上比率</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     from (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select * ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    coalesce(LEAD( menber_months) OVER( PARTITION BY member_id ORDER BY menber_months ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    last_year_months) as end_member_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cast(EXTRACT(year from AGE(COALESCE(mh.retirement_date,CAST(DATE_TRUNC('month', now()) as DATE)),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  enter_date )) * 12 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EXTRACT(month from AGE(COALESCE(mh.retirement_date,CAST(DATE_TRUNC('month', now()) as DATE)),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      enter_date ))as integer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      as last_year_months</t>
+  </si>
+  <si>
+    <t>) a ) b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> earnings_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select * , end_member_months - menber_months as biz_months, (end_member_months - menber_months) * price as earnings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上ビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">create view </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      select </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from price_transition_info pt inner join member_hist_info mh using (member_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt.member_id ,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt.menber_months,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt.enrolled_hist_id,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt.price_start_date,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt.price,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3332,7 +3555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3427,11 +3650,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3527,6 +3830,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3809,10 +4120,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4824,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
-  <dimension ref="A3:H25"/>
+  <dimension ref="A3:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5116,139 +5427,184 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="92.25" customHeight="1">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>110</v>
+    <row r="18" spans="1:8" ht="69" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="108">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
+      <c r="E18" s="17"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" ht="69" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>418</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>144</v>
+      <c r="E19" s="17"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="69" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>420</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="72">
+      <c r="E20" s="17"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" ht="92.25" customHeight="1">
       <c r="A21" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="72">
+        <v>162</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="108">
       <c r="A22" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="72">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="94.5" customHeight="1">
       <c r="A23" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="148.5" customHeight="1">
+        <v>168</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="72">
       <c r="A24" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72">
+      <c r="A25" s="4">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="72">
+      <c r="A26" s="4">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="148.5" customHeight="1">
+      <c r="A27" s="4">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90">
-      <c r="A25" s="4">
+    <row r="28" spans="1:8" ht="90">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5263,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="A4:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7282,6 +7638,438 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960BBA9-6AD0-4C95-BBB5-CB08F6C2607E}">
+  <dimension ref="B2:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:15">
+      <c r="B4" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="38" t="str">
+        <f>C2</f>
+        <v xml:space="preserve"> earnings_view</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="41"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="40"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="41"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="41"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="41"/>
+    </row>
+    <row r="25" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B25" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DC889-717B-421E-BAAF-2E78C55AC4FB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7423,7 +8211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA61F8-64F4-46E2-A988-903E2EDF090B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -7718,12 +8506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7902,7 +8690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
   <dimension ref="A1:I46"/>
   <sheetViews>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D20D1F-E925-4CA1-9CD8-661D66621E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A83137-49C0-4F84-90B6-BDA06FEFB224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
     <sheet name="論理データ一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="テーブル一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="期間売上ビュー" sheetId="9" r:id="rId4"/>
-    <sheet name="計算対象マスタ" sheetId="5" r:id="rId5"/>
-    <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId6"/>
-    <sheet name="共変量マスタ" sheetId="6" r:id="rId7"/>
-    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="18" r:id="rId3"/>
+    <sheet name="テーブル一覧" sheetId="3" r:id="rId4"/>
+    <sheet name="期間売上ビュー" sheetId="9" r:id="rId5"/>
+    <sheet name="生存時間考え方" sheetId="10" r:id="rId6"/>
+    <sheet name="計算対象マスタ" sheetId="5" r:id="rId7"/>
+    <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId8"/>
+    <sheet name="共変量マスタ" sheetId="6" r:id="rId9"/>
+    <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="490">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3458,6 +3460,365 @@
   </si>
   <si>
     <t>pt.price,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミングまで生存確認したが次のタイミング以降どうなるかわからない</t>
+    <rPh sb="7" eb="9">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミングまで生存確認したが次のタイミング以前で死亡</t>
+    <rPh sb="21" eb="23">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミング入社年</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入社人数(タイミング入社年0まで生存確認)</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社1年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社1年まで死亡確認</t>
+    <rPh sb="12" eb="14">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社2年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社1年から2年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社3年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社2年から3年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社4年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社3年から4年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社5年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社4年から5年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社6年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社5年から6年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社7年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社6年から7年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社7年から8年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社8年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select *,</t>
+  </si>
+  <si>
+    <t>sum(count+cons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OVER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                -- PARTITION BY "c_C00002"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ORDER BY year desc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AS live</t>
+  </si>
+  <si>
+    <t>from (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 0 as year,6 as cons,5 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 1 as year,2 as cons,5 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 2 as year,4 as cons,3 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 3 as year,6 as cons,2 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 4 as year,2 as cons,7 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select 5 as year,8 as cons,6 as count union all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) data </t>
+  </si>
+  <si>
+    <t>order by year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ROWS BETWEEN UNBOUNDED PRECEDING AND 1 PRECEDING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社9年まで生存確認確認</t>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タイミング入社8年から9年まで死亡確認</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select 7 as year,2 as cons,0 as count union all </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select 8 as year,4 as cons,0 as count </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select  range_start where covariates_code = 'C00001'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select  range_end where covariates_code = 'C00001'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3523,7 +3884,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3551,6 +3912,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,7 +4107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3838,6 +4211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5133,6 +5513,822 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="54">
+      <c r="A1" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"insert into  "&amp;A1 &amp;" (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values "</f>
+        <v xml:space="preserve">insert into  covariates_label_mst (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <v>('1','C00001','0','1年未満'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G45" si="0">"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <v>('2','C00001','1','2年未満'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>('3','C00001','2','3年未満'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>('4','C00001','3','4年未満'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>('5','C00001','4','5年未満'),</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>('6','C00001','5','6年未満'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>('7','C00001','6','7年未満'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>('8','C00001','7','8年未満'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="16">
+        <v>8</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>('9','C00001','8','9年未満'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>('10','C00001','9','10年未満'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="16">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>('11','C00001','10','11年未満'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>('12','C00001','11','12年未満'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="16">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="16">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>('13','C00001','12','13年未満'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="16">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="16">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>('14','C00001','13','14年未満'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="16">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>('15','C00001','14','15年未満'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="16">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="16">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>('16','C00001','15','16年未満'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="16">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>('17','C00001','16','17年未満'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="16">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>('18','C00001','17','18年未満'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="16">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>('19','C00001','18','19年未満'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="16">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="16">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>('20','C00001','19','20年未満'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="16">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="16">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>('21','C00001','20','21年未満'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="16">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" s="16">
+        <v>21</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>('22','C00001','21','22年未満'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="16">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="16">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>('23','C00001','22','23年未満'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="16">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="16">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>('24','C00001','23','24年未満'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="16">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="16">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>('25','C00001','24','25年未満'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="16">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="16">
+        <v>25</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>('26','C00001','25','26年未満'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="16">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="16">
+        <v>26</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>('27','C00001','26','27年未満'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="16">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="16">
+        <v>27</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>('28','C00001','27','28年未満'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="16">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>('29','C00001','28','29年未満'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="16">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="16">
+        <v>29</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>('30','C00001','29','30年未満'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="16">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="16">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>('31','C00001','30','31年未満'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="16">
+        <v>32</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" s="16">
+        <v>31</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>('32','C00001','31','32年未満'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="16">
+        <v>33</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="16">
+        <v>32</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>('33','C00001','32','33年未満'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="16">
+        <v>34</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="16">
+        <v>33</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>('34','C00001','33','34年未満'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="16">
+        <v>35</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="16">
+        <v>34</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>('35','C00001','34','35年未満'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="16">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="16">
+        <v>35</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>('36','C00001','35','36年未満'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="16">
+        <v>37</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="16">
+        <v>36</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>('37','C00001','36','37年未満'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="16">
+        <v>38</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="16">
+        <v>37</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>('38','C00001','37','38年未満'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="16">
+        <v>39</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D43" s="16">
+        <v>38</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>('39','C00001','38','39年未満'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="16">
+        <v>40</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="16">
+        <v>39</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>('40','C00001','39','40年未満'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="16">
+        <v>41</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>('41','C00002','0','男性'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="16">
+        <v>42</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="str">
+        <f>"('"&amp;B46&amp;"','"&amp;C46&amp;"','"&amp;D46 &amp;"','"&amp;E46 &amp;"'),"</f>
+        <v>('42','C00002','1','女性'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DF453-C584-4615-8C2A-BF36E229B795}">
   <dimension ref="A3:H28"/>
@@ -5616,11 +6812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BEFD1-BA89-4A64-A12E-4EFA282E2D36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="A4:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C93"/>
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7637,12 +8846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960BBA9-6AD0-4C95-BBB5-CB08F6C2607E}">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8069,12 +9278,2262 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744E014-C36D-4DE1-B67C-40D789728BDC}">
+  <dimension ref="B4:M188"/>
+  <sheetViews>
+    <sheetView topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="14.8984375" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="54">
+      <c r="G5" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>6</v>
+      </c>
+      <c r="I6" s="47">
+        <v>5</v>
+      </c>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>5</v>
+      </c>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>7</v>
+      </c>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16">
+        <v>8</v>
+      </c>
+      <c r="I11" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="G12" s="47">
+        <v>6</v>
+      </c>
+      <c r="H12" s="47">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="47">
+        <v>7</v>
+      </c>
+      <c r="H13" s="47">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11">
+      <c r="G17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" ht="54">
+      <c r="G19" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11">
+      <c r="G20" s="47">
+        <v>0</v>
+      </c>
+      <c r="H20" s="49">
+        <v>6</v>
+      </c>
+      <c r="I20" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11">
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49">
+        <v>2</v>
+      </c>
+      <c r="I21" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11">
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="49">
+        <v>4</v>
+      </c>
+      <c r="I22" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11">
+      <c r="G23" s="16">
+        <v>3</v>
+      </c>
+      <c r="H23" s="49">
+        <v>6</v>
+      </c>
+      <c r="I23" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11">
+      <c r="G24" s="16">
+        <v>4</v>
+      </c>
+      <c r="H24" s="49">
+        <v>2</v>
+      </c>
+      <c r="I24" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11">
+      <c r="G25" s="16">
+        <v>5</v>
+      </c>
+      <c r="H25" s="49">
+        <v>8</v>
+      </c>
+      <c r="I25" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11">
+      <c r="G26" s="47">
+        <v>6</v>
+      </c>
+      <c r="H26" s="49">
+        <v>2</v>
+      </c>
+      <c r="I26" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11">
+      <c r="G27" s="47">
+        <v>7</v>
+      </c>
+      <c r="H27" s="49">
+        <v>4</v>
+      </c>
+      <c r="I27" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11">
+      <c r="H29">
+        <f>SUM(H20:I27)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11">
+      <c r="G31" t="s">
+        <v>450</v>
+      </c>
+      <c r="K31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" ht="90">
+      <c r="G33" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="G34" s="47">
+        <v>0</v>
+      </c>
+      <c r="H34" s="47">
+        <v>6</v>
+      </c>
+      <c r="I34" s="47">
+        <v>5</v>
+      </c>
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
+      <c r="L34" s="47">
+        <v>6</v>
+      </c>
+      <c r="M34" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="49">
+        <v>2</v>
+      </c>
+      <c r="I35" s="49">
+        <v>5</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1</v>
+      </c>
+      <c r="L35" s="47">
+        <v>2</v>
+      </c>
+      <c r="M35" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="49">
+        <v>4</v>
+      </c>
+      <c r="I36" s="49">
+        <v>3</v>
+      </c>
+      <c r="K36" s="16">
+        <v>2</v>
+      </c>
+      <c r="L36" s="47">
+        <v>4</v>
+      </c>
+      <c r="M36" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13">
+      <c r="G37" s="16">
+        <v>3</v>
+      </c>
+      <c r="H37" s="49">
+        <v>6</v>
+      </c>
+      <c r="I37" s="49">
+        <v>2</v>
+      </c>
+      <c r="K37" s="16">
+        <v>3</v>
+      </c>
+      <c r="L37" s="47">
+        <v>6</v>
+      </c>
+      <c r="M37" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:13">
+      <c r="G38" s="16">
+        <v>4</v>
+      </c>
+      <c r="H38" s="49">
+        <v>2</v>
+      </c>
+      <c r="I38" s="49">
+        <v>7</v>
+      </c>
+      <c r="K38" s="16">
+        <v>4</v>
+      </c>
+      <c r="L38" s="47">
+        <v>2</v>
+      </c>
+      <c r="M38" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="7:13">
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="49">
+        <v>8</v>
+      </c>
+      <c r="I39" s="49">
+        <v>6</v>
+      </c>
+      <c r="K39" s="16">
+        <v>5</v>
+      </c>
+      <c r="L39" s="47">
+        <v>8</v>
+      </c>
+      <c r="M39" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13">
+      <c r="G40" s="47">
+        <v>6</v>
+      </c>
+      <c r="H40" s="49">
+        <v>2</v>
+      </c>
+      <c r="I40" s="49">
+        <v>0</v>
+      </c>
+      <c r="K40" s="47">
+        <v>6</v>
+      </c>
+      <c r="L40" s="47">
+        <v>2</v>
+      </c>
+      <c r="M40" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:13">
+      <c r="G41" s="47">
+        <v>7</v>
+      </c>
+      <c r="H41" s="49">
+        <v>4</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0</v>
+      </c>
+      <c r="K41" s="47">
+        <v>7</v>
+      </c>
+      <c r="L41" s="47">
+        <v>4</v>
+      </c>
+      <c r="M41" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="H43">
+        <f>SUM(H35:I41)</f>
+        <v>51</v>
+      </c>
+      <c r="L43">
+        <f>M34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13">
+      <c r="G46" t="s">
+        <v>452</v>
+      </c>
+      <c r="K46" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13" ht="90">
+      <c r="G48" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13">
+      <c r="G49" s="47">
+        <v>0</v>
+      </c>
+      <c r="H49" s="47">
+        <v>6</v>
+      </c>
+      <c r="I49" s="47">
+        <v>5</v>
+      </c>
+      <c r="K49" s="47">
+        <v>0</v>
+      </c>
+      <c r="L49" s="47">
+        <v>6</v>
+      </c>
+      <c r="M49" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13">
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="47">
+        <v>2</v>
+      </c>
+      <c r="I50" s="47">
+        <v>5</v>
+      </c>
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+      <c r="L50" s="47">
+        <v>2</v>
+      </c>
+      <c r="M50" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13">
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="49">
+        <v>4</v>
+      </c>
+      <c r="I51" s="49">
+        <v>3</v>
+      </c>
+      <c r="K51" s="16">
+        <v>2</v>
+      </c>
+      <c r="L51" s="47">
+        <v>4</v>
+      </c>
+      <c r="M51" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13">
+      <c r="G52" s="16">
+        <v>3</v>
+      </c>
+      <c r="H52" s="49">
+        <v>6</v>
+      </c>
+      <c r="I52" s="49">
+        <v>2</v>
+      </c>
+      <c r="K52" s="16">
+        <v>3</v>
+      </c>
+      <c r="L52" s="47">
+        <v>6</v>
+      </c>
+      <c r="M52" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13">
+      <c r="G53" s="16">
+        <v>4</v>
+      </c>
+      <c r="H53" s="49">
+        <v>2</v>
+      </c>
+      <c r="I53" s="49">
+        <v>7</v>
+      </c>
+      <c r="K53" s="16">
+        <v>4</v>
+      </c>
+      <c r="L53" s="47">
+        <v>2</v>
+      </c>
+      <c r="M53" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13">
+      <c r="G54" s="16">
+        <v>5</v>
+      </c>
+      <c r="H54" s="49">
+        <v>8</v>
+      </c>
+      <c r="I54" s="49">
+        <v>6</v>
+      </c>
+      <c r="K54" s="16">
+        <v>5</v>
+      </c>
+      <c r="L54" s="47">
+        <v>8</v>
+      </c>
+      <c r="M54" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13">
+      <c r="G55" s="47">
+        <v>6</v>
+      </c>
+      <c r="H55" s="49">
+        <v>2</v>
+      </c>
+      <c r="I55" s="49">
+        <v>0</v>
+      </c>
+      <c r="K55" s="47">
+        <v>6</v>
+      </c>
+      <c r="L55" s="47">
+        <v>2</v>
+      </c>
+      <c r="M55" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13">
+      <c r="G56" s="47">
+        <v>7</v>
+      </c>
+      <c r="H56" s="49">
+        <v>4</v>
+      </c>
+      <c r="I56" s="49">
+        <v>0</v>
+      </c>
+      <c r="K56" s="47">
+        <v>7</v>
+      </c>
+      <c r="L56" s="47">
+        <v>4</v>
+      </c>
+      <c r="M56" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:13">
+      <c r="H58">
+        <f>SUM(H51:I56)</f>
+        <v>44</v>
+      </c>
+      <c r="L58">
+        <f>M50</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="7:13">
+      <c r="G60" t="s">
+        <v>454</v>
+      </c>
+      <c r="K60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="7:13" ht="90">
+      <c r="G62" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="7:13">
+      <c r="G63" s="47">
+        <v>0</v>
+      </c>
+      <c r="H63" s="47">
+        <v>6</v>
+      </c>
+      <c r="I63" s="47">
+        <v>5</v>
+      </c>
+      <c r="K63" s="47">
+        <v>0</v>
+      </c>
+      <c r="L63" s="47">
+        <v>6</v>
+      </c>
+      <c r="M63" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="7:13">
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="47">
+        <v>2</v>
+      </c>
+      <c r="I64" s="47">
+        <v>5</v>
+      </c>
+      <c r="K64" s="16">
+        <v>1</v>
+      </c>
+      <c r="L64" s="47">
+        <v>2</v>
+      </c>
+      <c r="M64" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="7:13">
+      <c r="G65" s="16">
+        <v>2</v>
+      </c>
+      <c r="H65" s="47">
+        <v>4</v>
+      </c>
+      <c r="I65" s="47">
+        <v>3</v>
+      </c>
+      <c r="K65" s="16">
+        <v>2</v>
+      </c>
+      <c r="L65" s="47">
+        <v>4</v>
+      </c>
+      <c r="M65" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13">
+      <c r="G66" s="16">
+        <v>3</v>
+      </c>
+      <c r="H66" s="49">
+        <v>6</v>
+      </c>
+      <c r="I66" s="49">
+        <v>2</v>
+      </c>
+      <c r="K66" s="16">
+        <v>3</v>
+      </c>
+      <c r="L66" s="47">
+        <v>6</v>
+      </c>
+      <c r="M66" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13">
+      <c r="G67" s="16">
+        <v>4</v>
+      </c>
+      <c r="H67" s="49">
+        <v>2</v>
+      </c>
+      <c r="I67" s="49">
+        <v>7</v>
+      </c>
+      <c r="K67" s="16">
+        <v>4</v>
+      </c>
+      <c r="L67" s="47">
+        <v>2</v>
+      </c>
+      <c r="M67" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13">
+      <c r="G68" s="16">
+        <v>5</v>
+      </c>
+      <c r="H68" s="49">
+        <v>8</v>
+      </c>
+      <c r="I68" s="49">
+        <v>6</v>
+      </c>
+      <c r="K68" s="16">
+        <v>5</v>
+      </c>
+      <c r="L68" s="47">
+        <v>8</v>
+      </c>
+      <c r="M68" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13">
+      <c r="G69" s="47">
+        <v>6</v>
+      </c>
+      <c r="H69" s="49">
+        <v>2</v>
+      </c>
+      <c r="I69" s="49">
+        <v>0</v>
+      </c>
+      <c r="K69" s="47">
+        <v>6</v>
+      </c>
+      <c r="L69" s="47">
+        <v>2</v>
+      </c>
+      <c r="M69" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13">
+      <c r="G70" s="47">
+        <v>7</v>
+      </c>
+      <c r="H70" s="49">
+        <v>4</v>
+      </c>
+      <c r="I70" s="49">
+        <v>0</v>
+      </c>
+      <c r="K70" s="47">
+        <v>7</v>
+      </c>
+      <c r="L70" s="47">
+        <v>4</v>
+      </c>
+      <c r="M70" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:13">
+      <c r="H72">
+        <f>SUM(H66:I70)</f>
+        <v>37</v>
+      </c>
+      <c r="L72">
+        <f>M64</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="7:13">
+      <c r="G74" t="s">
+        <v>456</v>
+      </c>
+      <c r="K74" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="7:13" ht="90">
+      <c r="G77" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H77" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I77" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K77" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L77" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M77" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="7:13">
+      <c r="G78" s="47">
+        <v>0</v>
+      </c>
+      <c r="H78" s="47">
+        <v>6</v>
+      </c>
+      <c r="I78" s="47">
+        <v>5</v>
+      </c>
+      <c r="K78" s="47">
+        <v>0</v>
+      </c>
+      <c r="L78" s="47">
+        <v>6</v>
+      </c>
+      <c r="M78" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="7:13">
+      <c r="G79" s="16">
+        <v>1</v>
+      </c>
+      <c r="H79" s="47">
+        <v>2</v>
+      </c>
+      <c r="I79" s="47">
+        <v>5</v>
+      </c>
+      <c r="K79" s="16">
+        <v>1</v>
+      </c>
+      <c r="L79" s="47">
+        <v>2</v>
+      </c>
+      <c r="M79" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="7:13">
+      <c r="G80" s="16">
+        <v>2</v>
+      </c>
+      <c r="H80" s="47">
+        <v>4</v>
+      </c>
+      <c r="I80" s="47">
+        <v>3</v>
+      </c>
+      <c r="K80" s="16">
+        <v>2</v>
+      </c>
+      <c r="L80" s="47">
+        <v>4</v>
+      </c>
+      <c r="M80" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="7:13">
+      <c r="G81" s="16">
+        <v>3</v>
+      </c>
+      <c r="H81" s="47">
+        <v>6</v>
+      </c>
+      <c r="I81" s="47">
+        <v>2</v>
+      </c>
+      <c r="K81" s="16">
+        <v>3</v>
+      </c>
+      <c r="L81" s="47">
+        <v>6</v>
+      </c>
+      <c r="M81" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:13">
+      <c r="G82" s="16">
+        <v>4</v>
+      </c>
+      <c r="H82" s="49">
+        <v>2</v>
+      </c>
+      <c r="I82" s="49">
+        <v>7</v>
+      </c>
+      <c r="K82" s="16">
+        <v>4</v>
+      </c>
+      <c r="L82" s="47">
+        <v>2</v>
+      </c>
+      <c r="M82" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="7:13">
+      <c r="G83" s="16">
+        <v>5</v>
+      </c>
+      <c r="H83" s="49">
+        <v>8</v>
+      </c>
+      <c r="I83" s="49">
+        <v>6</v>
+      </c>
+      <c r="K83" s="16">
+        <v>5</v>
+      </c>
+      <c r="L83" s="47">
+        <v>8</v>
+      </c>
+      <c r="M83" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="7:13">
+      <c r="G84" s="47">
+        <v>6</v>
+      </c>
+      <c r="H84" s="49">
+        <v>2</v>
+      </c>
+      <c r="I84" s="49">
+        <v>0</v>
+      </c>
+      <c r="K84" s="47">
+        <v>6</v>
+      </c>
+      <c r="L84" s="47">
+        <v>2</v>
+      </c>
+      <c r="M84" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:13">
+      <c r="G85" s="47">
+        <v>7</v>
+      </c>
+      <c r="H85" s="49">
+        <v>4</v>
+      </c>
+      <c r="I85" s="49">
+        <v>0</v>
+      </c>
+      <c r="K85" s="47">
+        <v>7</v>
+      </c>
+      <c r="L85" s="47">
+        <v>4</v>
+      </c>
+      <c r="M85" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:13">
+      <c r="H87">
+        <f>SUM(H82:I85)</f>
+        <v>29</v>
+      </c>
+      <c r="L87">
+        <f>M81</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:13">
+      <c r="G90" t="s">
+        <v>458</v>
+      </c>
+      <c r="K90" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="7:13" ht="90">
+      <c r="G93" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I93" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K93" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M93" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="7:13">
+      <c r="G94" s="47">
+        <v>0</v>
+      </c>
+      <c r="H94" s="47">
+        <v>6</v>
+      </c>
+      <c r="I94" s="47">
+        <v>5</v>
+      </c>
+      <c r="K94" s="47">
+        <v>0</v>
+      </c>
+      <c r="L94" s="47">
+        <v>6</v>
+      </c>
+      <c r="M94" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="7:13">
+      <c r="G95" s="16">
+        <v>1</v>
+      </c>
+      <c r="H95" s="47">
+        <v>2</v>
+      </c>
+      <c r="I95" s="47">
+        <v>5</v>
+      </c>
+      <c r="K95" s="16">
+        <v>1</v>
+      </c>
+      <c r="L95" s="47">
+        <v>2</v>
+      </c>
+      <c r="M95" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="7:13">
+      <c r="G96" s="16">
+        <v>2</v>
+      </c>
+      <c r="H96" s="47">
+        <v>4</v>
+      </c>
+      <c r="I96" s="47">
+        <v>3</v>
+      </c>
+      <c r="K96" s="16">
+        <v>2</v>
+      </c>
+      <c r="L96" s="47">
+        <v>4</v>
+      </c>
+      <c r="M96" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="7:13">
+      <c r="G97" s="16">
+        <v>3</v>
+      </c>
+      <c r="H97" s="47">
+        <v>6</v>
+      </c>
+      <c r="I97" s="47">
+        <v>2</v>
+      </c>
+      <c r="K97" s="16">
+        <v>3</v>
+      </c>
+      <c r="L97" s="47">
+        <v>6</v>
+      </c>
+      <c r="M97" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="7:13">
+      <c r="G98" s="16">
+        <v>4</v>
+      </c>
+      <c r="H98" s="47">
+        <v>2</v>
+      </c>
+      <c r="I98" s="47">
+        <v>7</v>
+      </c>
+      <c r="K98" s="16">
+        <v>4</v>
+      </c>
+      <c r="L98" s="47">
+        <v>2</v>
+      </c>
+      <c r="M98" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="7:13">
+      <c r="G99" s="16">
+        <v>5</v>
+      </c>
+      <c r="H99" s="49">
+        <v>8</v>
+      </c>
+      <c r="I99" s="49">
+        <v>6</v>
+      </c>
+      <c r="K99" s="16">
+        <v>5</v>
+      </c>
+      <c r="L99" s="47">
+        <v>8</v>
+      </c>
+      <c r="M99" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="7:13">
+      <c r="G100" s="16">
+        <v>6</v>
+      </c>
+      <c r="H100" s="49">
+        <v>0</v>
+      </c>
+      <c r="I100" s="49">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>6</v>
+      </c>
+      <c r="L100" s="47">
+        <v>0</v>
+      </c>
+      <c r="M100" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:13">
+      <c r="G101" s="47">
+        <v>7</v>
+      </c>
+      <c r="H101" s="49">
+        <v>2</v>
+      </c>
+      <c r="I101" s="49">
+        <v>0</v>
+      </c>
+      <c r="K101" s="47">
+        <v>7</v>
+      </c>
+      <c r="L101" s="47">
+        <v>2</v>
+      </c>
+      <c r="M101" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:13">
+      <c r="G102" s="47">
+        <v>8</v>
+      </c>
+      <c r="H102" s="49">
+        <v>4</v>
+      </c>
+      <c r="I102" s="49">
+        <v>0</v>
+      </c>
+      <c r="K102" s="47">
+        <v>8</v>
+      </c>
+      <c r="L102" s="47">
+        <v>4</v>
+      </c>
+      <c r="M102" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:13">
+      <c r="H104">
+        <f>SUM(H99:I102)</f>
+        <v>20</v>
+      </c>
+      <c r="L104">
+        <f>M98</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="7:13">
+      <c r="G106" t="s">
+        <v>460</v>
+      </c>
+      <c r="K106" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="7:13" ht="90">
+      <c r="G109" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H109" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I109" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K109" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L109" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M109" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="7:13">
+      <c r="G110" s="47">
+        <v>0</v>
+      </c>
+      <c r="H110" s="47">
+        <v>6</v>
+      </c>
+      <c r="I110" s="47">
+        <v>5</v>
+      </c>
+      <c r="K110" s="47">
+        <v>0</v>
+      </c>
+      <c r="L110" s="47">
+        <v>6</v>
+      </c>
+      <c r="M110" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="7:13">
+      <c r="G111" s="16">
+        <v>1</v>
+      </c>
+      <c r="H111" s="47">
+        <v>2</v>
+      </c>
+      <c r="I111" s="47">
+        <v>5</v>
+      </c>
+      <c r="K111" s="16">
+        <v>1</v>
+      </c>
+      <c r="L111" s="47">
+        <v>2</v>
+      </c>
+      <c r="M111" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="7:13">
+      <c r="G112" s="16">
+        <v>2</v>
+      </c>
+      <c r="H112" s="47">
+        <v>4</v>
+      </c>
+      <c r="I112" s="47">
+        <v>3</v>
+      </c>
+      <c r="K112" s="16">
+        <v>2</v>
+      </c>
+      <c r="L112" s="47">
+        <v>4</v>
+      </c>
+      <c r="M112" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="7:13">
+      <c r="G113" s="16">
+        <v>3</v>
+      </c>
+      <c r="H113" s="47">
+        <v>6</v>
+      </c>
+      <c r="I113" s="47">
+        <v>2</v>
+      </c>
+      <c r="K113" s="16">
+        <v>3</v>
+      </c>
+      <c r="L113" s="47">
+        <v>6</v>
+      </c>
+      <c r="M113" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="7:13">
+      <c r="G114" s="16">
+        <v>4</v>
+      </c>
+      <c r="H114" s="47">
+        <v>2</v>
+      </c>
+      <c r="I114" s="47">
+        <v>7</v>
+      </c>
+      <c r="K114" s="16">
+        <v>4</v>
+      </c>
+      <c r="L114" s="47">
+        <v>2</v>
+      </c>
+      <c r="M114" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="7:13">
+      <c r="G115" s="16">
+        <v>5</v>
+      </c>
+      <c r="H115" s="47">
+        <v>8</v>
+      </c>
+      <c r="I115" s="47">
+        <v>6</v>
+      </c>
+      <c r="K115" s="16">
+        <v>5</v>
+      </c>
+      <c r="L115" s="47">
+        <v>8</v>
+      </c>
+      <c r="M115" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="7:13">
+      <c r="G116" s="16">
+        <v>6</v>
+      </c>
+      <c r="H116" s="49">
+        <v>0</v>
+      </c>
+      <c r="I116" s="49">
+        <v>0</v>
+      </c>
+      <c r="K116" s="16">
+        <v>6</v>
+      </c>
+      <c r="L116" s="47">
+        <v>0</v>
+      </c>
+      <c r="M116" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:13">
+      <c r="G117" s="47">
+        <v>7</v>
+      </c>
+      <c r="H117" s="49">
+        <v>2</v>
+      </c>
+      <c r="I117" s="49">
+        <v>0</v>
+      </c>
+      <c r="K117" s="47">
+        <v>7</v>
+      </c>
+      <c r="L117" s="47">
+        <v>2</v>
+      </c>
+      <c r="M117" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:13">
+      <c r="G118" s="47">
+        <v>8</v>
+      </c>
+      <c r="H118" s="49">
+        <v>4</v>
+      </c>
+      <c r="I118" s="49">
+        <v>0</v>
+      </c>
+      <c r="K118" s="47">
+        <v>8</v>
+      </c>
+      <c r="L118" s="47">
+        <v>4</v>
+      </c>
+      <c r="M118" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:13">
+      <c r="H119">
+        <f>SUM(H116:I118)</f>
+        <v>6</v>
+      </c>
+      <c r="L119">
+        <f>M115</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="7:13">
+      <c r="G121" t="s">
+        <v>462</v>
+      </c>
+      <c r="K121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="7:13" ht="90">
+      <c r="G124" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I124" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K124" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L124" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M124" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="7:13">
+      <c r="G125" s="47">
+        <v>0</v>
+      </c>
+      <c r="H125" s="47">
+        <v>6</v>
+      </c>
+      <c r="I125" s="47">
+        <v>5</v>
+      </c>
+      <c r="K125" s="47">
+        <v>0</v>
+      </c>
+      <c r="L125" s="47">
+        <v>6</v>
+      </c>
+      <c r="M125" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="7:13">
+      <c r="G126" s="16">
+        <v>1</v>
+      </c>
+      <c r="H126" s="47">
+        <v>2</v>
+      </c>
+      <c r="I126" s="47">
+        <v>5</v>
+      </c>
+      <c r="K126" s="16">
+        <v>1</v>
+      </c>
+      <c r="L126" s="47">
+        <v>2</v>
+      </c>
+      <c r="M126" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="7:13">
+      <c r="G127" s="16">
+        <v>2</v>
+      </c>
+      <c r="H127" s="47">
+        <v>4</v>
+      </c>
+      <c r="I127" s="47">
+        <v>3</v>
+      </c>
+      <c r="K127" s="16">
+        <v>2</v>
+      </c>
+      <c r="L127" s="47">
+        <v>4</v>
+      </c>
+      <c r="M127" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="7:13">
+      <c r="G128" s="16">
+        <v>3</v>
+      </c>
+      <c r="H128" s="47">
+        <v>6</v>
+      </c>
+      <c r="I128" s="47">
+        <v>2</v>
+      </c>
+      <c r="K128" s="16">
+        <v>3</v>
+      </c>
+      <c r="L128" s="47">
+        <v>6</v>
+      </c>
+      <c r="M128" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="7:13">
+      <c r="G129" s="16">
+        <v>4</v>
+      </c>
+      <c r="H129" s="47">
+        <v>2</v>
+      </c>
+      <c r="I129" s="47">
+        <v>7</v>
+      </c>
+      <c r="K129" s="16">
+        <v>4</v>
+      </c>
+      <c r="L129" s="47">
+        <v>2</v>
+      </c>
+      <c r="M129" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="7:13">
+      <c r="G130" s="16">
+        <v>5</v>
+      </c>
+      <c r="H130" s="47">
+        <v>8</v>
+      </c>
+      <c r="I130" s="47">
+        <v>6</v>
+      </c>
+      <c r="K130" s="16">
+        <v>5</v>
+      </c>
+      <c r="L130" s="47">
+        <v>8</v>
+      </c>
+      <c r="M130" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="7:13">
+      <c r="G131" s="16">
+        <v>6</v>
+      </c>
+      <c r="H131" s="47">
+        <v>0</v>
+      </c>
+      <c r="I131" s="47">
+        <v>0</v>
+      </c>
+      <c r="K131" s="16">
+        <v>6</v>
+      </c>
+      <c r="L131" s="47">
+        <v>0</v>
+      </c>
+      <c r="M131" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:13">
+      <c r="G132" s="47">
+        <v>7</v>
+      </c>
+      <c r="H132" s="49">
+        <v>2</v>
+      </c>
+      <c r="I132" s="49">
+        <v>0</v>
+      </c>
+      <c r="K132" s="47">
+        <v>7</v>
+      </c>
+      <c r="L132" s="47">
+        <v>2</v>
+      </c>
+      <c r="M132" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:13">
+      <c r="G133" s="47">
+        <v>8</v>
+      </c>
+      <c r="H133" s="49">
+        <v>4</v>
+      </c>
+      <c r="I133" s="49">
+        <v>0</v>
+      </c>
+      <c r="K133" s="47">
+        <v>8</v>
+      </c>
+      <c r="L133" s="47">
+        <v>4</v>
+      </c>
+      <c r="M133" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:13">
+      <c r="H134">
+        <f>SUM(H132:I133)</f>
+        <v>6</v>
+      </c>
+      <c r="L134">
+        <f>M131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:13">
+      <c r="G137" t="s">
+        <v>465</v>
+      </c>
+      <c r="K137" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="7:13" ht="90">
+      <c r="G140" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H140" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I140" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K140" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L140" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M140" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="7:13">
+      <c r="G141" s="47">
+        <v>0</v>
+      </c>
+      <c r="H141" s="47">
+        <v>6</v>
+      </c>
+      <c r="I141" s="47">
+        <v>5</v>
+      </c>
+      <c r="K141" s="47">
+        <v>0</v>
+      </c>
+      <c r="L141" s="47">
+        <v>6</v>
+      </c>
+      <c r="M141" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="7:13">
+      <c r="G142" s="16">
+        <v>1</v>
+      </c>
+      <c r="H142" s="47">
+        <v>2</v>
+      </c>
+      <c r="I142" s="47">
+        <v>5</v>
+      </c>
+      <c r="K142" s="16">
+        <v>1</v>
+      </c>
+      <c r="L142" s="47">
+        <v>2</v>
+      </c>
+      <c r="M142" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="7:13">
+      <c r="G143" s="16">
+        <v>2</v>
+      </c>
+      <c r="H143" s="47">
+        <v>4</v>
+      </c>
+      <c r="I143" s="47">
+        <v>3</v>
+      </c>
+      <c r="K143" s="16">
+        <v>2</v>
+      </c>
+      <c r="L143" s="47">
+        <v>4</v>
+      </c>
+      <c r="M143" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="7:13">
+      <c r="G144" s="16">
+        <v>3</v>
+      </c>
+      <c r="H144" s="47">
+        <v>6</v>
+      </c>
+      <c r="I144" s="47">
+        <v>2</v>
+      </c>
+      <c r="K144" s="16">
+        <v>3</v>
+      </c>
+      <c r="L144" s="47">
+        <v>6</v>
+      </c>
+      <c r="M144" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="7:13">
+      <c r="G145" s="16">
+        <v>4</v>
+      </c>
+      <c r="H145" s="47">
+        <v>2</v>
+      </c>
+      <c r="I145" s="47">
+        <v>7</v>
+      </c>
+      <c r="K145" s="16">
+        <v>4</v>
+      </c>
+      <c r="L145" s="47">
+        <v>2</v>
+      </c>
+      <c r="M145" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="7:13">
+      <c r="G146" s="16">
+        <v>5</v>
+      </c>
+      <c r="H146" s="47">
+        <v>8</v>
+      </c>
+      <c r="I146" s="47">
+        <v>6</v>
+      </c>
+      <c r="K146" s="16">
+        <v>5</v>
+      </c>
+      <c r="L146" s="47">
+        <v>8</v>
+      </c>
+      <c r="M146" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="7:13">
+      <c r="G147" s="16">
+        <v>6</v>
+      </c>
+      <c r="H147" s="47">
+        <v>0</v>
+      </c>
+      <c r="I147" s="47">
+        <v>0</v>
+      </c>
+      <c r="K147" s="16">
+        <v>6</v>
+      </c>
+      <c r="L147" s="47">
+        <v>0</v>
+      </c>
+      <c r="M147" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:13">
+      <c r="G148" s="47">
+        <v>7</v>
+      </c>
+      <c r="H148" s="47">
+        <v>2</v>
+      </c>
+      <c r="I148" s="47">
+        <v>0</v>
+      </c>
+      <c r="K148" s="47">
+        <v>7</v>
+      </c>
+      <c r="L148" s="47">
+        <v>2</v>
+      </c>
+      <c r="M148" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:13">
+      <c r="G149" s="47">
+        <v>8</v>
+      </c>
+      <c r="H149" s="49">
+        <v>4</v>
+      </c>
+      <c r="I149" s="49">
+        <v>0</v>
+      </c>
+      <c r="K149" s="47">
+        <v>8</v>
+      </c>
+      <c r="L149" s="47">
+        <v>4</v>
+      </c>
+      <c r="M149" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:13">
+      <c r="H150">
+        <f>SUM(H149:I149)</f>
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <f>M148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:13">
+      <c r="G153" t="s">
+        <v>484</v>
+      </c>
+      <c r="K153" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156" spans="7:13" ht="90">
+      <c r="G156" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="K156" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L156" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M156" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="7:13">
+      <c r="G157" s="47">
+        <v>0</v>
+      </c>
+      <c r="H157" s="47">
+        <v>6</v>
+      </c>
+      <c r="I157" s="47">
+        <v>5</v>
+      </c>
+      <c r="K157" s="47">
+        <v>0</v>
+      </c>
+      <c r="L157" s="47">
+        <v>6</v>
+      </c>
+      <c r="M157" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="7:13">
+      <c r="G158" s="16">
+        <v>1</v>
+      </c>
+      <c r="H158" s="47">
+        <v>2</v>
+      </c>
+      <c r="I158" s="47">
+        <v>5</v>
+      </c>
+      <c r="K158" s="16">
+        <v>1</v>
+      </c>
+      <c r="L158" s="47">
+        <v>2</v>
+      </c>
+      <c r="M158" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="7:13">
+      <c r="G159" s="16">
+        <v>2</v>
+      </c>
+      <c r="H159" s="47">
+        <v>4</v>
+      </c>
+      <c r="I159" s="47">
+        <v>3</v>
+      </c>
+      <c r="K159" s="16">
+        <v>2</v>
+      </c>
+      <c r="L159" s="47">
+        <v>4</v>
+      </c>
+      <c r="M159" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="7:13">
+      <c r="G160" s="16">
+        <v>3</v>
+      </c>
+      <c r="H160" s="47">
+        <v>6</v>
+      </c>
+      <c r="I160" s="47">
+        <v>2</v>
+      </c>
+      <c r="K160" s="16">
+        <v>3</v>
+      </c>
+      <c r="L160" s="47">
+        <v>6</v>
+      </c>
+      <c r="M160" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="7:13">
+      <c r="G161" s="16">
+        <v>4</v>
+      </c>
+      <c r="H161" s="47">
+        <v>2</v>
+      </c>
+      <c r="I161" s="47">
+        <v>7</v>
+      </c>
+      <c r="K161" s="16">
+        <v>4</v>
+      </c>
+      <c r="L161" s="47">
+        <v>2</v>
+      </c>
+      <c r="M161" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="7:13">
+      <c r="G162" s="16">
+        <v>5</v>
+      </c>
+      <c r="H162" s="47">
+        <v>8</v>
+      </c>
+      <c r="I162" s="47">
+        <v>6</v>
+      </c>
+      <c r="K162" s="16">
+        <v>5</v>
+      </c>
+      <c r="L162" s="47">
+        <v>8</v>
+      </c>
+      <c r="M162" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="7:13">
+      <c r="G163" s="16">
+        <v>6</v>
+      </c>
+      <c r="H163" s="47">
+        <v>0</v>
+      </c>
+      <c r="I163" s="47">
+        <v>0</v>
+      </c>
+      <c r="K163" s="16">
+        <v>6</v>
+      </c>
+      <c r="L163" s="47">
+        <v>0</v>
+      </c>
+      <c r="M163" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="7:13">
+      <c r="G164" s="47">
+        <v>7</v>
+      </c>
+      <c r="H164" s="47">
+        <v>2</v>
+      </c>
+      <c r="I164" s="47">
+        <v>0</v>
+      </c>
+      <c r="K164" s="47">
+        <v>7</v>
+      </c>
+      <c r="L164" s="47">
+        <v>2</v>
+      </c>
+      <c r="M164" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:13">
+      <c r="G165" s="47">
+        <v>8</v>
+      </c>
+      <c r="H165" s="47">
+        <v>4</v>
+      </c>
+      <c r="I165" s="47">
+        <v>0</v>
+      </c>
+      <c r="K165" s="47">
+        <v>8</v>
+      </c>
+      <c r="L165" s="47">
+        <v>4</v>
+      </c>
+      <c r="M165" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="7:13">
+      <c r="H166" t="s">
+        <v>466</v>
+      </c>
+      <c r="L166">
+        <f>M165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:13">
+      <c r="G169" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="170" spans="7:13">
+      <c r="G170" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="7:13">
+      <c r="G171" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="172" spans="7:13">
+      <c r="G172" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="173" spans="7:13">
+      <c r="G173" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="174" spans="7:13">
+      <c r="G174" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="7:13">
+      <c r="G175" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="7:13">
+      <c r="G176" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7">
+      <c r="G178" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7">
+      <c r="G179" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7">
+      <c r="G180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7">
+      <c r="G181" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7">
+      <c r="G182" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7">
+      <c r="G183" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7">
+      <c r="G184" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7">
+      <c r="G185" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7">
+      <c r="G186" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7">
+      <c r="G187" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7">
+      <c r="G188" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535DC889-717B-421E-BAAF-2E78C55AC4FB}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8211,7 +11670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA61F8-64F4-46E2-A988-903E2EDF090B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -8506,12 +11965,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8576,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>360</v>
@@ -8683,825 +12142,19 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
+    <row r="16" spans="1:9">
+      <c r="E16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
-  <dimension ref="A1:I46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="20.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="54">
-      <c r="A1" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" t="str">
-        <f>"insert into  "&amp;A1 &amp;" (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values "</f>
-        <v xml:space="preserve">insert into  covariates_label_mst (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="G5" t="str">
-        <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
-        <v>('1','C00001','0','1年未満'),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G45" si="0">"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
-        <v>('2','C00001','1','2年未満'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="16">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>('3','C00001','2','3年未満'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="16">
-        <v>3</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>('4','C00001','3','4年未満'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="16">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>('5','C00001','4','5年未満'),</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="16">
-        <v>5</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>('6','C00001','5','6年未満'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="16">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>('7','C00001','6','7年未満'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="16">
-        <v>7</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>('8','C00001','7','8年未満'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="16">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="16">
-        <v>8</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>('9','C00001','8','9年未満'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="16">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="16">
-        <v>9</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>('10','C00001','9','10年未満'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="16">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="16">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>('11','C00001','10','11年未満'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="16">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" s="16">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>('12','C00001','11','12年未満'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="16">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" s="16">
-        <v>12</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>('13','C00001','12','13年未満'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="16">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="16">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>('14','C00001','13','14年未満'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="16">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="16">
-        <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>('15','C00001','14','15年未満'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="16">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="16">
-        <v>15</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>('16','C00001','15','16年未満'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="16">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" s="16">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>('17','C00001','16','17年未満'),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="16">
-        <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="16">
-        <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>('18','C00001','17','18年未満'),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="16">
-        <v>19</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D23" s="16">
-        <v>18</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>('19','C00001','18','19年未満'),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="16">
-        <v>20</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D24" s="16">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>('20','C00001','19','20年未満'),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="16">
-        <v>21</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D25" s="16">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>('21','C00001','20','21年未満'),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="16">
-        <v>22</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D26" s="16">
-        <v>21</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>('22','C00001','21','22年未満'),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="16">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D27" s="16">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>('23','C00001','22','23年未満'),</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="16">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="16">
-        <v>23</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>('24','C00001','23','24年未満'),</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="16">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="16">
-        <v>24</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>('25','C00001','24','25年未満'),</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="16">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="16">
-        <v>25</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>('26','C00001','25','26年未満'),</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="16">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="16">
-        <v>26</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>('27','C00001','26','27年未満'),</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="16">
-        <v>28</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="16">
-        <v>27</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>('28','C00001','27','28年未満'),</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="16">
-        <v>29</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D33" s="16">
-        <v>28</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>('29','C00001','28','29年未満'),</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="16">
-        <v>30</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D34" s="16">
-        <v>29</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>('30','C00001','29','30年未満'),</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="16">
-        <v>31</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="16">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>('31','C00001','30','31年未満'),</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="16">
-        <v>32</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D36" s="16">
-        <v>31</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>('32','C00001','31','32年未満'),</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="16">
-        <v>33</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D37" s="16">
-        <v>32</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>('33','C00001','32','33年未満'),</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="16">
-        <v>34</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D38" s="16">
-        <v>33</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>('34','C00001','33','34年未満'),</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="16">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D39" s="16">
-        <v>34</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>('35','C00001','34','35年未満'),</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="16">
-        <v>36</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D40" s="16">
-        <v>35</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>('36','C00001','35','36年未満'),</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="16">
-        <v>37</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D41" s="16">
-        <v>36</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>('37','C00001','36','37年未満'),</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="16">
-        <v>38</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D42" s="16">
-        <v>37</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>('38','C00001','37','38年未満'),</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="16">
-        <v>39</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D43" s="16">
-        <v>38</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>('39','C00001','38','39年未満'),</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="16">
-        <v>40</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D44" s="16">
-        <v>39</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>('40','C00001','39','40年未満'),</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="16">
-        <v>41</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>('41','C00002','0','男性'),</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="16">
-        <v>42</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D46" s="16">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G46" t="str">
-        <f>"('"&amp;B46&amp;"','"&amp;C46&amp;"','"&amp;D46 &amp;"','"&amp;E46 &amp;"'),"</f>
-        <v>('42','C00002','1','女性'),</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A83137-49C0-4F84-90B6-BDA06FEFB224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049F70B-635F-4B01-AA57-12C5B3C572F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="計算対象共変量マスタ" sheetId="8" r:id="rId8"/>
     <sheet name="共変量マスタ" sheetId="6" r:id="rId9"/>
     <sheet name="共変量ラベルマスタ" sheetId="7" r:id="rId10"/>
+    <sheet name="ステップワイズ法" sheetId="19" r:id="rId11"/>
+    <sheet name="AIC" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件一覧!$B$3:$O$3</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="515">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -2964,13 +2966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共変量ラベルマスタ</t>
-    <rPh sb="0" eb="3">
-      <t>キョウヘンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>covariates_label_mst</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3406,17 +3401,7 @@
     <t xml:space="preserve">      enter_date ))as integer)</t>
   </si>
   <si>
-    <t xml:space="preserve">      as last_year_months</t>
-  </si>
-  <si>
-    <t>) a ) b</t>
-  </si>
-  <si>
     <t xml:space="preserve"> earnings_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>select * , end_member_months - menber_months as biz_months, (end_member_months - menber_months) * price as earnings</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3427,42 +3412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">create view </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> as</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      select </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>from price_transition_info pt inner join member_hist_info mh using (member_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt.member_id ,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt.menber_months,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt.enrolled_hist_id,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt.price_start_date,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt.price,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>run</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3819,6 +3768,214 @@
   </si>
   <si>
     <t>select  range_end where covariates_code = 'C00001'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select * , end_member_months - menber_months as biz_months, (end_member_months - menber_months) * price as earnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      select </t>
+  </si>
+  <si>
+    <t>pt.member_id ,</t>
+  </si>
+  <si>
+    <t>pt.menber_months,</t>
+  </si>
+  <si>
+    <t>pt.enrolled_hist_id,</t>
+  </si>
+  <si>
+    <t>pt.price_start_date,</t>
+  </si>
+  <si>
+    <t>pt.price,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      as last_year_months,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      mh.status as status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>from price_transition_info pt inner join member_hist_info mh using (member_id)</t>
+  </si>
+  <si>
+    <t>) a ) b;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> create view  earnings_view as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量属性</t>
+    <rPh sb="0" eb="2">
+      <t>キョウヘン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_prop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:時系列、1:不変、2:可変</t>
+    <rPh sb="2" eb="5">
+      <t>ジケイレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量ラベル関係情報</t>
+    <rPh sb="0" eb="3">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的共変量ラベルマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キョウヘンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>covariates_label_ralation_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共変量属性</t>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係ID</t>
+    <rPh sb="0" eb="2">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relation_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係先種別</t>
+    <rPh sb="0" eb="2">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relation_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:社員ID、1:顧客ID</t>
+    <rPh sb="9" eb="11">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index on covariates_label_ralation_info(covariates_code);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index  on covariates_label_ralation_info(covariates_label_num);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create index  on covariates_label_ralation_info(relation_id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">truncate table </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ 1. 説明変数候補を空にします。</t>
+  </si>
+  <si>
+    <t>ステップ 2. 説明変数候補に新たな説明変数を1つ追加したとき、最も評価値（AIC）が良いものがあれば、追加します。</t>
+  </si>
+  <si>
+    <t>ステップ 3. 説明変数候補から説明変数を1つ削除したとき、最も評価値（AIC）が良いものがあれば、削除します。</t>
+  </si>
+  <si>
+    <t>ステップ 4. 削除が可能な間、ステップ3を繰り返します。</t>
+  </si>
+  <si>
+    <t>ステップ 5. 更新がないか、全ての説明変数を選んだ場合は終了します。そうでない場合、ステップ2へ行きます。</t>
+  </si>
+  <si>
+    <t>・AIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC = -2 ((最大対数尤度)-(最尤推定したパラメータ数))</t>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイユウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記AICが最小のモデルがいいモデル。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3826,7 +3983,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3882,6 +4039,19 @@
       <color rgb="FF444444"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4107,7 +4277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4194,15 +4364,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -4218,6 +4379,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4524,19 +4696,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -5517,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5530,7 +5702,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54">
       <c r="A1" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5541,10 +5713,10 @@
         <v>289</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5555,7 +5727,7 @@
         <v>290</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>317</v>
@@ -5576,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" t="str">
         <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
@@ -5594,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G45" si="0">"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <f>"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
         <v>('2','C00001','1','2年未満'),</v>
       </c>
     </row>
@@ -5606,16 +5778,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"'),"</f>
         <v>('3','C00001','2','3年未満'),</v>
       </c>
     </row>
@@ -5624,16 +5796,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D8" s="16">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8 &amp;"','"&amp;E8 &amp;"'),"</f>
         <v>('4','C00001','3','4年未満'),</v>
       </c>
     </row>
@@ -5642,16 +5814,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="16">
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9 &amp;"','"&amp;E9 &amp;"'),"</f>
         <v>('5','C00001','4','5年未満'),</v>
       </c>
       <c r="H9" s="16"/>
@@ -5662,16 +5834,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="16">
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10 &amp;"','"&amp;E10 &amp;"'),"</f>
         <v>('6','C00001','5','6年未満'),</v>
       </c>
     </row>
@@ -5680,16 +5852,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="16">
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11 &amp;"','"&amp;E11 &amp;"'),"</f>
         <v>('7','C00001','6','7年未満'),</v>
       </c>
     </row>
@@ -5698,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" s="16">
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12 &amp;"','"&amp;E12 &amp;"'),"</f>
         <v>('8','C00001','7','8年未満'),</v>
       </c>
     </row>
@@ -5716,16 +5888,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="16">
         <v>8</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13 &amp;"','"&amp;E13 &amp;"'),"</f>
         <v>('9','C00001','8','9年未満'),</v>
       </c>
     </row>
@@ -5734,16 +5906,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D14" s="16">
         <v>9</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14 &amp;"','"&amp;E14 &amp;"'),"</f>
         <v>('10','C00001','9','10年未満'),</v>
       </c>
     </row>
@@ -5752,16 +5924,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D15" s="16">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15 &amp;"','"&amp;E15 &amp;"'),"</f>
         <v>('11','C00001','10','11年未満'),</v>
       </c>
     </row>
@@ -5770,16 +5942,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D16" s="16">
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16 &amp;"','"&amp;E16 &amp;"'),"</f>
         <v>('12','C00001','11','12年未満'),</v>
       </c>
     </row>
@@ -5788,16 +5960,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" s="16">
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17 &amp;"','"&amp;E17 &amp;"'),"</f>
         <v>('13','C00001','12','13年未満'),</v>
       </c>
     </row>
@@ -5806,16 +5978,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D18" s="16">
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;D18 &amp;"','"&amp;E18 &amp;"'),"</f>
         <v>('14','C00001','13','14年未満'),</v>
       </c>
     </row>
@@ -5824,16 +5996,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D19" s="16">
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19 &amp;"','"&amp;E19 &amp;"'),"</f>
         <v>('15','C00001','14','15年未満'),</v>
       </c>
     </row>
@@ -5842,16 +6014,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D20" s="16">
         <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20 &amp;"','"&amp;E20 &amp;"'),"</f>
         <v>('16','C00001','15','16年未満'),</v>
       </c>
     </row>
@@ -5860,16 +6032,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="16">
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B21&amp;"','"&amp;C21&amp;"','"&amp;D21 &amp;"','"&amp;E21 &amp;"'),"</f>
         <v>('17','C00001','16','17年未満'),</v>
       </c>
     </row>
@@ -5878,16 +6050,16 @@
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D22" s="16">
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;D22 &amp;"','"&amp;E22 &amp;"'),"</f>
         <v>('18','C00001','17','18年未満'),</v>
       </c>
     </row>
@@ -5896,16 +6068,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D23" s="16">
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B23&amp;"','"&amp;C23&amp;"','"&amp;D23 &amp;"','"&amp;E23 &amp;"'),"</f>
         <v>('19','C00001','18','19年未満'),</v>
       </c>
     </row>
@@ -5914,16 +6086,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D24" s="16">
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24 &amp;"','"&amp;E24 &amp;"'),"</f>
         <v>('20','C00001','19','20年未満'),</v>
       </c>
     </row>
@@ -5932,16 +6104,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" s="16">
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25 &amp;"','"&amp;E25 &amp;"'),"</f>
         <v>('21','C00001','20','21年未満'),</v>
       </c>
     </row>
@@ -5950,16 +6122,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26" s="16">
         <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B26&amp;"','"&amp;C26&amp;"','"&amp;D26 &amp;"','"&amp;E26 &amp;"'),"</f>
         <v>('22','C00001','21','22年未満'),</v>
       </c>
     </row>
@@ -5968,16 +6140,16 @@
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" s="16">
         <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27 &amp;"','"&amp;E27 &amp;"'),"</f>
         <v>('23','C00001','22','23年未満'),</v>
       </c>
     </row>
@@ -5986,16 +6158,16 @@
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" s="16">
         <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28 &amp;"','"&amp;E28 &amp;"'),"</f>
         <v>('24','C00001','23','24年未満'),</v>
       </c>
     </row>
@@ -6004,16 +6176,16 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D29" s="16">
         <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B29&amp;"','"&amp;C29&amp;"','"&amp;D29 &amp;"','"&amp;E29 &amp;"'),"</f>
         <v>('25','C00001','24','25年未満'),</v>
       </c>
     </row>
@@ -6022,16 +6194,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D30" s="16">
         <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B30&amp;"','"&amp;C30&amp;"','"&amp;D30 &amp;"','"&amp;E30 &amp;"'),"</f>
         <v>('26','C00001','25','26年未満'),</v>
       </c>
     </row>
@@ -6040,16 +6212,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D31" s="16">
         <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31 &amp;"','"&amp;E31 &amp;"'),"</f>
         <v>('27','C00001','26','27年未満'),</v>
       </c>
     </row>
@@ -6058,16 +6230,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D32" s="16">
         <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;D32 &amp;"','"&amp;E32 &amp;"'),"</f>
         <v>('28','C00001','27','28年未満'),</v>
       </c>
     </row>
@@ -6076,16 +6248,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D33" s="16">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B33&amp;"','"&amp;C33&amp;"','"&amp;D33 &amp;"','"&amp;E33 &amp;"'),"</f>
         <v>('29','C00001','28','29年未満'),</v>
       </c>
     </row>
@@ -6094,16 +6266,16 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D34" s="16">
         <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B34&amp;"','"&amp;C34&amp;"','"&amp;D34 &amp;"','"&amp;E34 &amp;"'),"</f>
         <v>('30','C00001','29','30年未満'),</v>
       </c>
     </row>
@@ -6112,16 +6284,16 @@
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D35" s="16">
         <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B35&amp;"','"&amp;C35&amp;"','"&amp;D35 &amp;"','"&amp;E35 &amp;"'),"</f>
         <v>('31','C00001','30','31年未満'),</v>
       </c>
     </row>
@@ -6130,16 +6302,16 @@
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D36" s="16">
         <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B36&amp;"','"&amp;C36&amp;"','"&amp;D36 &amp;"','"&amp;E36 &amp;"'),"</f>
         <v>('32','C00001','31','32年未満'),</v>
       </c>
     </row>
@@ -6148,16 +6320,16 @@
         <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37" s="16">
         <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B37&amp;"','"&amp;C37&amp;"','"&amp;D37 &amp;"','"&amp;E37 &amp;"'),"</f>
         <v>('33','C00001','32','33年未満'),</v>
       </c>
     </row>
@@ -6166,16 +6338,16 @@
         <v>34</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D38" s="16">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B38&amp;"','"&amp;C38&amp;"','"&amp;D38 &amp;"','"&amp;E38 &amp;"'),"</f>
         <v>('34','C00001','33','34年未満'),</v>
       </c>
     </row>
@@ -6184,16 +6356,16 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" s="16">
         <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B39&amp;"','"&amp;C39&amp;"','"&amp;D39 &amp;"','"&amp;E39 &amp;"'),"</f>
         <v>('35','C00001','34','35年未満'),</v>
       </c>
     </row>
@@ -6202,16 +6374,16 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="16">
         <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B40&amp;"','"&amp;C40&amp;"','"&amp;D40 &amp;"','"&amp;E40 &amp;"'),"</f>
         <v>('36','C00001','35','36年未満'),</v>
       </c>
     </row>
@@ -6220,16 +6392,16 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D41" s="16">
         <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B41&amp;"','"&amp;C41&amp;"','"&amp;D41 &amp;"','"&amp;E41 &amp;"'),"</f>
         <v>('37','C00001','36','37年未満'),</v>
       </c>
     </row>
@@ -6238,16 +6410,16 @@
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D42" s="16">
         <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B42&amp;"','"&amp;C42&amp;"','"&amp;D42 &amp;"','"&amp;E42 &amp;"'),"</f>
         <v>('38','C00001','37','38年未満'),</v>
       </c>
     </row>
@@ -6256,16 +6428,16 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D43" s="16">
         <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B43&amp;"','"&amp;C43&amp;"','"&amp;D43 &amp;"','"&amp;E43 &amp;"'),"</f>
         <v>('39','C00001','38','39年未満'),</v>
       </c>
     </row>
@@ -6274,16 +6446,16 @@
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D44" s="16">
         <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B44&amp;"','"&amp;C44&amp;"','"&amp;D44 &amp;"','"&amp;E44 &amp;"'),"</f>
         <v>('40','C00001','39','40年未満'),</v>
       </c>
     </row>
@@ -6298,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;B45&amp;"','"&amp;C45&amp;"','"&amp;D45 &amp;"','"&amp;E45 &amp;"'),"</f>
         <v>('41','C00002','0','男性'),</v>
       </c>
     </row>
@@ -6316,11 +6488,83 @@
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G46" t="str">
         <f>"('"&amp;B46&amp;"','"&amp;C46&amp;"','"&amp;D46 &amp;"','"&amp;E46 &amp;"'),"</f>
         <v>('42','C00002','1','女性'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FBFA72-E3D6-49AF-B9B2-8D0E822447F1}">
+  <dimension ref="B5:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" s="51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="51" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="51" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAF814C-DCCE-4582-A777-D1AE1F01D788}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -6626,10 +6870,10 @@
     <row r="18" spans="1:8" ht="69" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>119</v>
@@ -6640,10 +6884,10 @@
     <row r="19" spans="1:8" ht="69" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>119</v>
@@ -6654,10 +6898,10 @@
     <row r="20" spans="1:8" ht="69" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>119</v>
@@ -6826,10 +7070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
-  <dimension ref="A4:I166"/>
+  <dimension ref="A4:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A166" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6839,6 +7083,7 @@
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
     <col min="5" max="5" width="4.09765625" customWidth="1"/>
     <col min="6" max="6" width="29.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.296875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6855,14 +7100,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="G5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H5" t="str">
         <f>C4</f>
         <v>member_hist_info</v>
       </c>
       <c r="I5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6876,7 +7121,7 @@
         <v>202</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>215</v>
@@ -7142,14 +7387,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="G24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H24" t="str">
         <f>C23</f>
         <v>client_info</v>
       </c>
       <c r="I24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7163,7 +7408,7 @@
         <v>202</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>215</v>
@@ -7256,7 +7501,7 @@
         <v>202</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>215</v>
@@ -7412,14 +7657,14 @@
     </row>
     <row r="51" spans="1:9">
       <c r="G51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H51" t="str">
         <f>C50</f>
         <v>project_member_num_info</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7433,7 +7678,7 @@
         <v>202</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>215</v>
@@ -7536,14 +7781,14 @@
     </row>
     <row r="64" spans="1:9">
       <c r="G64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H64" t="str">
         <f>C63</f>
         <v>project_enrolled_hist_info</v>
       </c>
       <c r="I64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -7557,7 +7802,7 @@
         <v>202</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>215</v>
@@ -7828,14 +8073,14 @@
     </row>
     <row r="86" spans="1:9">
       <c r="G86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H86" t="str">
         <f>C85</f>
         <v>price_transition_info</v>
       </c>
       <c r="I86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7849,7 +8094,7 @@
         <v>202</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>215</v>
@@ -7986,14 +8231,14 @@
     </row>
     <row r="99" spans="1:9">
       <c r="G99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H99" t="str">
         <f>C98</f>
         <v>culc_target_mst</v>
       </c>
       <c r="I99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8007,7 +8252,7 @@
         <v>202</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>215</v>
@@ -8025,7 +8270,7 @@
         <v>178</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>38</v>
@@ -8105,22 +8350,22 @@
         <v>8</v>
       </c>
       <c r="B108" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="G109" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H109" t="str">
         <f>C108</f>
         <v>culc_target_covariates_mst</v>
       </c>
       <c r="I109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8134,7 +8379,7 @@
         <v>202</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>215</v>
@@ -8152,7 +8397,7 @@
         <v>178</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>38</v>
@@ -8206,7 +8451,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="29"/>
@@ -8215,7 +8460,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
@@ -8242,14 +8487,14 @@
     </row>
     <row r="119" spans="1:9">
       <c r="G119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H119" t="str">
         <f>C118</f>
         <v>covariates_mst</v>
       </c>
       <c r="I119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8263,7 +8508,7 @@
         <v>202</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>215</v>
@@ -8281,7 +8526,7 @@
         <v>178</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>38</v>
@@ -8305,7 +8550,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="H122" t="str">
-        <f t="shared" ref="H122:H125" si="8">C122 &amp; " " &amp; D122 &amp; ","</f>
+        <f t="shared" ref="H122:H126" si="8">C122 &amp; " " &amp; D122 &amp; ","</f>
         <v>covariates_code text,</v>
       </c>
     </row>
@@ -8346,28 +8591,30 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="B125" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
+      <c r="B125" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50" t="s">
+        <v>492</v>
+      </c>
       <c r="H125" t="str">
-        <f t="shared" si="8"/>
-        <v>range_start decimal,</v>
+        <f t="shared" ref="H125" si="9">C125 &amp; " " &amp; D125 &amp; ","</f>
+        <v>covariates_prop smallint,</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="B126" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>301</v>
@@ -8375,208 +8622,206 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="H126" t="str">
-        <f>C126 &amp; " " &amp; D126 &amp; ");"</f>
+        <f t="shared" si="8"/>
+        <v>range_start decimal,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="B127" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="H127" t="str">
+        <f>C127 &amp; " " &amp; D127 &amp; ");"</f>
         <v>range_end decimal);</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="B128" t="s">
+    <row r="129" spans="1:9">
+      <c r="B129" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
+    <row r="131" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A131">
         <v>10</v>
       </c>
-      <c r="B130" s="25" t="s">
+      <c r="B131" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="G131" t="s">
+    </row>
+    <row r="132" spans="1:9">
+      <c r="G132" t="s">
+        <v>409</v>
+      </c>
+      <c r="H132" t="str">
+        <f>C131</f>
+        <v>covariates_label_mst</v>
+      </c>
+      <c r="I132" t="s">
         <v>410</v>
       </c>
-      <c r="H131" t="str">
-        <f>C130</f>
-        <v>covariates_label_mst</v>
-      </c>
-      <c r="I131" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="B132" s="25" t="s">
+    </row>
+    <row r="133" spans="1:9">
+      <c r="B133" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C133" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D133" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E132" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F132" s="25" t="s">
+      <c r="E133" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G132" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C130&amp;" ("</f>
+      <c r="G133" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C131&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  covariates_label_mst (</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="B133" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F133" s="16"/>
-      <c r="H133" t="str">
-        <f>C133 &amp; " " &amp; D133 &amp; ","</f>
-        <v>tbl_id smallint,</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="B134" s="16" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E134" s="16"/>
+        <v>358</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F134" s="16"/>
       <c r="H134" t="str">
-        <f t="shared" ref="H134" si="9">C134 &amp; " " &amp; D134 &amp; ","</f>
-        <v>covariates_code text,</v>
+        <f>C134 &amp; " " &amp; D134 &amp; ","</f>
+        <v>tbl_id smallint,</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="B135" s="16" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="H135" t="str">
-        <f>C135 &amp; " " &amp; D135 &amp; ","</f>
-        <v>covariates_label_num smallint,</v>
+        <f t="shared" ref="H135" si="10">C135 &amp; " " &amp; D135 &amp; ","</f>
+        <v>covariates_code text,</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="B136" s="16" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>354</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>217</v>
+        <v>358</v>
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="H136" t="str">
-        <f>C136 &amp; " " &amp; D136 &amp; ");"</f>
+        <f>C136 &amp; " " &amp; D136 &amp; ","</f>
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="B137" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="H137" t="str">
+        <f>C137 &amp; " " &amp; D137 &amp; ");"</f>
         <v>covariates_label_name text);</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="B138" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="B140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
         <v>11</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="B142" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C142" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="G142" t="s">
+    <row r="143" spans="1:9">
+      <c r="G143" t="s">
+        <v>409</v>
+      </c>
+      <c r="H143" t="str">
+        <f>C142</f>
+        <v>covariates_effective_info</v>
+      </c>
+      <c r="I143" t="s">
         <v>410</v>
       </c>
-      <c r="H142" t="str">
-        <f>C141</f>
-        <v>covariates_effective_info</v>
-      </c>
-      <c r="I142" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="B143" s="25" t="s">
+    </row>
+    <row r="144" spans="1:9">
+      <c r="B144" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C144" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D143" s="25" t="s">
+      <c r="D144" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E143" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F143" s="25" t="s">
+      <c r="E144" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G143" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C141&amp;" ("</f>
+      <c r="G144" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C142&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  covariates_effective_info (</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="B144" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="H144" t="str">
-        <f t="shared" ref="H144:H147" si="10">C144 &amp; " " &amp; D144 &amp; ","</f>
-        <v>culc_target_code text,</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="B145" s="16" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>217</v>
@@ -8586,153 +8831,153 @@
       </c>
       <c r="F145" s="16"/>
       <c r="H145" t="str">
-        <f t="shared" si="10"/>
-        <v>covariates_code text,</v>
+        <f t="shared" ref="H145:H148" si="11">C145 &amp; " " &amp; D145 &amp; ","</f>
+        <v>culc_target_code text,</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="B146" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E146" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F146" s="16"/>
       <c r="H146" t="str">
-        <f t="shared" si="10"/>
-        <v>effect_start_time timestamp ,</v>
+        <f t="shared" si="11"/>
+        <v>covariates_code text,</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="B147" s="16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="H147" t="str">
-        <f t="shared" si="10"/>
-        <v>culc_id text,</v>
+        <f t="shared" si="11"/>
+        <v>effect_start_time timestamp ,</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="B148" s="16" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
       <c r="H148" t="str">
-        <f>C148 &amp; " " &amp; D148 &amp; ","</f>
+        <f t="shared" si="11"/>
+        <v>culc_id text,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="B149" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="H149" t="str">
+        <f>C149 &amp; " " &amp; D149 &amp; ","</f>
         <v>effect_flg boolean,</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="G149" s="33" t="s">
-        <v>413</v>
-      </c>
-    </row>
     <row r="150" spans="1:9">
-      <c r="B150" t="s">
-        <v>345</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="G150" s="33" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>308</v>
+        <v>345</v>
+      </c>
+      <c r="G151" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="B152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="B153" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154">
+    <row r="155" spans="1:9">
+      <c r="A155">
         <v>12</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="B155" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C155" s="17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="G155" t="s">
+    <row r="156" spans="1:9">
+      <c r="G156" t="s">
+        <v>409</v>
+      </c>
+      <c r="H156" t="str">
+        <f>C155</f>
+        <v>covariates_info</v>
+      </c>
+      <c r="I156" t="s">
         <v>410</v>
       </c>
-      <c r="H155" t="str">
-        <f>C154</f>
-        <v>covariates_info</v>
-      </c>
-      <c r="I155" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="B156" s="25" t="s">
+    </row>
+    <row r="157" spans="1:9">
+      <c r="B157" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C157" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="D157" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F156" s="25" t="s">
+      <c r="E157" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G156" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C154&amp;" ("</f>
+      <c r="G157" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C155&amp;" ("</f>
         <v>CREATE TABLE IF NOT EXISTS  covariates_info (</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="B157" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" s="16"/>
-      <c r="H157" t="str">
-        <f t="shared" ref="H157:H161" si="11">C157 &amp; " " &amp; D157 &amp; ","</f>
-        <v>culc_target_code text,</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="B158" s="16" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>217</v>
@@ -8742,101 +8987,290 @@
       </c>
       <c r="F158" s="16"/>
       <c r="H158" t="str">
-        <f t="shared" si="11"/>
-        <v>covariates_code text,</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="21.6" customHeight="1">
+        <f t="shared" ref="H158:H162" si="12">C158 &amp; " " &amp; D158 &amp; ","</f>
+        <v>culc_target_code text,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" s="16" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F159" s="17"/>
+      <c r="F159" s="16"/>
       <c r="H159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="21.6" customHeight="1">
+      <c r="B160" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="H160" t="str">
+        <f t="shared" si="12"/>
         <v>covariates_label_num smallint,</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
-      <c r="B160" s="16" t="s">
+    <row r="161" spans="1:9">
+      <c r="B161" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C161" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D161" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="H160" t="str">
-        <f t="shared" si="11"/>
-        <v>effect_start_time timestamp ,</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8">
-      <c r="B161" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
       <c r="H161" t="str">
-        <f t="shared" si="11"/>
-        <v>culc_id text,</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8">
+        <f t="shared" si="12"/>
+        <v>effect_start_time timestamp ,</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="H162" t="str">
-        <f>C162 &amp; " " &amp; D162 &amp; ","</f>
+        <f t="shared" si="12"/>
+        <v>culc_id text,</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="B163" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="H163" t="str">
+        <f>C163 &amp; " " &amp; D163 &amp; ","</f>
         <v>covariates_value decimal,</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
-      <c r="G163" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8">
-      <c r="B164" t="s">
+    <row r="164" spans="1:9">
+      <c r="G164" s="33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="B165" t="s">
         <v>346</v>
       </c>
-      <c r="G164" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8">
-      <c r="B165" t="s">
+      <c r="G165" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
-      <c r="B166" t="s">
-        <v>402</v>
+    <row r="167" spans="1:9">
+      <c r="B167" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="B169" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="G172" t="s">
+        <v>409</v>
+      </c>
+      <c r="H172" t="str">
+        <f>C171</f>
+        <v>covariates_label_ralation_info</v>
+      </c>
+      <c r="I172" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="B173" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G173" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  " &amp;    C171&amp;" ("</f>
+        <v>CREATE TABLE IF NOT EXISTS  covariates_label_ralation_info (</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="16"/>
+      <c r="H174" t="str">
+        <f>C174 &amp; " " &amp; D174 &amp; ","</f>
+        <v>tbl_id serial ,</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="B175" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="H175" t="str">
+        <f t="shared" ref="H175:H177" si="13">C175 &amp; " " &amp; D175 &amp; ","</f>
+        <v>covariates_code text,</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="H176" t="str">
+        <f>C176 &amp; " " &amp; D176 &amp; ","</f>
+        <v>covariates_label_num smallint,</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="13"/>
+        <v>relation_type smallint,</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="H178" t="str">
+        <f>C178 &amp; " " &amp; D178 &amp; ","</f>
+        <v>relation_id text,</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="H179" t="str">
+        <f>C179 &amp; " " &amp; D179 &amp; ");"</f>
+        <v>covariates_label_name text);</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8848,10 +9282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960BBA9-6AD0-4C95-BBB5-CB08F6C2607E}">
-  <dimension ref="B2:O25"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8862,39 +9296,34 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="25" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:15">
-      <c r="B4" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="C4" s="38" t="str">
-        <f>C2</f>
-        <v xml:space="preserve"> earnings_view</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="B4" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="40" t="s">
-        <v>434</v>
+      <c r="B5" s="37" t="s">
+        <v>420</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -8908,10 +9337,10 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>421</v>
       </c>
       <c r="C6" s="29"/>
@@ -8926,10 +9355,10 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
-      <c r="O6" s="41"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>422</v>
       </c>
       <c r="C7" s="29"/>
@@ -8944,10 +9373,10 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="41"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>423</v>
       </c>
       <c r="C8" s="29"/>
@@ -8962,10 +9391,10 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
-      <c r="O8" s="41"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>424</v>
       </c>
       <c r="C9" s="29"/>
@@ -8980,11 +9409,11 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="41"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="40" t="s">
-        <v>425</v>
+      <c r="B10" s="37" t="s">
+        <v>478</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -8998,11 +9427,11 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="41"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="40" t="s">
-        <v>438</v>
+      <c r="B11" s="37" t="s">
+        <v>479</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -9016,11 +9445,11 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="41"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="40" t="s">
-        <v>440</v>
+      <c r="B12" s="37" t="s">
+        <v>480</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -9034,11 +9463,11 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="41"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="40" t="s">
-        <v>441</v>
+      <c r="B13" s="37" t="s">
+        <v>481</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -9052,11 +9481,11 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="41"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="40" t="s">
-        <v>442</v>
+      <c r="B14" s="37" t="s">
+        <v>482</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -9070,11 +9499,11 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="40" t="s">
-        <v>443</v>
+      <c r="B15" s="37" t="s">
+        <v>483</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -9088,12 +9517,10 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="41"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="40" t="s">
-        <v>444</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -9106,11 +9533,15 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="41"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>426</v>
+      </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -9122,11 +9553,11 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="41"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="40" t="s">
-        <v>426</v>
+      <c r="B18" s="37" t="s">
+        <v>425</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>427</v>
@@ -9142,15 +9573,13 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="41"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="37" t="s">
         <v>428</v>
       </c>
+      <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -9162,10 +9591,10 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
-      <c r="O19" s="41"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>429</v>
       </c>
       <c r="C20" s="29"/>
@@ -9180,11 +9609,11 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="41"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="40" t="s">
-        <v>430</v>
+      <c r="B21" s="37" t="s">
+        <v>484</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -9198,11 +9627,11 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="41"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="40" t="s">
-        <v>431</v>
+      <c r="B22" s="37" t="s">
+        <v>485</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -9216,11 +9645,11 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="41"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="40" t="s">
-        <v>439</v>
+      <c r="B23" s="37" t="s">
+        <v>486</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -9234,11 +9663,11 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="41"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="40" t="s">
-        <v>432</v>
+      <c r="B24" s="37" t="s">
+        <v>487</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -9252,25 +9681,406 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="41"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
+      <c r="B25" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+    </row>
+    <row r="28" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="37"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="2:14" ht="18.600000000000001" thickBot="1">
+      <c r="B50" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9282,8 +10092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744E014-C36D-4DE1-B67C-40D789728BDC}">
   <dimension ref="B4:M188"/>
   <sheetViews>
-    <sheetView topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="D73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9302,41 +10112,41 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="54">
-      <c r="G5" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="L5" s="46"/>
+      <c r="G5" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G6" s="47">
+        <v>432</v>
+      </c>
+      <c r="G6" s="44">
         <v>0</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="44">
         <v>6</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="44">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -9347,14 +10157,14 @@
       <c r="I7" s="16">
         <v>5</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G8" s="16">
         <v>2</v>
@@ -9365,14 +10175,14 @@
       <c r="I8" s="16">
         <v>3</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G9" s="16">
         <v>3</v>
@@ -9383,14 +10193,14 @@
       <c r="I9" s="16">
         <v>2</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G10" s="16">
         <v>4</v>
@@ -9401,7 +10211,7 @@
       <c r="I10" s="16">
         <v>7</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="2:12">
       <c r="G11" s="16">
@@ -9415,10 +10225,10 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="G12" s="47">
+      <c r="G12" s="44">
         <v>6</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="44">
         <v>2</v>
       </c>
       <c r="I12" s="16">
@@ -9426,10 +10236,10 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="G13" s="47">
+      <c r="G13" s="44">
         <v>7</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="44">
         <v>4</v>
       </c>
       <c r="I13" s="16">
@@ -9438,28 +10248,28 @@
     </row>
     <row r="17" spans="7:11">
       <c r="G17" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="7:11" ht="54">
-      <c r="G19" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>447</v>
+      <c r="G19" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="7:11">
-      <c r="G20" s="47">
+      <c r="G20" s="44">
         <v>0</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="46">
         <v>6</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="46">
         <v>5</v>
       </c>
     </row>
@@ -9467,10 +10277,10 @@
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="46">
         <v>2</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="46">
         <v>5</v>
       </c>
     </row>
@@ -9478,10 +10288,10 @@
       <c r="G22" s="16">
         <v>2</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="46">
         <v>4</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="46">
         <v>3</v>
       </c>
     </row>
@@ -9489,10 +10299,10 @@
       <c r="G23" s="16">
         <v>3</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="46">
         <v>6</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="46">
         <v>2</v>
       </c>
     </row>
@@ -9500,10 +10310,10 @@
       <c r="G24" s="16">
         <v>4</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="46">
         <v>2</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="46">
         <v>7</v>
       </c>
     </row>
@@ -9511,32 +10321,32 @@
       <c r="G25" s="16">
         <v>5</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="46">
         <v>8</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="7:11">
-      <c r="G26" s="47">
+      <c r="G26" s="44">
         <v>6</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="46">
         <v>2</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="7:11">
-      <c r="G27" s="47">
+      <c r="G27" s="44">
         <v>7</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="46">
         <v>4</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="46">
         <v>0</v>
       </c>
     </row>
@@ -9548,49 +10358,49 @@
     </row>
     <row r="31" spans="7:11">
       <c r="G31" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="K31" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="7:13" ht="90">
-      <c r="G33" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L33" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>447</v>
+      <c r="G33" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="7:13">
-      <c r="G34" s="47">
+      <c r="G34" s="44">
         <v>0</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="44">
         <v>6</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="44">
         <v>5</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="44">
         <v>0</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="44">
         <v>6</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="46">
         <v>5</v>
       </c>
     </row>
@@ -9598,19 +10408,19 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="46">
         <v>2</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="46">
         <v>5</v>
       </c>
       <c r="K35" s="16">
         <v>1</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="44">
         <v>2</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="44">
         <v>5</v>
       </c>
     </row>
@@ -9618,19 +10428,19 @@
       <c r="G36" s="16">
         <v>2</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="46">
         <v>4</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="46">
         <v>3</v>
       </c>
       <c r="K36" s="16">
         <v>2</v>
       </c>
-      <c r="L36" s="47">
+      <c r="L36" s="44">
         <v>4</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="44">
         <v>3</v>
       </c>
     </row>
@@ -9638,19 +10448,19 @@
       <c r="G37" s="16">
         <v>3</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="46">
         <v>6</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="46">
         <v>2</v>
       </c>
       <c r="K37" s="16">
         <v>3</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="44">
         <v>6</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="44">
         <v>2</v>
       </c>
     </row>
@@ -9658,19 +10468,19 @@
       <c r="G38" s="16">
         <v>4</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="46">
         <v>2</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="46">
         <v>7</v>
       </c>
       <c r="K38" s="16">
         <v>4</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="44">
         <v>2</v>
       </c>
-      <c r="M38" s="47">
+      <c r="M38" s="44">
         <v>7</v>
       </c>
     </row>
@@ -9678,59 +10488,59 @@
       <c r="G39" s="16">
         <v>5</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="46">
         <v>8</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="46">
         <v>6</v>
       </c>
       <c r="K39" s="16">
         <v>5</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="44">
         <v>8</v>
       </c>
-      <c r="M39" s="47">
+      <c r="M39" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="7:13">
-      <c r="G40" s="47">
+      <c r="G40" s="44">
         <v>6</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="46">
         <v>2</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="46">
         <v>0</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="44">
         <v>6</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="44">
         <v>2</v>
       </c>
-      <c r="M40" s="47">
+      <c r="M40" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:13">
-      <c r="G41" s="47">
+      <c r="G41" s="44">
         <v>7</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="46">
         <v>4</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="46">
         <v>0</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="44">
         <v>7</v>
       </c>
-      <c r="L41" s="47">
+      <c r="L41" s="44">
         <v>4</v>
       </c>
-      <c r="M41" s="47">
+      <c r="M41" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9746,49 +10556,49 @@
     </row>
     <row r="46" spans="7:13">
       <c r="G46" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="K46" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="7:13" ht="90">
-      <c r="G48" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K48" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L48" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M48" s="48" t="s">
-        <v>447</v>
+      <c r="G48" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K48" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L48" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="7:13">
-      <c r="G49" s="47">
+      <c r="G49" s="44">
         <v>0</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="44">
         <v>6</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="44">
         <v>5</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="44">
         <v>0</v>
       </c>
-      <c r="L49" s="47">
+      <c r="L49" s="44">
         <v>6</v>
       </c>
-      <c r="M49" s="47">
+      <c r="M49" s="44">
         <v>5</v>
       </c>
     </row>
@@ -9796,19 +10606,19 @@
       <c r="G50" s="16">
         <v>1</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="44">
         <v>2</v>
       </c>
-      <c r="I50" s="47">
+      <c r="I50" s="44">
         <v>5</v>
       </c>
       <c r="K50" s="16">
         <v>1</v>
       </c>
-      <c r="L50" s="47">
+      <c r="L50" s="44">
         <v>2</v>
       </c>
-      <c r="M50" s="49">
+      <c r="M50" s="46">
         <v>5</v>
       </c>
     </row>
@@ -9816,19 +10626,19 @@
       <c r="G51" s="16">
         <v>2</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="46">
         <v>4</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I51" s="46">
         <v>3</v>
       </c>
       <c r="K51" s="16">
         <v>2</v>
       </c>
-      <c r="L51" s="47">
+      <c r="L51" s="44">
         <v>4</v>
       </c>
-      <c r="M51" s="47">
+      <c r="M51" s="44">
         <v>3</v>
       </c>
     </row>
@@ -9836,19 +10646,19 @@
       <c r="G52" s="16">
         <v>3</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="46">
         <v>6</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="46">
         <v>2</v>
       </c>
       <c r="K52" s="16">
         <v>3</v>
       </c>
-      <c r="L52" s="47">
+      <c r="L52" s="44">
         <v>6</v>
       </c>
-      <c r="M52" s="47">
+      <c r="M52" s="44">
         <v>2</v>
       </c>
     </row>
@@ -9856,19 +10666,19 @@
       <c r="G53" s="16">
         <v>4</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H53" s="46">
         <v>2</v>
       </c>
-      <c r="I53" s="49">
+      <c r="I53" s="46">
         <v>7</v>
       </c>
       <c r="K53" s="16">
         <v>4</v>
       </c>
-      <c r="L53" s="47">
+      <c r="L53" s="44">
         <v>2</v>
       </c>
-      <c r="M53" s="47">
+      <c r="M53" s="44">
         <v>7</v>
       </c>
     </row>
@@ -9876,59 +10686,59 @@
       <c r="G54" s="16">
         <v>5</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="46">
         <v>8</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I54" s="46">
         <v>6</v>
       </c>
       <c r="K54" s="16">
         <v>5</v>
       </c>
-      <c r="L54" s="47">
+      <c r="L54" s="44">
         <v>8</v>
       </c>
-      <c r="M54" s="47">
+      <c r="M54" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="7:13">
-      <c r="G55" s="47">
+      <c r="G55" s="44">
         <v>6</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="46">
         <v>2</v>
       </c>
-      <c r="I55" s="49">
+      <c r="I55" s="46">
         <v>0</v>
       </c>
-      <c r="K55" s="47">
+      <c r="K55" s="44">
         <v>6</v>
       </c>
-      <c r="L55" s="47">
+      <c r="L55" s="44">
         <v>2</v>
       </c>
-      <c r="M55" s="47">
+      <c r="M55" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:13">
-      <c r="G56" s="47">
+      <c r="G56" s="44">
         <v>7</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="46">
         <v>4</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I56" s="46">
         <v>0</v>
       </c>
-      <c r="K56" s="47">
+      <c r="K56" s="44">
         <v>7</v>
       </c>
-      <c r="L56" s="47">
+      <c r="L56" s="44">
         <v>4</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9944,49 +10754,49 @@
     </row>
     <row r="60" spans="7:13">
       <c r="G60" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="7:13" ht="90">
-      <c r="G62" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I62" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K62" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L62" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M62" s="48" t="s">
-        <v>447</v>
+      <c r="G62" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I62" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K62" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L62" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="7:13">
-      <c r="G63" s="47">
+      <c r="G63" s="44">
         <v>0</v>
       </c>
-      <c r="H63" s="47">
+      <c r="H63" s="44">
         <v>6</v>
       </c>
-      <c r="I63" s="47">
+      <c r="I63" s="44">
         <v>5</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="44">
         <v>0</v>
       </c>
-      <c r="L63" s="47">
+      <c r="L63" s="44">
         <v>6</v>
       </c>
-      <c r="M63" s="47">
+      <c r="M63" s="44">
         <v>5</v>
       </c>
     </row>
@@ -9994,19 +10804,19 @@
       <c r="G64" s="16">
         <v>1</v>
       </c>
-      <c r="H64" s="47">
+      <c r="H64" s="44">
         <v>2</v>
       </c>
-      <c r="I64" s="47">
+      <c r="I64" s="44">
         <v>5</v>
       </c>
       <c r="K64" s="16">
         <v>1</v>
       </c>
-      <c r="L64" s="47">
+      <c r="L64" s="44">
         <v>2</v>
       </c>
-      <c r="M64" s="47">
+      <c r="M64" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10014,19 +10824,19 @@
       <c r="G65" s="16">
         <v>2</v>
       </c>
-      <c r="H65" s="47">
+      <c r="H65" s="44">
         <v>4</v>
       </c>
-      <c r="I65" s="47">
+      <c r="I65" s="44">
         <v>3</v>
       </c>
       <c r="K65" s="16">
         <v>2</v>
       </c>
-      <c r="L65" s="47">
+      <c r="L65" s="44">
         <v>4</v>
       </c>
-      <c r="M65" s="49">
+      <c r="M65" s="46">
         <v>3</v>
       </c>
     </row>
@@ -10034,19 +10844,19 @@
       <c r="G66" s="16">
         <v>3</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H66" s="46">
         <v>6</v>
       </c>
-      <c r="I66" s="49">
+      <c r="I66" s="46">
         <v>2</v>
       </c>
       <c r="K66" s="16">
         <v>3</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L66" s="44">
         <v>6</v>
       </c>
-      <c r="M66" s="47">
+      <c r="M66" s="44">
         <v>2</v>
       </c>
     </row>
@@ -10054,19 +10864,19 @@
       <c r="G67" s="16">
         <v>4</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H67" s="46">
         <v>2</v>
       </c>
-      <c r="I67" s="49">
+      <c r="I67" s="46">
         <v>7</v>
       </c>
       <c r="K67" s="16">
         <v>4</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L67" s="44">
         <v>2</v>
       </c>
-      <c r="M67" s="47">
+      <c r="M67" s="44">
         <v>7</v>
       </c>
     </row>
@@ -10074,59 +10884,59 @@
       <c r="G68" s="16">
         <v>5</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H68" s="46">
         <v>8</v>
       </c>
-      <c r="I68" s="49">
+      <c r="I68" s="46">
         <v>6</v>
       </c>
       <c r="K68" s="16">
         <v>5</v>
       </c>
-      <c r="L68" s="47">
+      <c r="L68" s="44">
         <v>8</v>
       </c>
-      <c r="M68" s="47">
+      <c r="M68" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="7:13">
-      <c r="G69" s="47">
+      <c r="G69" s="44">
         <v>6</v>
       </c>
-      <c r="H69" s="49">
+      <c r="H69" s="46">
         <v>2</v>
       </c>
-      <c r="I69" s="49">
+      <c r="I69" s="46">
         <v>0</v>
       </c>
-      <c r="K69" s="47">
+      <c r="K69" s="44">
         <v>6</v>
       </c>
-      <c r="L69" s="47">
+      <c r="L69" s="44">
         <v>2</v>
       </c>
-      <c r="M69" s="47">
+      <c r="M69" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:13">
-      <c r="G70" s="47">
+      <c r="G70" s="44">
         <v>7</v>
       </c>
-      <c r="H70" s="49">
+      <c r="H70" s="46">
         <v>4</v>
       </c>
-      <c r="I70" s="49">
+      <c r="I70" s="46">
         <v>0</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="44">
         <v>7</v>
       </c>
-      <c r="L70" s="47">
+      <c r="L70" s="44">
         <v>4</v>
       </c>
-      <c r="M70" s="47">
+      <c r="M70" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10142,49 +10952,49 @@
     </row>
     <row r="74" spans="7:13">
       <c r="G74" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K74" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="7:13" ht="90">
-      <c r="G77" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H77" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K77" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L77" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M77" s="48" t="s">
-        <v>447</v>
+      <c r="G77" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I77" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K77" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L77" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M77" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="7:13">
-      <c r="G78" s="47">
+      <c r="G78" s="44">
         <v>0</v>
       </c>
-      <c r="H78" s="47">
+      <c r="H78" s="44">
         <v>6</v>
       </c>
-      <c r="I78" s="47">
+      <c r="I78" s="44">
         <v>5</v>
       </c>
-      <c r="K78" s="47">
+      <c r="K78" s="44">
         <v>0</v>
       </c>
-      <c r="L78" s="47">
+      <c r="L78" s="44">
         <v>6</v>
       </c>
-      <c r="M78" s="47">
+      <c r="M78" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10192,19 +11002,19 @@
       <c r="G79" s="16">
         <v>1</v>
       </c>
-      <c r="H79" s="47">
+      <c r="H79" s="44">
         <v>2</v>
       </c>
-      <c r="I79" s="47">
+      <c r="I79" s="44">
         <v>5</v>
       </c>
       <c r="K79" s="16">
         <v>1</v>
       </c>
-      <c r="L79" s="47">
+      <c r="L79" s="44">
         <v>2</v>
       </c>
-      <c r="M79" s="47">
+      <c r="M79" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10212,19 +11022,19 @@
       <c r="G80" s="16">
         <v>2</v>
       </c>
-      <c r="H80" s="47">
+      <c r="H80" s="44">
         <v>4</v>
       </c>
-      <c r="I80" s="47">
+      <c r="I80" s="44">
         <v>3</v>
       </c>
       <c r="K80" s="16">
         <v>2</v>
       </c>
-      <c r="L80" s="47">
+      <c r="L80" s="44">
         <v>4</v>
       </c>
-      <c r="M80" s="47">
+      <c r="M80" s="44">
         <v>3</v>
       </c>
     </row>
@@ -10232,19 +11042,19 @@
       <c r="G81" s="16">
         <v>3</v>
       </c>
-      <c r="H81" s="47">
+      <c r="H81" s="44">
         <v>6</v>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="44">
         <v>2</v>
       </c>
       <c r="K81" s="16">
         <v>3</v>
       </c>
-      <c r="L81" s="47">
+      <c r="L81" s="44">
         <v>6</v>
       </c>
-      <c r="M81" s="49">
+      <c r="M81" s="46">
         <v>2</v>
       </c>
     </row>
@@ -10252,19 +11062,19 @@
       <c r="G82" s="16">
         <v>4</v>
       </c>
-      <c r="H82" s="49">
+      <c r="H82" s="46">
         <v>2</v>
       </c>
-      <c r="I82" s="49">
+      <c r="I82" s="46">
         <v>7</v>
       </c>
       <c r="K82" s="16">
         <v>4</v>
       </c>
-      <c r="L82" s="47">
+      <c r="L82" s="44">
         <v>2</v>
       </c>
-      <c r="M82" s="47">
+      <c r="M82" s="44">
         <v>7</v>
       </c>
     </row>
@@ -10272,59 +11082,59 @@
       <c r="G83" s="16">
         <v>5</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="46">
         <v>8</v>
       </c>
-      <c r="I83" s="49">
+      <c r="I83" s="46">
         <v>6</v>
       </c>
       <c r="K83" s="16">
         <v>5</v>
       </c>
-      <c r="L83" s="47">
+      <c r="L83" s="44">
         <v>8</v>
       </c>
-      <c r="M83" s="47">
+      <c r="M83" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="7:13">
-      <c r="G84" s="47">
+      <c r="G84" s="44">
         <v>6</v>
       </c>
-      <c r="H84" s="49">
+      <c r="H84" s="46">
         <v>2</v>
       </c>
-      <c r="I84" s="49">
+      <c r="I84" s="46">
         <v>0</v>
       </c>
-      <c r="K84" s="47">
+      <c r="K84" s="44">
         <v>6</v>
       </c>
-      <c r="L84" s="47">
+      <c r="L84" s="44">
         <v>2</v>
       </c>
-      <c r="M84" s="47">
+      <c r="M84" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="7:13">
-      <c r="G85" s="47">
+      <c r="G85" s="44">
         <v>7</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85" s="46">
         <v>4</v>
       </c>
-      <c r="I85" s="49">
+      <c r="I85" s="46">
         <v>0</v>
       </c>
-      <c r="K85" s="47">
+      <c r="K85" s="44">
         <v>7</v>
       </c>
-      <c r="L85" s="47">
+      <c r="L85" s="44">
         <v>4</v>
       </c>
-      <c r="M85" s="47">
+      <c r="M85" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10340,49 +11150,49 @@
     </row>
     <row r="90" spans="7:13">
       <c r="G90" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K90" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="7:13" ht="90">
-      <c r="G93" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H93" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I93" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K93" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L93" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M93" s="48" t="s">
-        <v>447</v>
+      <c r="G93" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I93" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K93" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L93" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M93" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="7:13">
-      <c r="G94" s="47">
+      <c r="G94" s="44">
         <v>0</v>
       </c>
-      <c r="H94" s="47">
+      <c r="H94" s="44">
         <v>6</v>
       </c>
-      <c r="I94" s="47">
+      <c r="I94" s="44">
         <v>5</v>
       </c>
-      <c r="K94" s="47">
+      <c r="K94" s="44">
         <v>0</v>
       </c>
-      <c r="L94" s="47">
+      <c r="L94" s="44">
         <v>6</v>
       </c>
-      <c r="M94" s="47">
+      <c r="M94" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10390,19 +11200,19 @@
       <c r="G95" s="16">
         <v>1</v>
       </c>
-      <c r="H95" s="47">
+      <c r="H95" s="44">
         <v>2</v>
       </c>
-      <c r="I95" s="47">
+      <c r="I95" s="44">
         <v>5</v>
       </c>
       <c r="K95" s="16">
         <v>1</v>
       </c>
-      <c r="L95" s="47">
+      <c r="L95" s="44">
         <v>2</v>
       </c>
-      <c r="M95" s="47">
+      <c r="M95" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10410,19 +11220,19 @@
       <c r="G96" s="16">
         <v>2</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="44">
         <v>4</v>
       </c>
-      <c r="I96" s="47">
+      <c r="I96" s="44">
         <v>3</v>
       </c>
       <c r="K96" s="16">
         <v>2</v>
       </c>
-      <c r="L96" s="47">
+      <c r="L96" s="44">
         <v>4</v>
       </c>
-      <c r="M96" s="47">
+      <c r="M96" s="44">
         <v>3</v>
       </c>
     </row>
@@ -10430,19 +11240,19 @@
       <c r="G97" s="16">
         <v>3</v>
       </c>
-      <c r="H97" s="47">
+      <c r="H97" s="44">
         <v>6</v>
       </c>
-      <c r="I97" s="47">
+      <c r="I97" s="44">
         <v>2</v>
       </c>
       <c r="K97" s="16">
         <v>3</v>
       </c>
-      <c r="L97" s="47">
+      <c r="L97" s="44">
         <v>6</v>
       </c>
-      <c r="M97" s="47">
+      <c r="M97" s="44">
         <v>2</v>
       </c>
     </row>
@@ -10450,19 +11260,19 @@
       <c r="G98" s="16">
         <v>4</v>
       </c>
-      <c r="H98" s="47">
+      <c r="H98" s="44">
         <v>2</v>
       </c>
-      <c r="I98" s="47">
+      <c r="I98" s="44">
         <v>7</v>
       </c>
       <c r="K98" s="16">
         <v>4</v>
       </c>
-      <c r="L98" s="47">
+      <c r="L98" s="44">
         <v>2</v>
       </c>
-      <c r="M98" s="49">
+      <c r="M98" s="46">
         <v>7</v>
       </c>
     </row>
@@ -10470,19 +11280,19 @@
       <c r="G99" s="16">
         <v>5</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H99" s="46">
         <v>8</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99" s="46">
         <v>6</v>
       </c>
       <c r="K99" s="16">
         <v>5</v>
       </c>
-      <c r="L99" s="47">
+      <c r="L99" s="44">
         <v>8</v>
       </c>
-      <c r="M99" s="47">
+      <c r="M99" s="44">
         <v>6</v>
       </c>
     </row>
@@ -10490,59 +11300,59 @@
       <c r="G100" s="16">
         <v>6</v>
       </c>
-      <c r="H100" s="49">
+      <c r="H100" s="46">
         <v>0</v>
       </c>
-      <c r="I100" s="49">
+      <c r="I100" s="46">
         <v>0</v>
       </c>
       <c r="K100" s="16">
         <v>6</v>
       </c>
-      <c r="L100" s="47">
+      <c r="L100" s="44">
         <v>0</v>
       </c>
-      <c r="M100" s="47">
+      <c r="M100" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="7:13">
-      <c r="G101" s="47">
+      <c r="G101" s="44">
         <v>7</v>
       </c>
-      <c r="H101" s="49">
+      <c r="H101" s="46">
         <v>2</v>
       </c>
-      <c r="I101" s="49">
+      <c r="I101" s="46">
         <v>0</v>
       </c>
-      <c r="K101" s="47">
+      <c r="K101" s="44">
         <v>7</v>
       </c>
-      <c r="L101" s="47">
+      <c r="L101" s="44">
         <v>2</v>
       </c>
-      <c r="M101" s="47">
+      <c r="M101" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="7:13">
-      <c r="G102" s="47">
+      <c r="G102" s="44">
         <v>8</v>
       </c>
-      <c r="H102" s="49">
+      <c r="H102" s="46">
         <v>4</v>
       </c>
-      <c r="I102" s="49">
+      <c r="I102" s="46">
         <v>0</v>
       </c>
-      <c r="K102" s="47">
+      <c r="K102" s="44">
         <v>8</v>
       </c>
-      <c r="L102" s="47">
+      <c r="L102" s="44">
         <v>4</v>
       </c>
-      <c r="M102" s="47">
+      <c r="M102" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10558,49 +11368,49 @@
     </row>
     <row r="106" spans="7:13">
       <c r="G106" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="K106" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="7:13" ht="90">
-      <c r="G109" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I109" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K109" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L109" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M109" s="48" t="s">
-        <v>447</v>
+      <c r="G109" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I109" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K109" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L109" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M109" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="7:13">
-      <c r="G110" s="47">
+      <c r="G110" s="44">
         <v>0</v>
       </c>
-      <c r="H110" s="47">
+      <c r="H110" s="44">
         <v>6</v>
       </c>
-      <c r="I110" s="47">
+      <c r="I110" s="44">
         <v>5</v>
       </c>
-      <c r="K110" s="47">
+      <c r="K110" s="44">
         <v>0</v>
       </c>
-      <c r="L110" s="47">
+      <c r="L110" s="44">
         <v>6</v>
       </c>
-      <c r="M110" s="47">
+      <c r="M110" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10608,19 +11418,19 @@
       <c r="G111" s="16">
         <v>1</v>
       </c>
-      <c r="H111" s="47">
+      <c r="H111" s="44">
         <v>2</v>
       </c>
-      <c r="I111" s="47">
+      <c r="I111" s="44">
         <v>5</v>
       </c>
       <c r="K111" s="16">
         <v>1</v>
       </c>
-      <c r="L111" s="47">
+      <c r="L111" s="44">
         <v>2</v>
       </c>
-      <c r="M111" s="47">
+      <c r="M111" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10628,19 +11438,19 @@
       <c r="G112" s="16">
         <v>2</v>
       </c>
-      <c r="H112" s="47">
+      <c r="H112" s="44">
         <v>4</v>
       </c>
-      <c r="I112" s="47">
+      <c r="I112" s="44">
         <v>3</v>
       </c>
       <c r="K112" s="16">
         <v>2</v>
       </c>
-      <c r="L112" s="47">
+      <c r="L112" s="44">
         <v>4</v>
       </c>
-      <c r="M112" s="47">
+      <c r="M112" s="44">
         <v>3</v>
       </c>
     </row>
@@ -10648,19 +11458,19 @@
       <c r="G113" s="16">
         <v>3</v>
       </c>
-      <c r="H113" s="47">
+      <c r="H113" s="44">
         <v>6</v>
       </c>
-      <c r="I113" s="47">
+      <c r="I113" s="44">
         <v>2</v>
       </c>
       <c r="K113" s="16">
         <v>3</v>
       </c>
-      <c r="L113" s="47">
+      <c r="L113" s="44">
         <v>6</v>
       </c>
-      <c r="M113" s="47">
+      <c r="M113" s="44">
         <v>2</v>
       </c>
     </row>
@@ -10668,19 +11478,19 @@
       <c r="G114" s="16">
         <v>4</v>
       </c>
-      <c r="H114" s="47">
+      <c r="H114" s="44">
         <v>2</v>
       </c>
-      <c r="I114" s="47">
+      <c r="I114" s="44">
         <v>7</v>
       </c>
       <c r="K114" s="16">
         <v>4</v>
       </c>
-      <c r="L114" s="47">
+      <c r="L114" s="44">
         <v>2</v>
       </c>
-      <c r="M114" s="47">
+      <c r="M114" s="44">
         <v>7</v>
       </c>
     </row>
@@ -10688,19 +11498,19 @@
       <c r="G115" s="16">
         <v>5</v>
       </c>
-      <c r="H115" s="47">
+      <c r="H115" s="44">
         <v>8</v>
       </c>
-      <c r="I115" s="47">
+      <c r="I115" s="44">
         <v>6</v>
       </c>
       <c r="K115" s="16">
         <v>5</v>
       </c>
-      <c r="L115" s="47">
+      <c r="L115" s="44">
         <v>8</v>
       </c>
-      <c r="M115" s="49">
+      <c r="M115" s="46">
         <v>6</v>
       </c>
     </row>
@@ -10708,59 +11518,59 @@
       <c r="G116" s="16">
         <v>6</v>
       </c>
-      <c r="H116" s="49">
+      <c r="H116" s="46">
         <v>0</v>
       </c>
-      <c r="I116" s="49">
+      <c r="I116" s="46">
         <v>0</v>
       </c>
       <c r="K116" s="16">
         <v>6</v>
       </c>
-      <c r="L116" s="47">
+      <c r="L116" s="44">
         <v>0</v>
       </c>
-      <c r="M116" s="47">
+      <c r="M116" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="7:13">
-      <c r="G117" s="47">
+      <c r="G117" s="44">
         <v>7</v>
       </c>
-      <c r="H117" s="49">
+      <c r="H117" s="46">
         <v>2</v>
       </c>
-      <c r="I117" s="49">
+      <c r="I117" s="46">
         <v>0</v>
       </c>
-      <c r="K117" s="47">
+      <c r="K117" s="44">
         <v>7</v>
       </c>
-      <c r="L117" s="47">
+      <c r="L117" s="44">
         <v>2</v>
       </c>
-      <c r="M117" s="47">
+      <c r="M117" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="7:13">
-      <c r="G118" s="47">
+      <c r="G118" s="44">
         <v>8</v>
       </c>
-      <c r="H118" s="49">
+      <c r="H118" s="46">
         <v>4</v>
       </c>
-      <c r="I118" s="49">
+      <c r="I118" s="46">
         <v>0</v>
       </c>
-      <c r="K118" s="47">
+      <c r="K118" s="44">
         <v>8</v>
       </c>
-      <c r="L118" s="47">
+      <c r="L118" s="44">
         <v>4</v>
       </c>
-      <c r="M118" s="47">
+      <c r="M118" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10776,49 +11586,49 @@
     </row>
     <row r="121" spans="7:13">
       <c r="G121" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K121" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="7:13" ht="90">
-      <c r="G124" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H124" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I124" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K124" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L124" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M124" s="48" t="s">
-        <v>447</v>
+      <c r="G124" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H124" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I124" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K124" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L124" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M124" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="7:13">
-      <c r="G125" s="47">
+      <c r="G125" s="44">
         <v>0</v>
       </c>
-      <c r="H125" s="47">
+      <c r="H125" s="44">
         <v>6</v>
       </c>
-      <c r="I125" s="47">
+      <c r="I125" s="44">
         <v>5</v>
       </c>
-      <c r="K125" s="47">
+      <c r="K125" s="44">
         <v>0</v>
       </c>
-      <c r="L125" s="47">
+      <c r="L125" s="44">
         <v>6</v>
       </c>
-      <c r="M125" s="47">
+      <c r="M125" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10826,19 +11636,19 @@
       <c r="G126" s="16">
         <v>1</v>
       </c>
-      <c r="H126" s="47">
+      <c r="H126" s="44">
         <v>2</v>
       </c>
-      <c r="I126" s="47">
+      <c r="I126" s="44">
         <v>5</v>
       </c>
       <c r="K126" s="16">
         <v>1</v>
       </c>
-      <c r="L126" s="47">
+      <c r="L126" s="44">
         <v>2</v>
       </c>
-      <c r="M126" s="47">
+      <c r="M126" s="44">
         <v>5</v>
       </c>
     </row>
@@ -10846,19 +11656,19 @@
       <c r="G127" s="16">
         <v>2</v>
       </c>
-      <c r="H127" s="47">
+      <c r="H127" s="44">
         <v>4</v>
       </c>
-      <c r="I127" s="47">
+      <c r="I127" s="44">
         <v>3</v>
       </c>
       <c r="K127" s="16">
         <v>2</v>
       </c>
-      <c r="L127" s="47">
+      <c r="L127" s="44">
         <v>4</v>
       </c>
-      <c r="M127" s="47">
+      <c r="M127" s="44">
         <v>3</v>
       </c>
     </row>
@@ -10866,19 +11676,19 @@
       <c r="G128" s="16">
         <v>3</v>
       </c>
-      <c r="H128" s="47">
+      <c r="H128" s="44">
         <v>6</v>
       </c>
-      <c r="I128" s="47">
+      <c r="I128" s="44">
         <v>2</v>
       </c>
       <c r="K128" s="16">
         <v>3</v>
       </c>
-      <c r="L128" s="47">
+      <c r="L128" s="44">
         <v>6</v>
       </c>
-      <c r="M128" s="47">
+      <c r="M128" s="44">
         <v>2</v>
       </c>
     </row>
@@ -10886,19 +11696,19 @@
       <c r="G129" s="16">
         <v>4</v>
       </c>
-      <c r="H129" s="47">
+      <c r="H129" s="44">
         <v>2</v>
       </c>
-      <c r="I129" s="47">
+      <c r="I129" s="44">
         <v>7</v>
       </c>
       <c r="K129" s="16">
         <v>4</v>
       </c>
-      <c r="L129" s="47">
+      <c r="L129" s="44">
         <v>2</v>
       </c>
-      <c r="M129" s="47">
+      <c r="M129" s="44">
         <v>7</v>
       </c>
     </row>
@@ -10906,19 +11716,19 @@
       <c r="G130" s="16">
         <v>5</v>
       </c>
-      <c r="H130" s="47">
+      <c r="H130" s="44">
         <v>8</v>
       </c>
-      <c r="I130" s="47">
+      <c r="I130" s="44">
         <v>6</v>
       </c>
       <c r="K130" s="16">
         <v>5</v>
       </c>
-      <c r="L130" s="47">
+      <c r="L130" s="44">
         <v>8</v>
       </c>
-      <c r="M130" s="47">
+      <c r="M130" s="44">
         <v>6</v>
       </c>
     </row>
@@ -10926,59 +11736,59 @@
       <c r="G131" s="16">
         <v>6</v>
       </c>
-      <c r="H131" s="47">
+      <c r="H131" s="44">
         <v>0</v>
       </c>
-      <c r="I131" s="47">
+      <c r="I131" s="44">
         <v>0</v>
       </c>
       <c r="K131" s="16">
         <v>6</v>
       </c>
-      <c r="L131" s="47">
+      <c r="L131" s="44">
         <v>0</v>
       </c>
-      <c r="M131" s="49">
+      <c r="M131" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="7:13">
-      <c r="G132" s="47">
+      <c r="G132" s="44">
         <v>7</v>
       </c>
-      <c r="H132" s="49">
+      <c r="H132" s="46">
         <v>2</v>
       </c>
-      <c r="I132" s="49">
+      <c r="I132" s="46">
         <v>0</v>
       </c>
-      <c r="K132" s="47">
+      <c r="K132" s="44">
         <v>7</v>
       </c>
-      <c r="L132" s="47">
+      <c r="L132" s="44">
         <v>2</v>
       </c>
-      <c r="M132" s="47">
+      <c r="M132" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="7:13">
-      <c r="G133" s="47">
+      <c r="G133" s="44">
         <v>8</v>
       </c>
-      <c r="H133" s="49">
+      <c r="H133" s="46">
         <v>4</v>
       </c>
-      <c r="I133" s="49">
+      <c r="I133" s="46">
         <v>0</v>
       </c>
-      <c r="K133" s="47">
+      <c r="K133" s="44">
         <v>8</v>
       </c>
-      <c r="L133" s="47">
+      <c r="L133" s="44">
         <v>4</v>
       </c>
-      <c r="M133" s="47">
+      <c r="M133" s="44">
         <v>0</v>
       </c>
     </row>
@@ -10994,49 +11804,49 @@
     </row>
     <row r="137" spans="7:13">
       <c r="G137" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K137" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="7:13" ht="90">
-      <c r="G140" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H140" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I140" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K140" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L140" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M140" s="48" t="s">
-        <v>447</v>
+      <c r="G140" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H140" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I140" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K140" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L140" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M140" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="7:13">
-      <c r="G141" s="47">
+      <c r="G141" s="44">
         <v>0</v>
       </c>
-      <c r="H141" s="47">
+      <c r="H141" s="44">
         <v>6</v>
       </c>
-      <c r="I141" s="47">
+      <c r="I141" s="44">
         <v>5</v>
       </c>
-      <c r="K141" s="47">
+      <c r="K141" s="44">
         <v>0</v>
       </c>
-      <c r="L141" s="47">
+      <c r="L141" s="44">
         <v>6</v>
       </c>
-      <c r="M141" s="47">
+      <c r="M141" s="44">
         <v>5</v>
       </c>
     </row>
@@ -11044,19 +11854,19 @@
       <c r="G142" s="16">
         <v>1</v>
       </c>
-      <c r="H142" s="47">
+      <c r="H142" s="44">
         <v>2</v>
       </c>
-      <c r="I142" s="47">
+      <c r="I142" s="44">
         <v>5</v>
       </c>
       <c r="K142" s="16">
         <v>1</v>
       </c>
-      <c r="L142" s="47">
+      <c r="L142" s="44">
         <v>2</v>
       </c>
-      <c r="M142" s="47">
+      <c r="M142" s="44">
         <v>5</v>
       </c>
     </row>
@@ -11064,19 +11874,19 @@
       <c r="G143" s="16">
         <v>2</v>
       </c>
-      <c r="H143" s="47">
+      <c r="H143" s="44">
         <v>4</v>
       </c>
-      <c r="I143" s="47">
+      <c r="I143" s="44">
         <v>3</v>
       </c>
       <c r="K143" s="16">
         <v>2</v>
       </c>
-      <c r="L143" s="47">
+      <c r="L143" s="44">
         <v>4</v>
       </c>
-      <c r="M143" s="47">
+      <c r="M143" s="44">
         <v>3</v>
       </c>
     </row>
@@ -11084,19 +11894,19 @@
       <c r="G144" s="16">
         <v>3</v>
       </c>
-      <c r="H144" s="47">
+      <c r="H144" s="44">
         <v>6</v>
       </c>
-      <c r="I144" s="47">
+      <c r="I144" s="44">
         <v>2</v>
       </c>
       <c r="K144" s="16">
         <v>3</v>
       </c>
-      <c r="L144" s="47">
+      <c r="L144" s="44">
         <v>6</v>
       </c>
-      <c r="M144" s="47">
+      <c r="M144" s="44">
         <v>2</v>
       </c>
     </row>
@@ -11104,19 +11914,19 @@
       <c r="G145" s="16">
         <v>4</v>
       </c>
-      <c r="H145" s="47">
+      <c r="H145" s="44">
         <v>2</v>
       </c>
-      <c r="I145" s="47">
+      <c r="I145" s="44">
         <v>7</v>
       </c>
       <c r="K145" s="16">
         <v>4</v>
       </c>
-      <c r="L145" s="47">
+      <c r="L145" s="44">
         <v>2</v>
       </c>
-      <c r="M145" s="47">
+      <c r="M145" s="44">
         <v>7</v>
       </c>
     </row>
@@ -11124,19 +11934,19 @@
       <c r="G146" s="16">
         <v>5</v>
       </c>
-      <c r="H146" s="47">
+      <c r="H146" s="44">
         <v>8</v>
       </c>
-      <c r="I146" s="47">
+      <c r="I146" s="44">
         <v>6</v>
       </c>
       <c r="K146" s="16">
         <v>5</v>
       </c>
-      <c r="L146" s="47">
+      <c r="L146" s="44">
         <v>8</v>
       </c>
-      <c r="M146" s="47">
+      <c r="M146" s="44">
         <v>6</v>
       </c>
     </row>
@@ -11144,59 +11954,59 @@
       <c r="G147" s="16">
         <v>6</v>
       </c>
-      <c r="H147" s="47">
+      <c r="H147" s="44">
         <v>0</v>
       </c>
-      <c r="I147" s="47">
+      <c r="I147" s="44">
         <v>0</v>
       </c>
       <c r="K147" s="16">
         <v>6</v>
       </c>
-      <c r="L147" s="47">
+      <c r="L147" s="44">
         <v>0</v>
       </c>
-      <c r="M147" s="47">
+      <c r="M147" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="7:13">
-      <c r="G148" s="47">
+      <c r="G148" s="44">
         <v>7</v>
       </c>
-      <c r="H148" s="47">
+      <c r="H148" s="44">
         <v>2</v>
       </c>
-      <c r="I148" s="47">
+      <c r="I148" s="44">
         <v>0</v>
       </c>
-      <c r="K148" s="47">
+      <c r="K148" s="44">
         <v>7</v>
       </c>
-      <c r="L148" s="47">
+      <c r="L148" s="44">
         <v>2</v>
       </c>
-      <c r="M148" s="49">
+      <c r="M148" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="7:13">
-      <c r="G149" s="47">
+      <c r="G149" s="44">
         <v>8</v>
       </c>
-      <c r="H149" s="49">
+      <c r="H149" s="46">
         <v>4</v>
       </c>
-      <c r="I149" s="49">
+      <c r="I149" s="46">
         <v>0</v>
       </c>
-      <c r="K149" s="47">
+      <c r="K149" s="44">
         <v>8</v>
       </c>
-      <c r="L149" s="47">
+      <c r="L149" s="44">
         <v>4</v>
       </c>
-      <c r="M149" s="47">
+      <c r="M149" s="44">
         <v>0</v>
       </c>
     </row>
@@ -11212,49 +12022,49 @@
     </row>
     <row r="153" spans="7:13">
       <c r="G153" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="K153" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="7:13" ht="90">
-      <c r="G156" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="H156" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I156" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K156" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="L156" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="M156" s="48" t="s">
-        <v>447</v>
+      <c r="G156" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H156" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I156" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="K156" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="L156" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="M156" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="7:13">
-      <c r="G157" s="47">
+      <c r="G157" s="44">
         <v>0</v>
       </c>
-      <c r="H157" s="47">
+      <c r="H157" s="44">
         <v>6</v>
       </c>
-      <c r="I157" s="47">
+      <c r="I157" s="44">
         <v>5</v>
       </c>
-      <c r="K157" s="47">
+      <c r="K157" s="44">
         <v>0</v>
       </c>
-      <c r="L157" s="47">
+      <c r="L157" s="44">
         <v>6</v>
       </c>
-      <c r="M157" s="47">
+      <c r="M157" s="44">
         <v>5</v>
       </c>
     </row>
@@ -11262,19 +12072,19 @@
       <c r="G158" s="16">
         <v>1</v>
       </c>
-      <c r="H158" s="47">
+      <c r="H158" s="44">
         <v>2</v>
       </c>
-      <c r="I158" s="47">
+      <c r="I158" s="44">
         <v>5</v>
       </c>
       <c r="K158" s="16">
         <v>1</v>
       </c>
-      <c r="L158" s="47">
+      <c r="L158" s="44">
         <v>2</v>
       </c>
-      <c r="M158" s="47">
+      <c r="M158" s="44">
         <v>5</v>
       </c>
     </row>
@@ -11282,19 +12092,19 @@
       <c r="G159" s="16">
         <v>2</v>
       </c>
-      <c r="H159" s="47">
+      <c r="H159" s="44">
         <v>4</v>
       </c>
-      <c r="I159" s="47">
+      <c r="I159" s="44">
         <v>3</v>
       </c>
       <c r="K159" s="16">
         <v>2</v>
       </c>
-      <c r="L159" s="47">
+      <c r="L159" s="44">
         <v>4</v>
       </c>
-      <c r="M159" s="47">
+      <c r="M159" s="44">
         <v>3</v>
       </c>
     </row>
@@ -11302,19 +12112,19 @@
       <c r="G160" s="16">
         <v>3</v>
       </c>
-      <c r="H160" s="47">
+      <c r="H160" s="44">
         <v>6</v>
       </c>
-      <c r="I160" s="47">
+      <c r="I160" s="44">
         <v>2</v>
       </c>
       <c r="K160" s="16">
         <v>3</v>
       </c>
-      <c r="L160" s="47">
+      <c r="L160" s="44">
         <v>6</v>
       </c>
-      <c r="M160" s="47">
+      <c r="M160" s="44">
         <v>2</v>
       </c>
     </row>
@@ -11322,19 +12132,19 @@
       <c r="G161" s="16">
         <v>4</v>
       </c>
-      <c r="H161" s="47">
+      <c r="H161" s="44">
         <v>2</v>
       </c>
-      <c r="I161" s="47">
+      <c r="I161" s="44">
         <v>7</v>
       </c>
       <c r="K161" s="16">
         <v>4</v>
       </c>
-      <c r="L161" s="47">
+      <c r="L161" s="44">
         <v>2</v>
       </c>
-      <c r="M161" s="47">
+      <c r="M161" s="44">
         <v>7</v>
       </c>
     </row>
@@ -11342,19 +12152,19 @@
       <c r="G162" s="16">
         <v>5</v>
       </c>
-      <c r="H162" s="47">
+      <c r="H162" s="44">
         <v>8</v>
       </c>
-      <c r="I162" s="47">
+      <c r="I162" s="44">
         <v>6</v>
       </c>
       <c r="K162" s="16">
         <v>5</v>
       </c>
-      <c r="L162" s="47">
+      <c r="L162" s="44">
         <v>8</v>
       </c>
-      <c r="M162" s="47">
+      <c r="M162" s="44">
         <v>6</v>
       </c>
     </row>
@@ -11362,65 +12172,65 @@
       <c r="G163" s="16">
         <v>6</v>
       </c>
-      <c r="H163" s="47">
+      <c r="H163" s="44">
         <v>0</v>
       </c>
-      <c r="I163" s="47">
+      <c r="I163" s="44">
         <v>0</v>
       </c>
       <c r="K163" s="16">
         <v>6</v>
       </c>
-      <c r="L163" s="47">
+      <c r="L163" s="44">
         <v>0</v>
       </c>
-      <c r="M163" s="47">
+      <c r="M163" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="7:13">
-      <c r="G164" s="47">
+      <c r="G164" s="44">
         <v>7</v>
       </c>
-      <c r="H164" s="47">
+      <c r="H164" s="44">
         <v>2</v>
       </c>
-      <c r="I164" s="47">
+      <c r="I164" s="44">
         <v>0</v>
       </c>
-      <c r="K164" s="47">
+      <c r="K164" s="44">
         <v>7</v>
       </c>
-      <c r="L164" s="47">
+      <c r="L164" s="44">
         <v>2</v>
       </c>
-      <c r="M164" s="47">
+      <c r="M164" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="7:13">
-      <c r="G165" s="47">
+      <c r="G165" s="44">
         <v>8</v>
       </c>
-      <c r="H165" s="47">
+      <c r="H165" s="44">
         <v>4</v>
       </c>
-      <c r="I165" s="47">
+      <c r="I165" s="44">
         <v>0</v>
       </c>
-      <c r="K165" s="47">
+      <c r="K165" s="44">
         <v>8</v>
       </c>
-      <c r="L165" s="47">
+      <c r="L165" s="44">
         <v>4</v>
       </c>
-      <c r="M165" s="49">
+      <c r="M165" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="7:13">
       <c r="H166" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L166">
         <f>M165</f>
@@ -11429,97 +12239,97 @@
     </row>
     <row r="169" spans="7:13">
       <c r="G169" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="7:13">
       <c r="G170" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="7:13">
       <c r="G171" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="7:13">
       <c r="G172" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="7:13">
       <c r="G173" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="7:13">
       <c r="G174" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="7:13">
       <c r="G175" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="7:13">
       <c r="G176" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="7:7">
       <c r="G178" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="7:7">
       <c r="G179" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" spans="7:7">
       <c r="G180" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="7:7">
       <c r="G181" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="7:7">
       <c r="G182" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="7:7">
       <c r="G183" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="7:7">
       <c r="G184" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="7:7">
       <c r="G185" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="7:7">
       <c r="G186" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="7:7">
       <c r="G187" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="7:7">
       <c r="G188" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -11533,7 +12343,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -11672,10 +12482,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA61F8-64F4-46E2-A988-903E2EDF090B}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -11685,12 +12495,24 @@
     <col min="6" max="6" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="H2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2" t="str">
+        <f>A1</f>
+        <v>culc_target_covariates_mst</v>
+      </c>
+      <c r="J2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="16" t="s">
         <v>178</v>
       </c>
@@ -11705,7 +12527,7 @@
         <v xml:space="preserve">insert into  culc_target_covariates_mst (tbl_id,culc_target_code,covariates_code)  values </v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="C4" s="31" t="s">
         <v>330</v>
       </c>
@@ -11718,7 +12540,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="C5" s="16">
         <v>1</v>
       </c>
@@ -11732,14 +12554,14 @@
         <v>331</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H5" t="str">
         <f>"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
         <v>('1','CT0001','C00001'),</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="C6" s="16">
         <v>2</v>
       </c>
@@ -11754,32 +12576,30 @@
         <v>349</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H16" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <f t="shared" ref="H6:H17" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
         <v>('2','CT0001','C00002'),</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="C7" s="16">
         <v>3</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>335</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>408</v>
+        <v>228</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>('3','CT0101','C00003'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>('3','CT0001','C00004'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8" s="16">
         <v>4</v>
       </c>
@@ -11787,39 +12607,39 @@
         <v>338</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>335</v>
+      </c>
       <c r="G8" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>('4','CT0101','C00002'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>('4','CT0101','C00003'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="C9" s="16">
         <v>5</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>339</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>('5','CT0102','C00003'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>('5','CT0101','C00002'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="C10" s="16">
         <v>6</v>
       </c>
@@ -11827,39 +12647,39 @@
         <v>337</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="G10" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>('6','CT0102','C00002'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>('6','CT0102','C00003'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" s="16">
         <v>7</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>332</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>('7','CT0201','C00003'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>('7','CT0102','C00002'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" s="16">
         <v>8</v>
       </c>
@@ -11867,39 +12687,39 @@
         <v>342</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>332</v>
+      </c>
       <c r="G12" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>('8','CT0201','C00002'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>('8','CT0201','C00003'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13" s="16">
         <v>9</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>333</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>('9','CT0202','C00003'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>('9','CT0201','C00002'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="C14" s="16">
         <v>10</v>
       </c>
@@ -11907,39 +12727,39 @@
         <v>340</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>333</v>
+      </c>
       <c r="G14" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>('10','CT0202','C00002'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>('10','CT0202','C00003'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="C15" s="16">
         <v>11</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>334</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>('11','CT0203','C00003'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>('11','CT0202','C00002'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="C16" s="16">
         <v>12</v>
       </c>
@@ -11947,15 +12767,36 @@
         <v>341</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="G16" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>('12','CT0203','C00002'),</v>
+        <v>('12','CT0203','C00003'),</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="16">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" t="str">
+        <f>"('"&amp;C17&amp;"','"&amp;D17 &amp;"','"&amp;E17 &amp;"');"</f>
+        <v>('13','CT0203','C00002');</v>
       </c>
     </row>
   </sheetData>
@@ -11967,26 +12808,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817C2BF-C122-4805-9AB8-63353105C416}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="16.09765625" customWidth="1"/>
     <col min="4" max="4" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36">
+    <row r="1" spans="1:10" ht="36">
       <c r="A1" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="B4" s="16" t="s">
         <v>178</v>
       </c>
@@ -12000,17 +12843,20 @@
         <v>294</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I4" t="str">
-        <f>"insert into  "&amp;A1&amp;" (tbl_id,covariates_code,covariates_name,covariates_type,range_start,range_end)  values "</f>
-        <v xml:space="preserve">insert into  covariates_mst (tbl_id,covariates_code,covariates_name,covariates_type,range_start,range_end)  values </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="str">
+        <f>"insert into  "&amp;A1&amp;" (tbl_id,covariates_code,covariates_name,covariates_type,covariates_prop,range_start,range_end)  values "</f>
+        <v xml:space="preserve">insert into  covariates_mst (tbl_id,covariates_code,covariates_name,covariates_type,covariates_prop,range_start,range_end)  values </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="31" t="s">
         <v>330</v>
       </c>
@@ -12024,21 +12870,24 @@
         <v>293</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
@@ -12047,14 +12896,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>39</v>
       </c>
-      <c r="I6" t="str">
-        <f>"('"&amp;B6&amp;"','"&amp;C6 &amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"','"&amp;F6 &amp;"','"&amp;G6 &amp;"'),"</f>
-        <v>('1','C00001','経過年数','2','0','39'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="str">
+        <f>"('"&amp;B6&amp;"','"&amp;C6 &amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"','"&amp;F6 &amp;"','"&amp;G6 &amp;"','"&amp;H6 &amp;"'),"</f>
+        <v>('1','C00001','経過年数','2','0','0','39'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -12068,25 +12920,28 @@
         <v>0</v>
       </c>
       <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" ref="I7:I8" si="0">"('"&amp;B7&amp;"','"&amp;C7 &amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"','"&amp;F7 &amp;"','"&amp;G7 &amp;"'),"</f>
-        <v>('2','C00002','性別','0','0','1'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J9" si="0">"('"&amp;B7&amp;"','"&amp;C7 &amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"','"&amp;F7 &amp;"','"&amp;G7 &amp;"','"&amp;H7 &amp;"'),"</f>
+        <v>('2','C00002','性別','0','1','0','1'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="E8" s="16">
         <v>2</v>
@@ -12095,61 +12950,87 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>479</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>('3','C00003','経過月数','2','0','479'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>('3','C00003','経過月数','2','0','0','479'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"('"&amp;B9&amp;"','"&amp;C9 &amp;"','"&amp;D9 &amp;"','"&amp;E9 &amp;"','"&amp;F9 &amp;"','"&amp;G9 &amp;"','"&amp;H9 &amp;"');"</f>
+        <v>('4','C00004','顧客ID','1','2','0','-1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049F70B-635F-4B01-AA57-12C5B3C572F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F4FCC-B182-4B97-90FD-8D01D0D93021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -2336,10 +2336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0:顧客起因、1:自社起因、2:個人起因</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在籍状態</t>
     <rPh sb="0" eb="2">
       <t>ザイセキ</t>
@@ -3975,6 +3971,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:顧客起因、1:自社起因、2:個人起因、3:個人起因(退職)</t>
+    <rPh sb="28" eb="30">
+      <t>タイショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4379,6 +4382,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4388,8 +4393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4696,19 +4699,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -5702,7 +5705,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54">
       <c r="A1" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5710,27 +5713,27 @@
         <v>178</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G4" t="str">
         <f>"insert into  "&amp;A1 &amp;" (tbl_id,covariates_code,covariates_label_num,covariates_label_name)  values "</f>
@@ -5742,16 +5745,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G5" t="str">
-        <f>"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
+        <f t="shared" ref="G5:G46" si="0">"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
         <v>('1','C00001','0','1年未満'),</v>
       </c>
     </row>
@@ -5760,16 +5763,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G6" t="str">
-        <f>"('"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('2','C00001','1','2年未満'),</v>
       </c>
     </row>
@@ -5778,16 +5781,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" t="str">
-        <f>"('"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('3','C00001','2','3年未満'),</v>
       </c>
     </row>
@@ -5796,16 +5799,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D8" s="16">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G8" t="str">
-        <f>"('"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8 &amp;"','"&amp;E8 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('4','C00001','3','4年未満'),</v>
       </c>
     </row>
@@ -5814,16 +5817,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D9" s="16">
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G9" t="str">
-        <f>"('"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;D9 &amp;"','"&amp;E9 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('5','C00001','4','5年未満'),</v>
       </c>
       <c r="H9" s="16"/>
@@ -5834,16 +5837,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="16">
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" t="str">
-        <f>"('"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;D10 &amp;"','"&amp;E10 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('6','C00001','5','6年未満'),</v>
       </c>
     </row>
@@ -5852,16 +5855,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D11" s="16">
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" t="str">
-        <f>"('"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;D11 &amp;"','"&amp;E11 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('7','C00001','6','7年未満'),</v>
       </c>
     </row>
@@ -5870,16 +5873,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12" s="16">
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" t="str">
-        <f>"('"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;D12 &amp;"','"&amp;E12 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('8','C00001','7','8年未満'),</v>
       </c>
     </row>
@@ -5888,16 +5891,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D13" s="16">
         <v>8</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G13" t="str">
-        <f>"('"&amp;B13&amp;"','"&amp;C13&amp;"','"&amp;D13 &amp;"','"&amp;E13 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('9','C00001','8','9年未満'),</v>
       </c>
     </row>
@@ -5906,16 +5909,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" s="16">
         <v>9</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G14" t="str">
-        <f>"('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14 &amp;"','"&amp;E14 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('10','C00001','9','10年未満'),</v>
       </c>
     </row>
@@ -5924,16 +5927,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D15" s="16">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G15" t="str">
-        <f>"('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15 &amp;"','"&amp;E15 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('11','C00001','10','11年未満'),</v>
       </c>
     </row>
@@ -5942,16 +5945,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" s="16">
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" t="str">
-        <f>"('"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16 &amp;"','"&amp;E16 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('12','C00001','11','12年未満'),</v>
       </c>
     </row>
@@ -5960,16 +5963,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D17" s="16">
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G17" t="str">
-        <f>"('"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17 &amp;"','"&amp;E17 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('13','C00001','12','13年未満'),</v>
       </c>
     </row>
@@ -5978,16 +5981,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D18" s="16">
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G18" t="str">
-        <f>"('"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;D18 &amp;"','"&amp;E18 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('14','C00001','13','14年未満'),</v>
       </c>
     </row>
@@ -5996,16 +5999,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D19" s="16">
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G19" t="str">
-        <f>"('"&amp;B19&amp;"','"&amp;C19&amp;"','"&amp;D19 &amp;"','"&amp;E19 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('15','C00001','14','15年未満'),</v>
       </c>
     </row>
@@ -6014,16 +6017,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="16">
         <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G20" t="str">
-        <f>"('"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;D20 &amp;"','"&amp;E20 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('16','C00001','15','16年未満'),</v>
       </c>
     </row>
@@ -6032,16 +6035,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="16">
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G21" t="str">
-        <f>"('"&amp;B21&amp;"','"&amp;C21&amp;"','"&amp;D21 &amp;"','"&amp;E21 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('17','C00001','16','17年未満'),</v>
       </c>
     </row>
@@ -6050,16 +6053,16 @@
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D22" s="16">
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" t="str">
-        <f>"('"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;D22 &amp;"','"&amp;E22 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('18','C00001','17','18年未満'),</v>
       </c>
     </row>
@@ -6068,16 +6071,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D23" s="16">
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G23" t="str">
-        <f>"('"&amp;B23&amp;"','"&amp;C23&amp;"','"&amp;D23 &amp;"','"&amp;E23 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('19','C00001','18','19年未満'),</v>
       </c>
     </row>
@@ -6086,16 +6089,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" s="16">
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G24" t="str">
-        <f>"('"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;D24 &amp;"','"&amp;E24 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('20','C00001','19','20年未満'),</v>
       </c>
     </row>
@@ -6104,16 +6107,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" s="16">
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G25" t="str">
-        <f>"('"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;D25 &amp;"','"&amp;E25 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('21','C00001','20','21年未満'),</v>
       </c>
     </row>
@@ -6122,16 +6125,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="16">
         <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G26" t="str">
-        <f>"('"&amp;B26&amp;"','"&amp;C26&amp;"','"&amp;D26 &amp;"','"&amp;E26 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('22','C00001','21','22年未満'),</v>
       </c>
     </row>
@@ -6140,16 +6143,16 @@
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D27" s="16">
         <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G27" t="str">
-        <f>"('"&amp;B27&amp;"','"&amp;C27&amp;"','"&amp;D27 &amp;"','"&amp;E27 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('23','C00001','22','23年未満'),</v>
       </c>
     </row>
@@ -6158,16 +6161,16 @@
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D28" s="16">
         <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G28" t="str">
-        <f>"('"&amp;B28&amp;"','"&amp;C28&amp;"','"&amp;D28 &amp;"','"&amp;E28 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('24','C00001','23','24年未満'),</v>
       </c>
     </row>
@@ -6176,16 +6179,16 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D29" s="16">
         <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G29" t="str">
-        <f>"('"&amp;B29&amp;"','"&amp;C29&amp;"','"&amp;D29 &amp;"','"&amp;E29 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('25','C00001','24','25年未満'),</v>
       </c>
     </row>
@@ -6194,16 +6197,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D30" s="16">
         <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G30" t="str">
-        <f>"('"&amp;B30&amp;"','"&amp;C30&amp;"','"&amp;D30 &amp;"','"&amp;E30 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('26','C00001','25','26年未満'),</v>
       </c>
     </row>
@@ -6212,16 +6215,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="16">
         <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G31" t="str">
-        <f>"('"&amp;B31&amp;"','"&amp;C31&amp;"','"&amp;D31 &amp;"','"&amp;E31 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('27','C00001','26','27年未満'),</v>
       </c>
     </row>
@@ -6230,16 +6233,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D32" s="16">
         <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G32" t="str">
-        <f>"('"&amp;B32&amp;"','"&amp;C32&amp;"','"&amp;D32 &amp;"','"&amp;E32 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('28','C00001','27','28年未満'),</v>
       </c>
     </row>
@@ -6248,16 +6251,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D33" s="16">
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G33" t="str">
-        <f>"('"&amp;B33&amp;"','"&amp;C33&amp;"','"&amp;D33 &amp;"','"&amp;E33 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('29','C00001','28','29年未満'),</v>
       </c>
     </row>
@@ -6266,16 +6269,16 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D34" s="16">
         <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G34" t="str">
-        <f>"('"&amp;B34&amp;"','"&amp;C34&amp;"','"&amp;D34 &amp;"','"&amp;E34 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('30','C00001','29','30年未満'),</v>
       </c>
     </row>
@@ -6284,16 +6287,16 @@
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="16">
         <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G35" t="str">
-        <f>"('"&amp;B35&amp;"','"&amp;C35&amp;"','"&amp;D35 &amp;"','"&amp;E35 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('31','C00001','30','31年未満'),</v>
       </c>
     </row>
@@ -6302,16 +6305,16 @@
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="16">
         <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G36" t="str">
-        <f>"('"&amp;B36&amp;"','"&amp;C36&amp;"','"&amp;D36 &amp;"','"&amp;E36 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('32','C00001','31','32年未満'),</v>
       </c>
     </row>
@@ -6320,16 +6323,16 @@
         <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" s="16">
         <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G37" t="str">
-        <f>"('"&amp;B37&amp;"','"&amp;C37&amp;"','"&amp;D37 &amp;"','"&amp;E37 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('33','C00001','32','33年未満'),</v>
       </c>
     </row>
@@ -6338,16 +6341,16 @@
         <v>34</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="16">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G38" t="str">
-        <f>"('"&amp;B38&amp;"','"&amp;C38&amp;"','"&amp;D38 &amp;"','"&amp;E38 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('34','C00001','33','34年未満'),</v>
       </c>
     </row>
@@ -6356,16 +6359,16 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D39" s="16">
         <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G39" t="str">
-        <f>"('"&amp;B39&amp;"','"&amp;C39&amp;"','"&amp;D39 &amp;"','"&amp;E39 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('35','C00001','34','35年未満'),</v>
       </c>
     </row>
@@ -6374,16 +6377,16 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" s="16">
         <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40" t="str">
-        <f>"('"&amp;B40&amp;"','"&amp;C40&amp;"','"&amp;D40 &amp;"','"&amp;E40 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('36','C00001','35','36年未満'),</v>
       </c>
     </row>
@@ -6392,16 +6395,16 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D41" s="16">
         <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G41" t="str">
-        <f>"('"&amp;B41&amp;"','"&amp;C41&amp;"','"&amp;D41 &amp;"','"&amp;E41 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('37','C00001','36','37年未満'),</v>
       </c>
     </row>
@@ -6410,16 +6413,16 @@
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D42" s="16">
         <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G42" t="str">
-        <f>"('"&amp;B42&amp;"','"&amp;C42&amp;"','"&amp;D42 &amp;"','"&amp;E42 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('38','C00001','37','38年未満'),</v>
       </c>
     </row>
@@ -6428,16 +6431,16 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D43" s="16">
         <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G43" t="str">
-        <f>"('"&amp;B43&amp;"','"&amp;C43&amp;"','"&amp;D43 &amp;"','"&amp;E43 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('39','C00001','38','39年未満'),</v>
       </c>
     </row>
@@ -6446,16 +6449,16 @@
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D44" s="16">
         <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G44" t="str">
-        <f>"('"&amp;B44&amp;"','"&amp;C44&amp;"','"&amp;D44 &amp;"','"&amp;E44 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('40','C00001','39','40年未満'),</v>
       </c>
     </row>
@@ -6464,16 +6467,16 @@
         <v>41</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D45" s="16">
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G45" t="str">
-        <f>"('"&amp;B45&amp;"','"&amp;C45&amp;"','"&amp;D45 &amp;"','"&amp;E45 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('41','C00002','0','男性'),</v>
       </c>
     </row>
@@ -6482,16 +6485,16 @@
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="16">
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G46" t="str">
-        <f>"('"&amp;B46&amp;"','"&amp;C46&amp;"','"&amp;D46 &amp;"','"&amp;E46 &amp;"'),"</f>
+        <f t="shared" si="0"/>
         <v>('42','C00002','1','女性'),</v>
       </c>
     </row>
@@ -6512,28 +6515,28 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="2:2">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="48" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="51" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="48" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="51" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="48" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="51" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="48" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="51" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6546,25 +6549,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAF814C-DCCE-4582-A777-D1AE1F01D788}">
   <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6777,7 @@
         <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>119</v>
@@ -6815,7 +6818,7 @@
         <v>151</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>119</v>
@@ -6835,7 +6838,7 @@
         <v>151</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>119</v>
@@ -6844,7 +6847,7 @@
         <v>167</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="54">
@@ -6864,16 +6867,16 @@
         <v>166</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="69" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>119</v>
@@ -6884,10 +6887,10 @@
     <row r="19" spans="1:8" ht="69" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>119</v>
@@ -6898,10 +6901,10 @@
     <row r="20" spans="1:8" ht="69" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>119</v>
@@ -7072,8 +7075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="A4:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7082,7 +7085,7 @@
     <col min="3" max="3" width="26.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.09765625" customWidth="1"/>
     <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="29.796875" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
     <col min="8" max="8" width="17.296875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
@@ -7100,14 +7103,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="G5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H5" t="str">
         <f>C4</f>
         <v>member_hist_info</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7121,7 +7124,7 @@
         <v>202</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>215</v>
@@ -7387,14 +7390,14 @@
     </row>
     <row r="24" spans="1:9">
       <c r="G24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H24" t="str">
         <f>C23</f>
         <v>client_info</v>
       </c>
       <c r="I24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7408,7 +7411,7 @@
         <v>202</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>215</v>
@@ -7473,7 +7476,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7501,7 +7504,7 @@
         <v>202</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>215</v>
@@ -7627,7 +7630,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H42" t="str">
         <f>C42 &amp; " " &amp; D42 &amp; ");"</f>
@@ -7636,12 +7639,12 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7657,14 +7660,14 @@
     </row>
     <row r="51" spans="1:9">
       <c r="G51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H51" t="str">
         <f>C50</f>
         <v>project_member_num_info</v>
       </c>
       <c r="I51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7678,7 +7681,7 @@
         <v>202</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>215</v>
@@ -7726,10 +7729,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>188</v>
@@ -7760,12 +7763,12 @@
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="F59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7781,14 +7784,14 @@
     </row>
     <row r="64" spans="1:9">
       <c r="G64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H64" t="str">
         <f>C63</f>
         <v>project_enrolled_hist_info</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -7802,7 +7805,7 @@
         <v>202</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>215</v>
@@ -7833,10 +7836,10 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>217</v>
@@ -7918,10 +7921,10 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>188</v>
@@ -7952,10 +7955,10 @@
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>188</v>
@@ -7979,7 +7982,7 @@
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16" t="s">
-        <v>253</v>
+        <v>514</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
@@ -7988,17 +7991,17 @@
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>188</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H76" t="str">
         <f>C76 &amp; " " &amp; D76 &amp; ");"</f>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
@@ -8023,7 +8026,7 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
@@ -8032,7 +8035,7 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -8065,22 +8068,22 @@
         <v>6</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="G86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H86" t="str">
         <f>C85</f>
         <v>price_transition_info</v>
       </c>
       <c r="I86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8094,7 +8097,7 @@
         <v>202</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>215</v>
@@ -8142,10 +8145,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="B90" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>266</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>188</v>
@@ -8159,10 +8162,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="B91" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>217</v>
@@ -8176,10 +8179,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="B92" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>187</v>
@@ -8193,13 +8196,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="B93" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -8210,12 +8213,12 @@
     </row>
     <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8223,22 +8226,22 @@
         <v>7</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="G99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H99" t="str">
         <f>C98</f>
         <v>culc_target_mst</v>
       </c>
       <c r="I99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8252,7 +8255,7 @@
         <v>202</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>215</v>
@@ -8270,7 +8273,7 @@
         <v>178</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>38</v>
@@ -8283,10 +8286,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="B102" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>217</v>
@@ -8300,10 +8303,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="B103" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>217</v>
@@ -8324,7 +8327,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
@@ -8350,22 +8353,22 @@
         <v>8</v>
       </c>
       <c r="B108" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="G109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H109" t="str">
         <f>C108</f>
         <v>culc_target_covariates_mst</v>
       </c>
       <c r="I109" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8379,7 +8382,7 @@
         <v>202</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>215</v>
@@ -8397,7 +8400,7 @@
         <v>178</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>38</v>
@@ -8410,10 +8413,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="B112" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>217</v>
@@ -8427,10 +8430,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="B113" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>217</v>
@@ -8451,7 +8454,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="29"/>
@@ -8460,7 +8463,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
@@ -8479,22 +8482,22 @@
         <v>9</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="G119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H119" t="str">
         <f>C118</f>
         <v>covariates_mst</v>
       </c>
       <c r="I119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8508,7 +8511,7 @@
         <v>202</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>215</v>
@@ -8526,7 +8529,7 @@
         <v>178</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>38</v>
@@ -8539,10 +8542,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="B122" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>217</v>
@@ -8556,10 +8559,10 @@
     </row>
     <row r="123" spans="1:9">
       <c r="B123" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>217</v>
@@ -8573,17 +8576,17 @@
     </row>
     <row r="124" spans="1:9">
       <c r="B124" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>188</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="8"/>
@@ -8591,18 +8594,18 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="D125" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47" t="s">
         <v>491</v>
-      </c>
-      <c r="D125" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50" t="s">
-        <v>492</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125" si="9">C125 &amp; " " &amp; D125 &amp; ","</f>
@@ -8611,13 +8614,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="B126" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>296</v>
-      </c>
       <c r="D126" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
@@ -8628,13 +8631,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="B127" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D127" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>301</v>
       </c>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
@@ -8645,7 +8648,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="17.399999999999999" customHeight="1">
@@ -8653,22 +8656,22 @@
         <v>10</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="G132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H132" t="str">
         <f>C131</f>
         <v>covariates_label_mst</v>
       </c>
       <c r="I132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8682,7 +8685,7 @@
         <v>202</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F133" s="25" t="s">
         <v>215</v>
@@ -8700,7 +8703,7 @@
         <v>178</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>38</v>
@@ -8713,10 +8716,10 @@
     </row>
     <row r="135" spans="1:9">
       <c r="B135" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>217</v>
@@ -8730,13 +8733,13 @@
     </row>
     <row r="136" spans="1:9">
       <c r="B136" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
@@ -8747,10 +8750,10 @@
     </row>
     <row r="137" spans="1:9">
       <c r="B137" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>217</v>
@@ -8764,12 +8767,12 @@
     </row>
     <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8777,22 +8780,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="G143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H143" t="str">
         <f>C142</f>
         <v>covariates_effective_info</v>
       </c>
       <c r="I143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8806,7 +8809,7 @@
         <v>202</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F144" s="25" t="s">
         <v>215</v>
@@ -8818,10 +8821,10 @@
     </row>
     <row r="145" spans="1:9">
       <c r="B145" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>217</v>
@@ -8837,10 +8840,10 @@
     </row>
     <row r="146" spans="1:9">
       <c r="B146" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>217</v>
@@ -8856,13 +8859,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="B147" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
@@ -8873,10 +8876,10 @@
     </row>
     <row r="148" spans="1:9">
       <c r="B148" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>313</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>217</v>
@@ -8890,13 +8893,13 @@
     </row>
     <row r="149" spans="1:9">
       <c r="B149" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C149" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>307</v>
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
@@ -8907,25 +8910,25 @@
     </row>
     <row r="150" spans="1:9">
       <c r="G150" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8933,22 +8936,22 @@
         <v>12</v>
       </c>
       <c r="B155" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="G156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H156" t="str">
         <f>C155</f>
         <v>covariates_info</v>
       </c>
       <c r="I156" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8962,7 +8965,7 @@
         <v>202</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F157" s="25" t="s">
         <v>215</v>
@@ -8974,10 +8977,10 @@
     </row>
     <row r="158" spans="1:9">
       <c r="B158" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>217</v>
@@ -8993,10 +8996,10 @@
     </row>
     <row r="159" spans="1:9">
       <c r="B159" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>217</v>
@@ -9012,10 +9015,10 @@
     </row>
     <row r="160" spans="1:9" ht="21.6" customHeight="1">
       <c r="B160" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>188</v>
@@ -9031,13 +9034,13 @@
     </row>
     <row r="161" spans="1:9">
       <c r="B161" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
@@ -9048,10 +9051,10 @@
     </row>
     <row r="162" spans="1:9">
       <c r="B162" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C162" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>313</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>217</v>
@@ -9065,13 +9068,13 @@
     </row>
     <row r="163" spans="1:9">
       <c r="B163" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C163" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C163" s="16" t="s">
-        <v>316</v>
-      </c>
       <c r="D163" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
@@ -9082,30 +9085,30 @@
     </row>
     <row r="164" spans="1:9">
       <c r="G164" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17.399999999999999" customHeight="1">
@@ -9113,22 +9116,22 @@
         <v>10</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="G172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H172" t="str">
         <f>C171</f>
         <v>covariates_label_ralation_info</v>
       </c>
       <c r="I172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9142,7 +9145,7 @@
         <v>202</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F173" s="25" t="s">
         <v>215</v>
@@ -9173,10 +9176,10 @@
     </row>
     <row r="175" spans="1:9">
       <c r="B175" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>217</v>
@@ -9190,13 +9193,13 @@
     </row>
     <row r="176" spans="1:9">
       <c r="B176" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
@@ -9207,17 +9210,17 @@
     </row>
     <row r="177" spans="2:8">
       <c r="B177" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C177" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C177" s="16" t="s">
-        <v>501</v>
-      </c>
       <c r="D177" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E177" s="16"/>
       <c r="F177" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="13"/>
@@ -9226,10 +9229,10 @@
     </row>
     <row r="178" spans="2:8">
       <c r="B178" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C178" s="16" t="s">
         <v>498</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>499</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>217</v>
@@ -9243,10 +9246,10 @@
     </row>
     <row r="179" spans="2:8">
       <c r="B179" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D179" s="16" t="s">
         <v>217</v>
@@ -9260,17 +9263,17 @@
     </row>
     <row r="181" spans="2:8">
       <c r="B181" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="2:8">
       <c r="B182" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="2:8">
       <c r="B183" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -9284,7 +9287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960BBA9-6AD0-4C95-BBB5-CB08F6C2607E}">
   <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -9296,16 +9299,16 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="2:15">
       <c r="B4" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -9323,7 +9326,7 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -9341,7 +9344,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -9359,7 +9362,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -9377,7 +9380,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -9395,7 +9398,7 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -9413,7 +9416,7 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -9431,7 +9434,7 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -9449,7 +9452,7 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -9467,7 +9470,7 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -9485,7 +9488,7 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -9503,7 +9506,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -9537,10 +9540,10 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>425</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>426</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -9557,10 +9560,10 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -9577,7 +9580,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -9595,7 +9598,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -9613,7 +9616,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -9631,7 +9634,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -9667,7 +9670,7 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -9685,7 +9688,7 @@
     </row>
     <row r="25" spans="2:15" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -9703,12 +9706,12 @@
     </row>
     <row r="28" spans="2:15" ht="18.600000000000001" thickBot="1">
       <c r="B28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -9725,7 +9728,7 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -9742,7 +9745,7 @@
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -9776,7 +9779,7 @@
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -9793,7 +9796,7 @@
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -9810,7 +9813,7 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -9827,7 +9830,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -9844,7 +9847,7 @@
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -9861,7 +9864,7 @@
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -9878,7 +9881,7 @@
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -9895,7 +9898,7 @@
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -9927,10 +9930,10 @@
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>425</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>426</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -9946,10 +9949,10 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -9965,7 +9968,7 @@
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -10033,7 +10036,7 @@
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
@@ -10050,7 +10053,7 @@
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -10067,7 +10070,7 @@
     </row>
     <row r="50" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B50" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
@@ -10113,13 +10116,13 @@
     </row>
     <row r="5" spans="2:12" ht="54">
       <c r="G5" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H5" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>434</v>
       </c>
       <c r="L5" s="43"/>
     </row>
@@ -10128,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G6" s="44">
         <v>0</v>
@@ -10146,7 +10149,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -10164,7 +10167,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G8" s="16">
         <v>2</v>
@@ -10182,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G9" s="16">
         <v>3</v>
@@ -10200,7 +10203,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G10" s="16">
         <v>4</v>
@@ -10248,18 +10251,18 @@
     </row>
     <row r="17" spans="7:11">
       <c r="G17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="7:11" ht="54">
       <c r="G19" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H19" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I19" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="20" spans="7:11">
@@ -10358,30 +10361,30 @@
     </row>
     <row r="31" spans="7:11">
       <c r="G31" t="s">
+        <v>436</v>
+      </c>
+      <c r="K31" t="s">
         <v>437</v>
-      </c>
-      <c r="K31" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="33" spans="7:13" ht="90">
       <c r="G33" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H33" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I33" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="K33" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L33" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="34" spans="7:13">
@@ -10556,30 +10559,30 @@
     </row>
     <row r="46" spans="7:13">
       <c r="G46" t="s">
+        <v>438</v>
+      </c>
+      <c r="K46" t="s">
         <v>439</v>
-      </c>
-      <c r="K46" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="48" spans="7:13" ht="90">
       <c r="G48" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H48" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I48" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="K48" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K48" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L48" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M48" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="49" spans="7:13">
@@ -10754,30 +10757,30 @@
     </row>
     <row r="60" spans="7:13">
       <c r="G60" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" t="s">
         <v>441</v>
-      </c>
-      <c r="K60" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="62" spans="7:13" ht="90">
       <c r="G62" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H62" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I62" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="K62" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K62" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L62" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M62" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="63" spans="7:13">
@@ -10952,30 +10955,30 @@
     </row>
     <row r="74" spans="7:13">
       <c r="G74" t="s">
+        <v>442</v>
+      </c>
+      <c r="K74" t="s">
         <v>443</v>
-      </c>
-      <c r="K74" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="77" spans="7:13" ht="90">
       <c r="G77" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H77" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I77" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I77" s="45" t="s">
+      <c r="K77" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K77" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L77" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M77" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M77" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="78" spans="7:13">
@@ -11150,30 +11153,30 @@
     </row>
     <row r="90" spans="7:13">
       <c r="G90" t="s">
+        <v>444</v>
+      </c>
+      <c r="K90" t="s">
         <v>445</v>
-      </c>
-      <c r="K90" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="93" spans="7:13" ht="90">
       <c r="G93" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H93" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I93" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I93" s="45" t="s">
+      <c r="K93" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K93" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L93" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M93" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M93" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="94" spans="7:13">
@@ -11368,30 +11371,30 @@
     </row>
     <row r="106" spans="7:13">
       <c r="G106" t="s">
+        <v>446</v>
+      </c>
+      <c r="K106" t="s">
         <v>447</v>
-      </c>
-      <c r="K106" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="109" spans="7:13" ht="90">
       <c r="G109" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H109" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I109" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I109" s="45" t="s">
+      <c r="K109" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K109" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L109" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M109" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M109" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="110" spans="7:13">
@@ -11586,30 +11589,30 @@
     </row>
     <row r="121" spans="7:13">
       <c r="G121" t="s">
+        <v>448</v>
+      </c>
+      <c r="K121" t="s">
         <v>449</v>
-      </c>
-      <c r="K121" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="124" spans="7:13" ht="90">
       <c r="G124" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H124" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I124" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I124" s="45" t="s">
+      <c r="K124" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K124" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L124" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M124" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M124" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="125" spans="7:13">
@@ -11804,30 +11807,30 @@
     </row>
     <row r="137" spans="7:13">
       <c r="G137" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K137" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="7:13" ht="90">
       <c r="G140" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H140" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I140" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I140" s="45" t="s">
+      <c r="K140" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K140" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L140" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M140" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M140" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="141" spans="7:13">
@@ -12022,30 +12025,30 @@
     </row>
     <row r="153" spans="7:13">
       <c r="G153" t="s">
+        <v>470</v>
+      </c>
+      <c r="K153" t="s">
         <v>471</v>
-      </c>
-      <c r="K153" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="156" spans="7:13" ht="90">
       <c r="G156" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H156" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="I156" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I156" s="45" t="s">
+      <c r="K156" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="K156" s="42" t="s">
-        <v>435</v>
-      </c>
       <c r="L156" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="M156" s="45" t="s">
         <v>433</v>
-      </c>
-      <c r="M156" s="45" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="157" spans="7:13">
@@ -12230,7 +12233,7 @@
     </row>
     <row r="166" spans="7:13">
       <c r="H166" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L166">
         <f>M165</f>
@@ -12239,97 +12242,97 @@
     </row>
     <row r="169" spans="7:13">
       <c r="G169" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="7:13">
       <c r="G170" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="7:13">
       <c r="G171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="7:13">
       <c r="G172" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="7:13">
       <c r="G173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="7:13">
       <c r="G174" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="7:13">
       <c r="G175" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="7:13">
       <c r="G176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="7:7">
       <c r="G178" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="7:7">
       <c r="G179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="7:7">
       <c r="G180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="7:7">
       <c r="G181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="7:7">
       <c r="G182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="7:7">
       <c r="G183" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="7:7">
       <c r="G184" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="7:7">
       <c r="G185" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="7:7">
       <c r="G186" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="7:7">
       <c r="G187" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="7:7">
       <c r="G188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -12354,7 +12357,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36">
       <c r="A1" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12362,10 +12365,10 @@
         <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="G2" t="str">
         <f>"insert into  "&amp;A1&amp;" (tbl_id,culc_target_code,culc_target_name)  values "</f>
@@ -12374,13 +12377,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12388,10 +12391,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" t="str">
         <f>"('"&amp;C4&amp;"','"&amp;D4 &amp;"','"&amp;E4 &amp;"'),"</f>
@@ -12403,10 +12406,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G9" si="0">"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
@@ -12418,10 +12421,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -12433,10 +12436,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -12448,10 +12451,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -12463,10 +12466,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -12497,19 +12500,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="H2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I2" t="str">
         <f>A1</f>
         <v>culc_target_covariates_mst</v>
       </c>
       <c r="J2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12517,10 +12520,10 @@
         <v>178</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H3" t="str">
         <f>"insert into  "&amp;A1&amp;" (tbl_id,culc_target_code,covariates_code)  values "</f>
@@ -12529,13 +12532,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12545,16 +12548,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H5" t="str">
         <f>"('"&amp;C5&amp;"','"&amp;D5 &amp;"','"&amp;E5 &amp;"'),"</f>
@@ -12566,17 +12569,17 @@
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H17" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
+        <f t="shared" ref="H6:H16" si="0">"('"&amp;C6&amp;"','"&amp;D6 &amp;"','"&amp;E6 &amp;"'),"</f>
         <v>('2','CT0001','C00002'),</v>
       </c>
     </row>
@@ -12585,10 +12588,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
@@ -12604,16 +12607,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -12625,14 +12628,14 @@
         <v>5</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -12644,16 +12647,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -12665,14 +12668,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -12684,16 +12687,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -12705,14 +12708,14 @@
         <v>9</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -12724,16 +12727,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -12745,14 +12748,14 @@
         <v>11</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -12764,16 +12767,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -12785,14 +12788,14 @@
         <v>13</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H17" t="str">
         <f>"('"&amp;C17&amp;"','"&amp;D17 &amp;"','"&amp;E17 &amp;"');"</f>
@@ -12826,7 +12829,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36">
       <c r="A1" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12834,22 +12837,22 @@
         <v>178</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J4" t="str">
         <f>"insert into  "&amp;A1&amp;" (tbl_id,covariates_code,covariates_name,covariates_type,covariates_prop,range_start,range_end)  values "</f>
@@ -12858,25 +12861,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>291</v>
-      </c>
       <c r="E5" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12884,10 +12887,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
@@ -12911,10 +12914,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -12929,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J9" si="0">"('"&amp;B7&amp;"','"&amp;C7 &amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"','"&amp;F7 &amp;"','"&amp;G7 &amp;"','"&amp;H7 &amp;"'),"</f>
+        <f t="shared" ref="J7:J8" si="0">"('"&amp;B7&amp;"','"&amp;C7 &amp;"','"&amp;D7 &amp;"','"&amp;E7 &amp;"','"&amp;F7 &amp;"','"&amp;G7 &amp;"','"&amp;H7 &amp;"'),"</f>
         <v>('2','C00002','性別','0','1','0','1'),</v>
       </c>
     </row>
@@ -12938,10 +12941,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="E8" s="16">
         <v>2</v>
@@ -12965,7 +12968,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>222</v>
@@ -13025,12 +13028,12 @@
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/sekkei/要件一覧.xlsx
+++ b/sekkei/要件一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjkan\git\research\sekkei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F4FCC-B182-4B97-90FD-8D01D0D93021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D20B3-FC17-40F0-B8AE-33271070CD00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="517">
   <si>
     <t>退職予定者を登録する</t>
     <rPh sb="0" eb="2">
@@ -3978,6 +3978,23 @@
     <t>0:顧客起因、1:自社起因、2:個人起因、3:個人起因(退職)</t>
     <rPh sb="28" eb="30">
       <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過4半期数</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4057,7 +4074,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4097,6 +4114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4280,7 +4303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4393,6 +4416,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4408,6 +4432,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E0B8E5-C0FE-4A96-8E04-3456D92D6A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="2758440"/>
+          <a:ext cx="3688080" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>期間は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5692,7 +5789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE398A7-A296-4641-94DE-497B51409A30}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7075,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A56403-2E95-41CD-9240-5071566FF637}">
   <dimension ref="A4:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9288,7 +9385,7 @@
   <dimension ref="B2:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12346,7 +12443,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12487,8 +12584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA61F8-64F4-46E2-A988-903E2EDF090B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12814,7 +12911,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12883,25 +12980,25 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="16">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="52">
         <v>2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="52">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="52">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="52">
         <v>39</v>
       </c>
       <c r="J6" t="str">
@@ -12937,25 +13034,25 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="16">
+      <c r="B8" s="52">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="52">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="52">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="52">
         <v>479</v>
       </c>
       <c r="J8" t="str">
@@ -12991,13 +13088,31 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="52">
+        <v>5</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" s="52">
+        <v>2</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52">
+        <v>159</v>
+      </c>
+      <c r="J10" t="str">
+        <f>"('"&amp;B10&amp;"','"&amp;C10 &amp;"','"&amp;D10 &amp;"','"&amp;E10 &amp;"','"&amp;F10 &amp;"','"&amp;G10 &amp;"','"&amp;H10 &amp;"');"</f>
+        <v>('5','C00005','経過4半期数','2','0','0','159');</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="16"/>
@@ -13030,6 +13145,10 @@
       <c r="E16" t="s">
         <v>474</v>
       </c>
+      <c r="J16">
+        <f>9999/12</f>
+        <v>833.25</v>
+      </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
@@ -13040,5 +13159,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>